--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\Desktop\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="218">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -866,6 +866,10 @@
   </si>
   <si>
     <t>코드를 먼저 봐버림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 커밋 되는건가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1273,31 +1277,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="E69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.75" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>176</v>
       </c>
@@ -1353,7 +1357,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1431,7 +1435,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1452,7 +1456,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1470,7 +1474,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1502,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1536,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1548,7 +1552,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1585,7 +1589,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1597,7 +1601,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1615,7 +1619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>206</v>
       </c>
@@ -1641,7 +1645,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1677,7 +1681,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1695,7 +1699,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1732,7 +1736,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1753,7 +1757,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1774,7 +1778,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>203</v>
       </c>
@@ -1821,7 +1825,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>208</v>
@@ -1845,7 +1849,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -1911,7 +1915,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1944,7 +1948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>205</v>
       </c>
@@ -1966,7 +1970,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -1981,7 +1985,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2003,7 +2007,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2018,7 +2022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2028,7 +2032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2068,7 +2072,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2083,7 +2087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2098,7 +2102,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2108,7 +2112,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2148,7 +2152,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2173,7 +2177,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2198,7 +2202,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2213,7 +2217,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2223,7 +2227,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2248,7 +2252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2270,7 +2274,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2285,7 +2289,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>118</v>
       </c>
@@ -2293,12 +2297,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2313,7 +2317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2343,7 +2347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2370,7 +2374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2415,7 +2419,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2457,7 +2461,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>119</v>
       </c>
@@ -2472,7 +2476,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>122</v>
       </c>
@@ -2480,7 +2484,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>123</v>
       </c>
@@ -2495,7 +2499,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>125</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>127</v>
       </c>
@@ -2528,7 +2532,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>131</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>132</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>134</v>
       </c>
@@ -2570,7 +2574,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>136</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>138</v>
       </c>
@@ -2600,7 +2604,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>140</v>
       </c>
@@ -2615,7 +2619,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>142</v>
       </c>
@@ -2630,7 +2634,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>144</v>
       </c>
@@ -2645,7 +2649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>146</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
         <v>148</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>150</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>152</v>
       </c>
@@ -2705,7 +2709,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>154</v>
       </c>
@@ -2720,7 +2724,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>157</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>158</v>
       </c>
@@ -2750,7 +2754,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>160</v>
       </c>
@@ -2765,7 +2769,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>162</v>
       </c>
@@ -2780,12 +2784,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>165</v>
       </c>
@@ -2800,7 +2804,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>167</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>169</v>
       </c>
@@ -2830,7 +2834,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>171</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>173</v>
       </c>
@@ -2860,30 +2864,35 @@
         <v>174</v>
       </c>
     </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -869,7 +869,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이거 커밋 되는건가?</t>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E69" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="226">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -870,6 +870,38 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전역변수를 적절히 이용해서 파라미터를 줄일수 있으면 줄이자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집합을 비트마스크로 간편하게 나타낼 수 있다
+20개 집합 (1&lt;&lt;20)-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(i == (1&lt;&lt;k)) 로 브루드포스 구현 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풀이가 브루드포스 방식과 유사한 원리이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1323,7 @@
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.75" customWidth="1"/>
+    <col min="10" max="10" width="38.875" customWidth="1"/>
     <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1933,7 +1965,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1947,8 +1979,14 @@
       <c r="H35" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>205</v>
       </c>
@@ -1965,8 +2003,12 @@
       <c r="H36" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="5"/>
+      <c r="I36" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>221</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
@@ -1983,6 +2025,12 @@
       </c>
       <c r="H37" t="s">
         <v>55</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -2269,8 +2317,12 @@
       <c r="H58" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="5"/>
+      <c r="I58" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="228">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -454,10 +454,6 @@
   </si>
   <si>
     <t>&gt;&gt; 큐, 덱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;&gt; 인접리스트, 간선리스트, 비재귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -902,6 +898,18 @@
   </si>
   <si>
     <t>풀이가 브루드포스 방식과 유사한 원리이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs, dfs 하기전에 sort하면 노드 크기 우선순위 로직 구현이 쉬워진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스 배열은 new하고 나서도 index마다 new를 해주어야 한다. Primitive type은 기본값으로 초기화 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 인접리스트, 간선리스트, 비재귀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J59" sqref="J59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1330,7 +1338,7 @@
   <sheetData>
     <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
@@ -1344,7 +1352,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -1356,18 +1364,18 @@
         <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1383,10 +1391,10 @@
         <v>https://www.acmicpc.net/problem/10430</v>
       </c>
       <c r="H5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
@@ -1404,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
@@ -1419,10 +1427,10 @@
         <v>https://www.acmicpc.net/problem/1934</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
@@ -1440,10 +1448,10 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
@@ -1461,10 +1469,10 @@
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
@@ -1479,13 +1487,13 @@
         <v>https://www.acmicpc.net/problem/1929</v>
       </c>
       <c r="H10" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" t="s">
         <v>184</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K10" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1503,7 +1511,7 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1524,13 +1532,13 @@
         <v>20</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12" s="5"/>
     </row>
@@ -1549,7 +1557,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.3">
@@ -1562,10 +1570,10 @@
         <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.3">
@@ -1578,10 +1586,10 @@
         <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
@@ -1599,10 +1607,10 @@
         <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.3">
@@ -1615,10 +1623,10 @@
         <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.3">
@@ -1627,10 +1635,10 @@
         <v>28</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1648,12 +1656,12 @@
         <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>31</v>
@@ -1669,10 +1677,10 @@
         <v>32</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1692,7 +1700,7 @@
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.3">
@@ -1710,7 +1718,7 @@
         <v>36</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.3">
@@ -1728,7 +1736,7 @@
         <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.3">
@@ -1746,10 +1754,10 @@
         <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.3">
@@ -1762,10 +1770,10 @@
         <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.3">
@@ -1783,10 +1791,10 @@
         <v>43</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.3">
@@ -1804,13 +1812,13 @@
         <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1822,18 +1830,18 @@
         <v>https://www.acmicpc.net/problem/1759</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J28" t="s">
-        <v>202</v>
-      </c>
-      <c r="K28" t="s">
-        <v>207</v>
+        <v>201</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>29</v>
@@ -1849,10 +1857,10 @@
         <v>46</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -1860,7 +1868,7 @@
     <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F30" s="10">
         <v>1759</v>
@@ -1870,13 +1878,13 @@
         <v>https://www.acmicpc.net/problem/1759</v>
       </c>
       <c r="H30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -1893,16 +1901,16 @@
         <v>https://www.acmicpc.net/problem/6603</v>
       </c>
       <c r="H31" t="s">
+        <v>212</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.3">
@@ -1917,13 +1925,13 @@
         <v>https://www.acmicpc.net/problem/14888</v>
       </c>
       <c r="H32" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
@@ -1941,10 +1949,10 @@
         <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.3">
@@ -1959,10 +1967,10 @@
         <v>https://www.acmicpc.net/problem/1182</v>
       </c>
       <c r="H34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -1980,15 +1988,15 @@
         <v>50</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>53</v>
@@ -2004,10 +2012,10 @@
         <v>54</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -2027,10 +2035,10 @@
         <v>55</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -2318,15 +2326,15 @@
         <v>91</v>
       </c>
       <c r="I58" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2340,19 +2348,34 @@
       <c r="H59" t="s">
         <v>93</v>
       </c>
+      <c r="I59" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="H60" t="s">
         <v>94</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
+      <c r="I61" s="1" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
@@ -2515,7 +2538,7 @@
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F73">
         <v>1261</v>
@@ -2525,20 +2548,20 @@
         <v>https://www.acmicpc.net/problem/1261</v>
       </c>
       <c r="H73" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F75">
         <v>2206</v>
@@ -2548,12 +2571,12 @@
         <v>https://www.acmicpc.net/problem/2206</v>
       </c>
       <c r="H75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76">
         <v>3055</v>
@@ -2563,15 +2586,15 @@
         <v>https://www.acmicpc.net/problem/3055</v>
       </c>
       <c r="H76" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="F78">
         <v>1463</v>
@@ -2581,24 +2604,24 @@
         <v>https://www.acmicpc.net/problem/1463</v>
       </c>
       <c r="H78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F80">
         <v>11726</v>
@@ -2608,12 +2631,12 @@
         <v>https://www.acmicpc.net/problem/11726</v>
       </c>
       <c r="H80" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F81">
         <v>11727</v>
@@ -2623,12 +2646,12 @@
         <v>https://www.acmicpc.net/problem/11727</v>
       </c>
       <c r="H81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F82">
         <v>9095</v>
@@ -2638,12 +2661,12 @@
         <v>https://www.acmicpc.net/problem/9095</v>
       </c>
       <c r="H82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F83">
         <v>15988</v>
@@ -2653,12 +2676,12 @@
         <v>https://www.acmicpc.net/problem/15988</v>
       </c>
       <c r="H83" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F84">
         <v>11052</v>
@@ -2668,12 +2691,12 @@
         <v>https://www.acmicpc.net/problem/11052</v>
       </c>
       <c r="H84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F85">
         <v>16194</v>
@@ -2683,12 +2706,12 @@
         <v>https://www.acmicpc.net/problem/16194</v>
       </c>
       <c r="H85" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F86">
         <v>15990</v>
@@ -2698,12 +2721,12 @@
         <v>https://www.acmicpc.net/problem/15990</v>
       </c>
       <c r="H86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F87">
         <v>10844</v>
@@ -2713,12 +2736,12 @@
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
       <c r="H87" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F88">
         <v>11057</v>
@@ -2728,12 +2751,12 @@
         <v>https://www.acmicpc.net/problem/11057</v>
       </c>
       <c r="H88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F89">
         <v>2193</v>
@@ -2743,12 +2766,12 @@
         <v>https://www.acmicpc.net/problem/2193</v>
       </c>
       <c r="H89" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F90">
         <v>9465</v>
@@ -2758,12 +2781,12 @@
         <v>https://www.acmicpc.net/problem/9465</v>
       </c>
       <c r="H90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F91">
         <v>2156</v>
@@ -2773,12 +2796,12 @@
         <v>https://www.acmicpc.net/problem/2156</v>
       </c>
       <c r="H91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F92">
         <v>11053</v>
@@ -2788,12 +2811,12 @@
         <v>https://www.acmicpc.net/problem/11053</v>
       </c>
       <c r="H92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F93">
         <v>14002</v>
@@ -2803,12 +2826,12 @@
         <v>https://www.acmicpc.net/problem/14002</v>
       </c>
       <c r="H93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F94">
         <v>11055</v>
@@ -2818,12 +2841,12 @@
         <v>https://www.acmicpc.net/problem/11055</v>
       </c>
       <c r="H94" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F95">
         <v>11722</v>
@@ -2833,17 +2856,17 @@
         <v>https://www.acmicpc.net/problem/11722</v>
       </c>
       <c r="H95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F97">
         <v>11054</v>
@@ -2853,12 +2876,12 @@
         <v>https://www.acmicpc.net/problem/11054</v>
       </c>
       <c r="H97" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F98">
         <v>1912</v>
@@ -2868,12 +2891,12 @@
         <v>https://www.acmicpc.net/problem/1912</v>
       </c>
       <c r="H98" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F99">
         <v>13398</v>
@@ -2883,12 +2906,12 @@
         <v>https://www.acmicpc.net/problem/13398</v>
       </c>
       <c r="H99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F100">
         <v>1699</v>
@@ -2898,12 +2921,12 @@
         <v>https://www.acmicpc.net/problem/1699</v>
       </c>
       <c r="H100" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F101">
         <v>2225</v>
@@ -2913,17 +2936,17 @@
         <v>https://www.acmicpc.net/problem/2225</v>
       </c>
       <c r="H101" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="181" spans="5:5" x14ac:dyDescent="0.3">

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -901,15 +901,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bfs, dfs 하기전에 sort하면 노드 크기 우선순위 로직 구현이 쉬워진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스 배열은 new하고 나서도 index마다 new를 해주어야 한다. Primitive type은 기본값으로 초기화 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>&gt;&gt; 인접리스트, 간선리스트, 비재귀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfs, dfs 하기전에 sort하면 노드 크기 우선순위 로직 구현이 쉬워진다.
+ - dfs전 check 하자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1317,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2334,7 +2335,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2349,18 +2350,18 @@
         <v>93</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="J59" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="K59" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="60" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H60" t="s">
         <v>94</v>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="229">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -911,6 +911,11 @@
   <si>
     <t>bfs, dfs 하기전에 sort하면 노드 크기 우선순위 로직 구현이 쉬워진다.
  - dfs전 check 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반대쪽 배열 추가하는거 잊지 말기
+간선리스트는 null인 class가 있으면 sorting시 공통함수를 사용할 수 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1318,31 +1323,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="H47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.875" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1398,7 +1403,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1416,7 +1421,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1439,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1476,7 +1481,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1515,7 +1520,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1543,7 +1548,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1577,7 +1582,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1593,7 +1598,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1614,7 +1619,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1630,7 +1635,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1642,7 +1647,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1660,7 +1665,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1686,7 +1691,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,7 +1709,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1722,7 +1727,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1740,7 +1745,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1777,7 +1782,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1798,7 +1803,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1819,7 +1824,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1840,7 +1845,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1866,7 +1871,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1890,7 +1895,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1935,7 +1940,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -1956,7 +1961,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1995,7 +2000,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2021,7 +2026,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2042,7 +2047,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2064,7 +2069,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2089,7 +2094,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2104,7 +2109,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2129,7 +2134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2144,7 +2149,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2159,7 +2164,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2169,7 +2174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2184,7 +2189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2199,7 +2204,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2209,7 +2214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2224,7 +2229,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2234,7 +2239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2249,7 +2254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2259,7 +2264,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2274,7 +2279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2284,7 +2289,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2309,7 +2314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2335,7 +2340,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2359,7 +2364,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2369,8 +2374,11 @@
       <c r="I60" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J60" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2393,7 +2401,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2408,7 +2416,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2435,7 +2443,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2450,7 +2458,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2480,7 +2488,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2510,7 +2518,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2525,7 +2533,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2537,7 +2545,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2552,7 +2560,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2560,7 +2568,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2590,7 +2598,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2608,7 +2616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2620,7 +2628,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2635,7 +2643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2650,7 +2658,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2665,7 +2673,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2680,7 +2688,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2710,7 +2718,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2725,7 +2733,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2740,7 +2748,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2755,7 +2763,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2785,7 +2793,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2800,7 +2808,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2830,7 +2838,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -2845,7 +2853,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -2860,12 +2868,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -2880,7 +2888,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -2895,7 +2903,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -2910,7 +2918,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -2940,35 +2948,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="230">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -918,12 +918,40 @@
 간선리스트는 null인 class가 있으면 sorting시 공통함수를 사용할 수 없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DFS next push하고 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 가 생명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -953,6 +981,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1323,31 +1359,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="H44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.875" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1379,7 +1415,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1403,7 +1439,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1421,7 +1457,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1475,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1460,7 +1496,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,7 +1517,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1538,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1520,7 +1556,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1548,7 +1584,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,7 +1602,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1582,7 +1618,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1598,7 +1634,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1619,7 +1655,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1635,7 +1671,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1647,7 +1683,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1665,7 +1701,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1691,7 +1727,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1709,7 +1745,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1727,7 +1763,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,7 +1781,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1766,7 +1802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1782,7 +1818,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1803,7 +1839,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1824,7 +1860,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1845,7 +1881,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1871,7 +1907,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1895,7 +1931,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1919,7 +1955,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1940,7 +1976,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -1961,7 +1997,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1979,7 +2015,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2000,7 +2036,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2026,7 +2062,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2047,7 +2083,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2105,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2084,7 +2120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2094,7 +2130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2109,7 +2145,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2124,7 +2160,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2134,7 +2170,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2149,7 +2185,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2164,7 +2200,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2174,7 +2210,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2189,7 +2225,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2204,7 +2240,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2214,7 +2250,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2229,7 +2265,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2239,7 +2275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2254,7 +2290,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2264,7 +2300,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2279,7 +2315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2289,7 +2325,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2304,7 +2340,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2314,7 +2350,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2340,7 +2376,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2364,7 +2400,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2372,21 +2408,24 @@
         <v>94</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+        <v>179</v>
+      </c>
+      <c r="J61" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2401,7 +2440,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2416,7 +2455,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2431,7 +2470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2443,7 +2482,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2458,7 +2497,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2473,7 +2512,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2488,7 +2527,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2503,7 +2542,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2518,7 +2557,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2533,7 +2572,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2545,7 +2584,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2560,7 +2599,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2568,7 +2607,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2583,7 +2622,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2598,7 +2637,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2616,7 +2655,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2628,7 +2667,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2643,7 +2682,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2658,7 +2697,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2673,7 +2712,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2688,7 +2727,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2703,7 +2742,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2718,7 +2757,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2733,7 +2772,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2748,7 +2787,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2763,7 +2802,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2778,7 +2817,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2793,7 +2832,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2808,7 +2847,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2823,7 +2862,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2838,7 +2877,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -2853,7 +2892,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -2868,12 +2907,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -2888,7 +2927,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -2903,7 +2942,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -2918,7 +2957,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -2933,7 +2972,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -2948,35 +2987,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="231">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -944,6 +944,10 @@
       </rPr>
       <t xml:space="preserve"> 가 생명</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check 배열로 더 간단하게 숫자세기 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1359,8 +1363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K66" sqref="K66"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2439,6 +2443,12 @@
       <c r="H62" t="s">
         <v>97</v>
       </c>
+      <c r="I62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="63" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="232">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -948,6 +948,35 @@
   </si>
   <si>
     <t>check 배열로 더 간단하게 숫자세기 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">check를 int로 선언해서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3가지 이상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 상태 정의
+3-x 로 토글 가능</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1363,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2450,7 +2479,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2463,6 +2492,12 @@
       </c>
       <c r="H63" t="s">
         <v>99</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="4:12" x14ac:dyDescent="0.3">
@@ -2479,8 +2514,11 @@
       <c r="H64" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2491,8 +2529,11 @@
       <c r="H65" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2507,7 +2548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2522,7 +2563,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2537,7 +2578,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2552,7 +2593,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2567,7 +2608,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2582,7 +2623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2594,7 +2635,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2609,7 +2650,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2617,7 +2658,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2632,7 +2673,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2647,7 +2688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2665,7 +2706,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2677,7 +2718,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="9990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="9970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="232">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1392,31 +1392,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="F64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G68" sqref="G68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.875" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1651,7 +1651,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1667,7 +1667,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1704,7 +1704,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1716,7 +1716,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1851,7 +1851,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1940,7 +1940,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1964,7 +1964,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2163,7 +2163,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2203,7 +2203,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2243,7 +2243,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2283,7 +2283,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2308,7 +2308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2333,7 +2333,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2358,7 +2358,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2373,7 +2373,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2383,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2409,7 +2409,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2547,8 +2547,11 @@
       <c r="H66" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I66" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2562,8 +2565,11 @@
       <c r="H67" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="I67" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2593,7 +2599,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2608,7 +2614,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2635,7 +2641,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2650,7 +2656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2658,7 +2664,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2748,7 +2754,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2778,7 +2784,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2793,7 +2799,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2808,7 +2814,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2823,7 +2829,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2838,7 +2844,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2868,7 +2874,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -2943,7 +2949,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -2958,12 +2964,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -2978,7 +2984,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -2993,7 +2999,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3008,7 +3014,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3023,7 +3029,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3038,35 +3044,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="9970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="233">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,6 +977,11 @@
       <t xml:space="preserve"> 상태 정의
 3-x 로 토글 가능</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>병렬 실행을 원하면 queue start에 두개 이상 넣으면 됨
+c(=거리) 배열이 있었으므로 Triple이 아닌 Pair클래스로도 구현 가능하였다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1392,31 +1397,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F64" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.875" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +1453,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1508,7 +1513,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1529,7 +1534,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1550,7 +1555,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1617,7 +1622,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1640,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1651,7 +1656,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1667,7 +1672,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1693,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1704,7 +1709,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1716,7 +1721,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1734,7 +1739,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1760,7 +1765,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1778,7 +1783,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1819,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1835,7 +1840,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1851,7 +1856,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1872,7 +1877,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1893,7 +1898,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1914,7 +1919,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1940,7 +1945,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1964,7 +1969,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1988,7 +1993,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2030,7 +2035,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2048,7 +2053,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2095,7 +2100,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2116,7 +2121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2143,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2153,7 +2158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2163,7 +2168,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2178,7 +2183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2193,7 +2198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2203,7 +2208,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2218,7 +2223,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2233,7 +2238,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2243,7 +2248,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2283,7 +2288,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2298,7 +2303,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2308,7 +2313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2323,7 +2328,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2333,7 +2338,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2348,7 +2353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2358,7 +2363,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2373,7 +2378,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2409,7 +2414,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2433,7 +2438,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2447,7 +2452,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2458,7 +2463,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2479,7 +2484,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2500,7 +2505,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2551,7 +2556,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2569,7 +2574,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:10" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2583,8 +2588,14 @@
       <c r="H68" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="I68" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="69" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2599,7 +2610,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2614,7 +2625,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2629,7 +2640,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2641,7 +2652,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2656,7 +2667,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2664,7 +2675,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2679,7 +2690,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2694,7 +2705,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:10" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2712,7 +2723,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2724,7 +2735,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2739,7 +2750,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2769,7 +2780,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2784,7 +2795,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2799,7 +2810,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2814,7 +2825,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2829,7 +2840,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2844,7 +2855,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2859,7 +2870,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2874,7 +2885,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2889,7 +2900,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2904,7 +2915,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2919,7 +2930,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2934,7 +2945,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -2949,7 +2960,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -2964,12 +2975,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -2984,7 +2995,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -2999,7 +3010,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3014,7 +3025,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3029,7 +3040,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3044,35 +3055,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="237">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -982,6 +982,25 @@
   <si>
     <t>병렬 실행을 원하면 queue start에 두개 이상 넣으면 됨
 c(=거리) 배열이 있었으므로 Triple이 아닌 Pair클래스로도 구현 가능하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dist 배열을 사용하면 O(1)로 검색 가능
+난 출력하고 끝내는 방식이고
+솔루션은 전체돌고 끝내는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>for(int next : new int[]{now*2, now-1, now+1})
+아주 신박한 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치가 2개이므로 queue도 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중치가 2개뿐이면 DEQ 사용이 편하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1397,31 +1416,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F56" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="F67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.875" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1472,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1477,7 +1496,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1495,7 +1514,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1513,7 +1532,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1553,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1555,7 +1574,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1576,7 +1595,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1594,7 +1613,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1641,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1656,7 +1675,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1672,7 +1691,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1693,7 +1712,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1709,7 +1728,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1721,7 +1740,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1739,7 +1758,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1765,7 +1784,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1783,7 +1802,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1801,7 +1820,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1819,7 +1838,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1840,7 +1859,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1856,7 +1875,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1877,7 +1896,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1898,7 +1917,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1919,7 +1938,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1945,7 +1964,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1969,7 +1988,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -1993,7 +2012,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2014,7 +2033,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2035,7 +2054,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2053,7 +2072,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2074,7 +2093,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2100,7 +2119,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2121,7 +2140,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2143,7 +2162,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2158,7 +2177,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2168,7 +2187,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2183,7 +2202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2198,7 +2217,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2208,7 +2227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2223,7 +2242,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2238,7 +2257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2248,7 +2267,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2263,7 +2282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2278,7 +2297,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2288,7 +2307,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2303,7 +2322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2313,7 +2332,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2328,7 +2347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2353,7 +2372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2363,7 +2382,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2378,7 +2397,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2388,7 +2407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2414,7 +2433,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2438,7 +2457,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2452,7 +2471,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2463,7 +2482,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2484,7 +2503,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2505,7 +2524,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2523,7 +2542,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2538,7 +2557,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2556,7 +2575,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2574,7 +2593,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2595,7 +2614,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2609,8 +2628,14 @@
       <c r="H69" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="70" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="I69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2625,7 +2650,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2639,8 +2664,14 @@
       <c r="H71" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="72" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J71" t="s">
+        <v>235</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2651,8 +2682,11 @@
       <c r="H72" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="73" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="J72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2667,7 +2701,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2675,7 +2709,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2690,7 +2724,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2705,7 +2739,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2723,7 +2757,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2735,7 +2769,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2750,7 +2784,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2765,7 +2799,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2780,7 +2814,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2795,7 +2829,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2810,7 +2844,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2825,7 +2859,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2840,7 +2874,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2855,7 +2889,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2870,7 +2904,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2885,7 +2919,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2900,7 +2934,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2915,7 +2949,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2930,7 +2964,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2945,7 +2979,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -2960,7 +2994,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -2975,12 +3009,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -2995,7 +3029,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3010,7 +3044,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3025,7 +3059,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3040,7 +3074,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3055,35 +3089,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,6 +1002,10 @@
   </si>
   <si>
     <t>가중치가 2개뿐이면 DEQ 사용이 편하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사행위를 어캐할까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1416,31 +1421,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.875" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1496,7 +1501,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1514,7 +1519,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1532,7 +1537,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1553,7 +1558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1574,7 +1579,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1613,7 +1618,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1641,7 +1646,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1675,7 +1680,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1691,7 +1696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1717,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1728,7 +1733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1740,7 +1745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1763,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1784,7 +1789,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1802,7 +1807,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1820,7 +1825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1838,7 +1843,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1859,7 +1864,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1875,7 +1880,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1896,7 +1901,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1917,7 +1922,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1938,7 +1943,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1964,7 +1969,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1988,7 +1993,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2033,7 +2038,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2072,7 +2077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2119,7 +2124,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2162,7 +2167,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2177,7 +2182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2187,7 +2192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2202,7 +2207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2227,7 +2232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2242,7 +2247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2257,7 +2262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2267,7 +2272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2282,7 +2287,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2297,7 +2302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2307,7 +2312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2322,7 +2327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2332,7 +2337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2347,7 +2352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2357,7 +2362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2372,7 +2377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2382,7 +2387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2407,7 +2412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2433,7 +2438,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2471,7 +2476,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2482,7 +2487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2503,7 +2508,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2524,7 +2529,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2575,7 +2580,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2593,7 +2598,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2614,7 +2619,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2635,7 +2640,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2649,8 +2654,11 @@
       <c r="H70" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
+      <c r="J70" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2671,7 +2679,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2686,7 +2694,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2701,7 +2709,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2709,7 +2717,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2724,7 +2732,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2757,7 +2765,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2769,7 +2777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2784,7 +2792,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2829,7 +2837,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2844,7 +2852,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2859,7 +2867,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2874,7 +2882,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2889,7 +2897,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2904,7 +2912,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2949,7 +2957,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2964,7 +2972,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2979,7 +2987,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -2994,7 +3002,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3009,12 +3017,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3029,7 +3037,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3059,7 +3067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3074,7 +3082,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3089,35 +3097,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="238">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1005,7 +1004,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복사행위를 어캐할까?</t>
+    <t>bfs에서 for를 사용해야한다는 강박을 버려라!
+Queue에 2개씩 넣고 빼는 방법을 사용해서 (x,y)를 처리할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1421,31 +1421,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="D66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.875" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1680,7 +1680,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1696,7 +1696,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1733,7 +1733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1745,7 +1745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1789,7 +1789,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1880,7 +1880,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1993,7 +1993,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2124,7 +2124,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2192,7 +2192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2232,7 +2232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2272,7 +2272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2312,7 +2312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2337,7 +2337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2387,7 +2387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2412,7 +2412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2508,7 +2508,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2654,11 +2654,14 @@
       <c r="H70" t="s">
         <v>113</v>
       </c>
-      <c r="J70" t="s">
+      <c r="I70" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2709,7 +2712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2717,7 +2720,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2747,7 +2750,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2765,7 +2768,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2777,7 +2780,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2792,7 +2795,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2837,7 +2840,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2897,7 +2900,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2912,7 +2915,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2957,7 +2960,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2987,7 +2990,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3017,12 +3020,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3037,7 +3040,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3052,7 +3055,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3067,7 +3070,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3097,35 +3100,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -996,16 +996,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>가중치가 2개뿐이면 DEQ 사용이 편하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>가중치가 2개이므로 queue도 2개</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>가중치가 2개뿐이면 DEQ 사용이 편하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bfs에서 for를 사용해야한다는 강박을 버려라!
-Queue에 2개씩 넣고 빼는 방법을 사용해서 (x,y)를 처리할 수 있다.</t>
+Queue에 2개씩 넣고 빼는 방법을 사용해서 (x,y)를 처리할 수 있다.
+클립보드 수마다 답이 여러 개가 있을 수 있다면 2차원 배열로 관리해라 ex)d[s][c]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1421,31 +1422,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.875" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1519,7 +1520,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1618,7 +1619,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1646,7 +1647,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1680,7 +1681,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1696,7 +1697,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1717,7 +1718,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1733,7 +1734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1745,7 +1746,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1763,7 +1764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1789,7 +1790,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1807,7 +1808,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,7 +1844,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1864,7 +1865,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1880,7 +1881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1901,7 +1902,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1943,7 +1944,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1969,7 +1970,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1993,7 +1994,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2077,7 +2078,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2124,7 +2125,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2167,7 +2168,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2192,7 +2193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2207,7 +2208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2232,7 +2233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2262,7 +2263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2272,7 +2273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2312,7 +2313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2337,7 +2338,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2352,7 +2353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2362,7 +2363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2387,7 +2388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2412,7 +2413,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2438,7 +2439,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2476,7 +2477,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2529,7 +2530,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2562,7 +2563,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2580,7 +2581,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2676,13 +2677,13 @@
         <v>115</v>
       </c>
       <c r="J71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2694,10 +2695,10 @@
         <v>116</v>
       </c>
       <c r="J72" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2750,7 +2751,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2855,7 +2856,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2900,7 +2901,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2915,7 +2916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2945,7 +2946,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3020,12 +3021,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3040,7 +3041,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3085,7 +3086,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3100,35 +3101,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="238">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1422,31 +1422,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="G69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.875" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1681,7 +1681,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1697,7 +1697,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1734,7 +1734,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1746,7 +1746,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1881,7 +1881,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1994,7 +1994,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2125,7 +2125,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2193,7 +2193,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2233,7 +2233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2273,7 +2273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2313,7 +2313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2338,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2363,7 +2363,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2388,7 +2388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2413,7 +2413,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2439,7 +2439,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2676,6 +2676,9 @@
       <c r="H71" t="s">
         <v>115</v>
       </c>
+      <c r="I71" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J71" t="s">
         <v>236</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2694,11 +2697,14 @@
       <c r="H72" t="s">
         <v>116</v>
       </c>
+      <c r="I72" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J72" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2712,16 +2718,22 @@
       <c r="H73" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I73" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
       <c r="H74" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I74" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2751,7 +2763,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2769,7 +2781,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2781,7 +2793,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2796,7 +2808,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2826,7 +2838,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2841,7 +2853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2886,7 +2898,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2946,7 +2958,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2961,7 +2973,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2976,7 +2988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3006,7 +3018,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3021,12 +3033,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3041,7 +3053,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3056,7 +3068,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3086,7 +3098,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3101,35 +3113,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="242">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1009,12 +1009,52 @@
 클립보드 수마다 답이 여러 개가 있을 수 있다면 2차원 배열로 관리해라 ex)d[s][c]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check 배열을 따로 관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해야 한다.c[n][m][2]
+안그러면 정답이 달라진다.
+대부분은 같은데 예외케이스가 존재한다.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 했던 소스 뭐때문에 틀렸는지 모르겠다.
+Queue를 처음부터 끝까지 일관성 있게 돌리지 않으면 에러가 발생하는 가능성이 생기는것 같은데.. 왜 발생하는지 이유를 모르겠다.--&gt; 오답나오는 테스트케이스가 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다 똑같은데 if("D") chk[ny][nx]=chk[y][x]+1 이런식으로 마무리했다가 오류남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤경우에 달라지는지 예외케이스를 파악하지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1048,6 +1088,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1100,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1187,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,31 +1476,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G69" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.83203125" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46.25" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1478,7 +1532,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1502,7 +1556,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1574,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1592,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1613,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1580,7 +1634,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1601,7 +1655,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1673,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1647,7 +1701,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1665,7 +1719,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1681,7 +1735,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1697,7 +1751,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1718,7 +1772,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1734,7 +1788,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1746,7 +1800,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1764,7 +1818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1790,7 +1844,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1808,7 +1862,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1826,7 +1880,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,7 +1898,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1865,7 +1919,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1881,7 +1935,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1902,7 +1956,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1923,7 +1977,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1944,7 +1998,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -1970,7 +2024,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -1994,7 +2048,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="136" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2018,7 +2072,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2039,7 +2093,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2060,7 +2114,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2078,7 +2132,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2099,7 +2153,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2125,7 +2179,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2146,7 +2200,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2168,7 +2222,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2183,7 +2237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2193,7 +2247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2208,7 +2262,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2223,7 +2277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2233,7 +2287,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2248,7 +2302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2263,7 +2317,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2273,7 +2327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2288,7 +2342,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2303,7 +2357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2313,7 +2367,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2328,7 +2382,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2392,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2353,7 +2407,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2363,7 +2417,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2378,7 +2432,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2388,7 +2442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2403,7 +2457,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2413,7 +2467,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2439,7 +2493,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2463,7 +2517,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>226</v>
       </c>
@@ -2477,7 +2531,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2488,7 +2542,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2509,7 +2563,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2530,7 +2584,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2548,7 +2602,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2563,7 +2617,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2581,7 +2635,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2599,7 +2653,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2620,7 +2674,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2641,7 +2695,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="70" spans="4:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2662,7 +2716,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2686,7 +2740,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2704,7 +2758,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2722,7 +2776,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2733,7 +2787,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2747,8 +2801,14 @@
       <c r="H75" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="76" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="J75" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2762,8 +2822,14 @@
       <c r="H76" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="J76" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="K76" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2781,7 +2847,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2793,7 +2859,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2808,7 +2874,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2823,7 +2889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2838,7 +2904,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2853,7 +2919,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2868,7 +2934,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2883,7 +2949,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2898,7 +2964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2913,7 +2979,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2928,7 +2994,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -2943,7 +3009,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -2958,7 +3024,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -2973,7 +3039,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -2988,7 +3054,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -3003,7 +3069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3018,7 +3084,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3033,12 +3099,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3053,7 +3119,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3068,7 +3134,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3083,7 +3149,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3098,7 +3164,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3113,35 +3179,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="244">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -893,10 +893,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>풀이가 브루드포스 방식과 유사한 원리이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1046,7 +1042,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>어떤경우에 달라지는지 예외케이스를 파악하지 못함</t>
+    <t xml:space="preserve">어떤경우에 달라지는지 예외케이스를 파악하지 못함
+짐작은 간다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재귀호출 d[n]이 정답이 되도록 만드는게 좋은 소스
+재귀호출할때 return은 명백한 탈출조건에만 사용해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>go(n) = d[n]이 리턴되도록 구현했을때 d[n]&gt;0 return d[n] 해도 문제가 안생긴 이유는 뭘까? 더 최소값이 존재 할 수도 있는 것 아닌가?...--&gt; 이미 작은 것들을 다 채우고 d[n]&gt;0을 검사하기 때문에 문제가 안생기는 걸로 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1476,31 +1486,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="D77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1556,7 +1566,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1574,7 +1584,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1613,7 +1623,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1634,7 +1644,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1665,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1673,7 +1683,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1701,7 +1711,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1735,7 +1745,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1751,7 +1761,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1782,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1788,7 +1798,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1800,7 +1810,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1844,7 +1854,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1862,7 +1872,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1880,7 +1890,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1898,7 +1908,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1919,7 +1929,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1935,7 +1945,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1956,7 +1966,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1977,7 +1987,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1998,7 +2008,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -2024,7 +2034,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -2048,7 +2058,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="132" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2072,7 +2082,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2093,7 +2103,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2114,7 +2124,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2132,7 +2142,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2153,7 +2163,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="50.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2179,7 +2189,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2200,7 +2210,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2222,7 +2232,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2237,7 +2247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2247,7 +2257,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2262,7 +2272,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2277,7 +2287,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2287,7 +2297,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2317,7 +2327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2327,7 +2337,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2342,7 +2352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2357,7 +2367,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2367,7 +2377,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2382,7 +2392,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2392,7 +2402,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2407,7 +2417,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2417,7 +2427,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2432,7 +2442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2442,7 +2452,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2457,7 +2467,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2467,7 +2477,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2485,15 +2495,15 @@
         <v>91</v>
       </c>
       <c r="I58" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="J58" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2511,15 +2521,15 @@
         <v>179</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K59" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+      <c r="E60" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="E60" t="s">
-        <v>226</v>
       </c>
       <c r="H60" t="s">
         <v>94</v>
@@ -2528,10 +2538,10 @@
         <v>179</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2539,10 +2549,10 @@
         <v>179</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2560,10 +2570,10 @@
         <v>179</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2581,10 +2591,10 @@
         <v>179</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2602,7 +2612,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2617,7 +2627,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2635,7 +2645,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2653,7 +2663,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2671,10 +2681,10 @@
         <v>179</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2692,10 +2702,10 @@
         <v>179</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2713,10 +2723,10 @@
         <v>179</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2734,13 +2744,13 @@
         <v>179</v>
       </c>
       <c r="J71" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2755,10 +2765,10 @@
         <v>179</v>
       </c>
       <c r="J72" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2776,7 +2786,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2787,7 +2797,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2802,13 +2812,13 @@
         <v>123</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="K75" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+      <c r="K75" s="4" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2823,13 +2833,13 @@
         <v>125</v>
       </c>
       <c r="J76" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K76" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="K76" s="14" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="4:11" ht="85" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2846,8 +2856,17 @@
       <c r="H78" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="K78" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2858,8 +2877,11 @@
       <c r="H79" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="I79" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2874,7 +2896,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2889,7 +2911,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2904,7 +2926,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2919,7 +2941,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2934,7 +2956,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2949,7 +2971,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2964,7 +2986,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -2979,7 +3001,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -2994,7 +3016,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -3009,7 +3031,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -3024,7 +3046,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -3039,7 +3061,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -3054,7 +3076,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -3069,7 +3091,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3084,7 +3106,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3099,12 +3121,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3119,7 +3141,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3134,7 +3156,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3149,7 +3171,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3164,7 +3186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3179,35 +3201,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BASIC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="246">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1057,6 +1057,38 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">이건 공식이 아니라 샘플 그려 본 후 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>점화식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>으로 알 수 있는 문제인 듯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>먼저 봐버림..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1486,31 +1518,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" topLeftCell="D79" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1542,7 +1574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1566,7 +1598,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1616,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1602,7 +1634,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1623,7 +1655,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1644,7 +1676,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1665,7 +1697,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1683,7 +1715,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1711,7 +1743,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1729,7 +1761,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1745,7 +1777,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1761,7 +1793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1782,7 +1814,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1798,7 +1830,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1810,7 +1842,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1828,7 +1860,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1854,7 +1886,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1890,7 +1922,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1908,7 +1940,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1929,7 +1961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1945,7 +1977,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1966,7 +1998,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -1987,7 +2019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2008,7 +2040,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -2034,7 +2066,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -2058,7 +2090,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2082,7 +2114,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2103,7 +2135,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2124,7 +2156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2142,7 +2174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2163,7 +2195,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2189,7 +2221,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,7 +2242,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2232,7 +2264,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2247,7 +2279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2257,7 +2289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2272,7 +2304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2287,7 +2319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2297,7 +2329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2312,7 +2344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2327,7 +2359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2337,7 +2369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2352,7 +2384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2367,7 +2399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2377,7 +2409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2392,7 +2424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2402,7 +2434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2417,7 +2449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2427,7 +2459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2442,7 +2474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2452,7 +2484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2467,7 +2499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2477,7 +2509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2503,7 +2535,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2527,7 +2559,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>225</v>
       </c>
@@ -2541,7 +2573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2552,7 +2584,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2573,7 +2605,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2594,7 +2626,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2612,7 +2644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2627,7 +2659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2645,7 +2677,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2663,7 +2695,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2684,7 +2716,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2705,7 +2737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="4:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2726,7 +2758,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2750,7 +2782,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2768,7 +2800,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2786,7 +2818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2797,7 +2829,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2811,6 +2843,9 @@
       <c r="H75" t="s">
         <v>123</v>
       </c>
+      <c r="I75" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J75" s="13" t="s">
         <v>237</v>
       </c>
@@ -2818,7 +2853,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="4:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2832,6 +2867,9 @@
       <c r="H76" t="s">
         <v>125</v>
       </c>
+      <c r="I76" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="J76" s="4" t="s">
         <v>238</v>
       </c>
@@ -2839,7 +2877,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="4:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2866,7 +2904,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2880,8 +2918,11 @@
       <c r="I79" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="J79" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2895,8 +2936,14 @@
       <c r="H80" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I80" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2910,8 +2957,14 @@
       <c r="H81" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I81" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J81" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2925,8 +2978,11 @@
       <c r="H82" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I82" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -2940,8 +2996,11 @@
       <c r="H83" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I83" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -2955,8 +3014,11 @@
       <c r="H84" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I84" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -2970,8 +3032,11 @@
       <c r="H85" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I85" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -2985,8 +3050,11 @@
       <c r="H86" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I86" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -3000,8 +3068,11 @@
       <c r="H87" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I87" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -3015,8 +3086,11 @@
       <c r="H88" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I88" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -3030,8 +3104,11 @@
       <c r="H89" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I89" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -3045,8 +3122,11 @@
       <c r="H90" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I90" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -3060,8 +3140,11 @@
       <c r="H91" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.45">
+      <c r="I91" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -3076,7 +3159,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -3091,7 +3174,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3106,7 +3189,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3121,12 +3204,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3141,7 +3224,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3156,7 +3239,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3171,7 +3254,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3186,7 +3269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3201,35 +3284,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="246">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1518,31 +1518,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D79" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="D80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>175</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1777,7 +1777,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1793,7 +1793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1830,7 +1830,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -1842,7 +1842,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>205</v>
       </c>
@@ -1886,7 +1886,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1977,7 +1977,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>202</v>
       </c>
@@ -2066,7 +2066,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>207</v>
@@ -2090,7 +2090,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2221,7 +2221,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2289,7 +2289,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +2329,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2369,7 +2369,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2409,7 +2409,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2434,7 +2434,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2459,7 +2459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2484,7 +2484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2509,7 +2509,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2535,7 +2535,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>225</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="68" spans="4:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="71" spans="4:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="75" spans="4:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="76" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="4:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:11" ht="85" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
         <v>126</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E79" t="s">
         <v>130</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>131</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>133</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>135</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>137</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>139</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>141</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>143</v>
       </c>
@@ -3054,7 +3054,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>145</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E88" s="1" t="s">
         <v>147</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>149</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>151</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>153</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>156</v>
       </c>
@@ -3158,8 +3158,11 @@
       <c r="H92" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I92" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>157</v>
       </c>
@@ -3173,8 +3176,11 @@
       <c r="H93" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="94" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I93" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>159</v>
       </c>
@@ -3188,8 +3194,11 @@
       <c r="H94" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="95" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I94" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>161</v>
       </c>
@@ -3203,13 +3212,19 @@
       <c r="H95" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="96" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I95" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="96" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H96" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I96" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>164</v>
       </c>
@@ -3223,8 +3238,11 @@
       <c r="H97" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I97" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>166</v>
       </c>
@@ -3238,8 +3256,11 @@
       <c r="H98" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I98" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>168</v>
       </c>
@@ -3253,8 +3274,11 @@
       <c r="H99" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I99" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>170</v>
       </c>
@@ -3268,8 +3292,11 @@
       <c r="H100" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I100" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>172</v>
       </c>
@@ -3283,36 +3310,42 @@
       <c r="H101" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I101" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H102" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="I102" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J103" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E181" t="str">
         <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
         <v/>
       </c>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E182" t="str">
         <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
         <v/>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
+    <sheet name="DP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="493">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,22 +487,10 @@
     <t>http://codeplus.codes/63dbd8fc3bdd44a78e5cce72da82fa8d</t>
   </si>
   <si>
-    <t>다이나믹 프로그래밍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1로 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://codeplus.codes/237b841e0eb044f2876f08ac991ec2d7</t>
   </si>
   <si>
     <t>http://codeplus.codes/c5f9e9a3a9c7436f9e8b46ad894b69b3</t>
-  </si>
-  <si>
-    <t>&gt;&gt;Top-Down, Bottom-Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2XN 타일링</t>
@@ -1091,12 +1080,908 @@
     <t>먼저 봐버림..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>암호코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파도반 수열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/e7826c911f92e1fb0369</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/725d19f289d7dda4a191</t>
+  </si>
+  <si>
+    <t>타일채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/fe102cef6f7b7ebecdedef00ec811a7c</t>
+  </si>
+  <si>
+    <t>계단오르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/d844d321f439b78839b2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/5823d80d59a9ff24ef80</t>
+  </si>
+  <si>
+    <t>다이나믹 프로그래밍 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 프로그래밍 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동하기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/51fc0cd6a1b2db1a4d48</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/df34e7d5daf341c8b76a</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/6b580f31de918530a7e9</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/9cda32c0258dab2ce563</t>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1로 만들기
+Top-Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1로 만들기
+Bottom-Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tile2XN_1</t>
+  </si>
+  <si>
+    <t>Tile2XN_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeNBySumOf123_1</t>
+  </si>
+  <si>
+    <t>MakeNBySumOf123_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeNBySumOf123_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyCard2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyStepNumber</t>
+  </si>
+  <si>
+    <t>IncreaseNumber</t>
+  </si>
+  <si>
+    <t>SpecialBinaryNumber</t>
+  </si>
+  <si>
+    <t>Sticker</t>
+  </si>
+  <si>
+    <t>EatWine</t>
+  </si>
+  <si>
+    <t>MostLongIncreaseSequenceSubSet</t>
+  </si>
+  <si>
+    <t>MostLongIncreaseSequenceSubSet4</t>
+  </si>
+  <si>
+    <t>MostBigIncreaseSequenceSubSet</t>
+  </si>
+  <si>
+    <t>MostLongDecreaseSequenceSubSet_1</t>
+  </si>
+  <si>
+    <t>MostLongDecreaseSequenceSubSet_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MostLongBitonicSubSet</t>
+  </si>
+  <si>
+    <t>ContinuousSum</t>
+  </si>
+  <si>
+    <t>ContinuousSum2</t>
+  </si>
+  <si>
+    <t>MakeOne_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeOne_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuyCard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_N 같은문제, N: 다른문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumOfSquareNumber</t>
+  </si>
+  <si>
+    <t>CountCaseMakeSum_1</t>
+  </si>
+  <si>
+    <t>CountCaseMakeSum_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClimbStep_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClimbStep_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FillTile</t>
+  </si>
+  <si>
+    <t>WaveClassSequence</t>
+  </si>
+  <si>
+    <t>PassWardCode</t>
+  </si>
+  <si>
+    <t>Move_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_2</t>
+  </si>
+  <si>
+    <t>Move_3</t>
+  </si>
+  <si>
+    <t>Move_4</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/172da179fea2419ca3e7</t>
+  </si>
+  <si>
+    <t>Move_5</t>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/b5f8bae461a2e43a35b25d515a6b5946</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/cdbfbfb7b4de890d766de1579529bee2</t>
+  </si>
+  <si>
+    <t>JUMP_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUMP_2</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/f1003fbe8651b961de45</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/d4c90eb580674a898972</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/5fd1bfa24a7a4c8de393</t>
+  </si>
+  <si>
+    <t>팰린드롬 분할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동전1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/0bfa53f6fee1ef1b6b9d</t>
+  </si>
+  <si>
+    <t>동전2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/3db9cc732a3234efe680</t>
+  </si>
+  <si>
+    <t>Coin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/a8466ac399855aec2258</t>
+  </si>
+  <si>
+    <t>팰린드롬?
+Top-Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내리막길
+Top-Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>팰린드롬?
+Bottom-Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내리막길
+Bottom-Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/6d6e66747da68ced6b2b</t>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일합치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/af09054dd38302f80916ed2b042572d6</t>
+  </si>
+  <si>
+    <t>행렬곱셈순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/f9995c7e91eea4b300b6</t>
+  </si>
+  <si>
+    <t>공간나누기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/30a479acead102c97c28</t>
+  </si>
+  <si>
+    <t>자두나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/abd0254f31b3e036bb3e</t>
+  </si>
+  <si>
+    <t>고층빌딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/19863841d081bcc33991abd874d6dab8</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/eb36df31ebaaa8dc28ed</t>
+  </si>
+  <si>
+    <t>타일코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/0f4066bcb221f786b6a0</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/307d2dd070857278d8f6</t>
+  </si>
+  <si>
+    <t>기타리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/75773bafdba8a717afc6c560596ad449</t>
+  </si>
+  <si>
+    <t>올바른 괄호 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/8ba00d0064e8ca9c65f9ce8d64be5626</t>
+  </si>
+  <si>
+    <t>같은탑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/bfc5bacbe4fae6558cba43eb4da8ec5e</t>
+  </si>
+  <si>
+    <t>다이나믹 프로그래밍 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/fefbc054071fa3fdb80b</t>
+  </si>
+  <si>
+    <t>외판원 순회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/408cb5dff31ed9354568</t>
+  </si>
+  <si>
+    <t>발전소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/02407555bf667a39b7bb</t>
+  </si>
+  <si>
+    <t>계단수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/eb4cc4fbb5c7de035627</t>
+  </si>
+  <si>
+    <t>박성원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/7bd682332aba9ca1273ff83299082f05</t>
+  </si>
+  <si>
+    <t>격자판 채우기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/1510cabfd96f2fe8c26a00cc61008606</t>
+  </si>
+  <si>
+    <t>연습시즌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/56b1ebd983bfc91d06af</t>
+  </si>
+  <si>
+    <t>팰린드롬 경로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/71a6bab0151a6d5e5252</t>
+  </si>
+  <si>
+    <t>개근상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardForPerfectAttendance_2</t>
+  </si>
+  <si>
+    <t>RewardForPerfectAttendance_3</t>
+  </si>
+  <si>
+    <t>RewardForPerfectAttendance_4</t>
+  </si>
+  <si>
+    <t>RewardForPerfectAttendance_5</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/a41631e86703c6efd28b</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/0499aaafb64720beb6a3</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/5bedb91fe88e1f2c8117</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/e3a40182e752d9d5c1f4</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/76d2a384dfb3796ade88</t>
+  </si>
+  <si>
+    <t>다이나믹 프로그래밍 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalindromePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리의 독립집합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/3fd1210c7b988f44d7e1</t>
+  </si>
+  <si>
+    <t>토너먼트 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/d322829b0277ef9379a3</t>
+  </si>
+  <si>
+    <t>택배</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우체국</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/18cd8537a3042a68a827</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/03eca9438e826dcca026</t>
+  </si>
+  <si>
+    <t>가로등 끄기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/1fec5373c8ac574f176f</t>
+  </si>
+  <si>
+    <t>사수아탕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/0f98946df205dfd8643b</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/6766216b2a404ff77527</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/e110c245a48b14e006a7</t>
+  </si>
+  <si>
+    <t>축구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/0932e9a9e9f046216e6b</t>
+  </si>
+  <si>
+    <t>팰린드롬의 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/c4c664fceede991b88c2</t>
+  </si>
+  <si>
+    <t>IndependentSetOfTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeTournament</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryService_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryService_2</t>
+  </si>
+  <si>
+    <t>TurnOffStreetLight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuaCandy_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuaCandy_2</t>
+  </si>
+  <si>
+    <t>Soccer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsPalindrome_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountOfPalindrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이나믹 프로그래밍 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토끼의 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/549080241846a40bc7d2cc070bf35817</t>
+  </si>
+  <si>
+    <t>공의 충돌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/d1d20503cd21ed543aa393f8b83cfc36</t>
+  </si>
+  <si>
+    <t>복권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/e20b2f198768664a8a9c0bf60b6db2a4</t>
+  </si>
+  <si>
+    <t>주사위 게임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/f95651d705af1dffb7a9572633b65542</t>
+  </si>
+  <si>
+    <t>조약돌 꺼내기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/5f96d12c64e2163c5641e744dc800b7c</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/71540cd1c5c3b4fe0516f77f4898a69f</t>
+  </si>
+  <si>
+    <t>토러스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/6a0495277fb7d95a99f6ca4234124fa8</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/7880c8bffab59565e4a47e8bd7ec4aea</t>
+  </si>
+  <si>
+    <t>연휴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/f9d380e1411d3e0e6436a7785498d44a</t>
+  </si>
+  <si>
+    <t>동전 뒤집기</t>
+  </si>
+  <si>
+    <t>동전 뒤집기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/7eaa6e3081aad20029a95cfc78e4beb5</t>
+  </si>
+  <si>
+    <t>생태학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/204291804d54d45b6caabf1007173e36</t>
+  </si>
+  <si>
+    <t>랜덤 소트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/53094af37c4e341225be5072f75b1342</t>
+  </si>
+  <si>
+    <t>복권 + 은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/2e5faa6bf62a842e02523a6ce8c9fd44</t>
+  </si>
+  <si>
+    <t>파일합치기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/bb044e22a3ef51475bfe57da1cf0dfe0</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/980b7bed3e6d7a0ebe886e7c1dfe0a72</t>
+  </si>
+  <si>
+    <t>문자열 자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/0a99247b7d270aca2ff4a2bf6f47a6c8</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/a7a84a83424c1c6ceb5a1bfce94f539f</t>
+  </si>
+  <si>
+    <t>탈옥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/e011d9e1457a94eab5213f9629e86734</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/b5f5f8349a7bc2b4ace54690499af23f</t>
+  </si>
+  <si>
+    <t>수열의 OR 점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/d727bebe336395362d8aae22c75adedf</t>
+  </si>
+  <si>
+    <t>나무자르기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/7727c72f2b4322bec54b1f59ceec9c5e</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/6cfc671b61895b1807d43effa579f614</t>
+  </si>
+  <si>
+    <t>땅따먹기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/36ce084f0d0356915cbe16786e46624f</t>
+  </si>
+  <si>
+    <t>특공대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/2fc91f3a0526be29c2ab3543cc4feb6d</t>
+  </si>
+  <si>
+    <t>&gt;&gt;Convex Hull Optimization 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveOfRabbit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrashOfBall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LotteryTicket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TakeOutPebbles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카지노</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casino</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donuts_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donuts_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Holidays</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlipCoin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MergeFile_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MergeFile_2</t>
+  </si>
+  <si>
+    <t>LotteryBank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutString_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrisonBreak_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrisonBreak_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORScoreOfSequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutTree_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutTree_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hopscotch</t>
+  </si>
+  <si>
+    <t>Commando</t>
+  </si>
+  <si>
+    <t>IsPalindrome_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DivPalindrome</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downhill_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Downhill_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MergeFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MulOrderOfMAT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DivSection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlumTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighRiseBuilding_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighRiseBuilding_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TileCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guitarist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FreshMan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorrectParenthesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SameHeightTower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TravelingSalesmanProblem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PowerPlant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StepNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EasyStepNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SumSetNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FillGridPlate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PracticeSeason</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardForPerfectAttendance_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiceGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutString_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1138,6 +2023,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1190,7 +2083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1234,6 +2127,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1516,33 +2424,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:L184"/>
+  <dimension ref="C3:L186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D80" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1553,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>3</v>
@@ -1565,18 +2473,18 @@
         <v>6</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
         <v>0</v>
@@ -1592,13 +2500,13 @@
         <v>https://www.acmicpc.net/problem/10430</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1613,10 +2521,10 @@
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1628,13 +2536,13 @@
         <v>https://www.acmicpc.net/problem/1934</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1649,13 +2557,13 @@
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1670,13 +2578,13 @@
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" t="s">
         <v>179</v>
       </c>
-      <c r="J9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1688,16 +2596,16 @@
         <v>https://www.acmicpc.net/problem/1929</v>
       </c>
       <c r="H10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,10 +2620,10 @@
         <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1733,17 +2641,17 @@
         <v>20</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -1758,10 +2666,10 @@
         <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -1771,13 +2679,13 @@
         <v>23</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -1787,13 +2695,13 @@
         <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1808,13 +2716,13 @@
         <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -1824,25 +2732,25 @@
         <v>27</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1857,12 +2765,12 @@
         <v>30</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>31</v>
@@ -1878,15 +2786,15 @@
         <v>32</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1901,10 +2809,10 @@
         <v>34</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1919,10 +2827,10 @@
         <v>36</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1937,10 +2845,10 @@
         <v>38</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1955,13 +2863,13 @@
         <v>40</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -1971,13 +2879,13 @@
         <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -1992,13 +2900,13 @@
         <v>43</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2013,13 +2921,13 @@
         <v>45</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2031,18 +2939,18 @@
         <v>https://www.acmicpc.net/problem/1759</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>29</v>
@@ -2058,18 +2966,18 @@
         <v>46</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F30" s="10">
         <v>1759</v>
@@ -2079,18 +2987,18 @@
         <v>https://www.acmicpc.net/problem/1759</v>
       </c>
       <c r="H30" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J30" s="11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -2102,19 +3010,19 @@
         <v>https://www.acmicpc.net/problem/6603</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J31" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -2126,16 +3034,16 @@
         <v>https://www.acmicpc.net/problem/14888</v>
       </c>
       <c r="H32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -2150,13 +3058,13 @@
         <v>52</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2168,13 +3076,13 @@
         <v>https://www.acmicpc.net/problem/1182</v>
       </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2189,15 +3097,15 @@
         <v>50</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>53</v>
@@ -2213,15 +3121,15 @@
         <v>54</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2236,13 +3144,13 @@
         <v>55</v>
       </c>
       <c r="I37" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="J37" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="J37" s="11" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -2264,7 +3172,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -2279,7 +3187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -2289,7 +3197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2304,7 +3212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -2319,7 +3227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +3237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2344,7 +3252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -2359,7 +3267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -2369,7 +3277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -2384,7 +3292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -2399,7 +3307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -2409,7 +3317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -2424,7 +3332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -2434,7 +3342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -2449,7 +3357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -2459,7 +3367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2474,7 +3382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -2484,7 +3392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2499,7 +3407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -2509,7 +3417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -2527,15 +3435,15 @@
         <v>91</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -2550,41 +3458,41 @@
         <v>93</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H60" t="s">
         <v>94</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -2599,13 +3507,13 @@
         <v>97</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -2620,13 +3528,13 @@
         <v>99</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -2641,10 +3549,10 @@
         <v>101</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -2656,10 +3564,10 @@
         <v>102</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -2674,10 +3582,10 @@
         <v>105</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -2692,10 +3600,10 @@
         <v>107</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -2703,20 +3611,20 @@
         <v>7576</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" ref="G68:G95" si="3">IF(F68="","",CONCATENATE("https://www.acmicpc.net/problem/",F68))</f>
+        <f>IF(F68="","",CONCATENATE("https://www.acmicpc.net/problem/",F68))</f>
         <v>https://www.acmicpc.net/problem/7576</v>
       </c>
       <c r="H68" t="s">
         <v>109</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="69" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -2724,20 +3632,20 @@
         <v>1697</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F69="","",CONCATENATE("https://www.acmicpc.net/problem/",F69))</f>
         <v>https://www.acmicpc.net/problem/1697</v>
       </c>
       <c r="H69" t="s">
         <v>111</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="4:11" ht="85" x14ac:dyDescent="0.45">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -2745,20 +3653,20 @@
         <v>14226</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F70="","",CONCATENATE("https://www.acmicpc.net/problem/",F70))</f>
         <v>https://www.acmicpc.net/problem/14226</v>
       </c>
       <c r="H70" t="s">
         <v>113</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="71" spans="4:11" ht="34" x14ac:dyDescent="0.45">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -2766,41 +3674,41 @@
         <v>13549</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F71="","",CONCATENATE("https://www.acmicpc.net/problem/",F71))</f>
         <v>https://www.acmicpc.net/problem/13549</v>
       </c>
       <c r="H71" t="s">
         <v>115</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J71" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F72="","",CONCATENATE("https://www.acmicpc.net/problem/",F72))</f>
         <v/>
       </c>
       <c r="H72" t="s">
         <v>116</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J72" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.45">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -2808,17 +3716,17 @@
         <v>1261</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F73="","",CONCATENATE("https://www.acmicpc.net/problem/",F73))</f>
         <v>https://www.acmicpc.net/problem/1261</v>
       </c>
       <c r="H73" t="s">
         <v>119</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="4:11" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -2826,10 +3734,10 @@
         <v>120</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="75" spans="4:11" ht="51" x14ac:dyDescent="0.45">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -2837,23 +3745,23 @@
         <v>2206</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F75="","",CONCATENATE("https://www.acmicpc.net/problem/",F75))</f>
         <v>https://www.acmicpc.net/problem/2206</v>
       </c>
       <c r="H75" t="s">
         <v>123</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J75" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="K75" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="K75" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="76" spans="4:11" ht="85" x14ac:dyDescent="0.45">
+    </row>
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -2861,493 +3769,43 @@
         <v>3055</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(F76="","",CONCATENATE("https://www.acmicpc.net/problem/",F76))</f>
         <v>https://www.acmicpc.net/problem/3055</v>
       </c>
       <c r="H76" t="s">
         <v>125</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="78" spans="4:11" ht="85" x14ac:dyDescent="0.45">
-      <c r="D78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F78">
-        <v>1463</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/1463</v>
-      </c>
-      <c r="H78" t="s">
-        <v>128</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="E79" t="s">
-        <v>130</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="H79" t="s">
-        <v>129</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.45">
-      <c r="E80" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F80">
-        <v>11726</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/11726</v>
-      </c>
-      <c r="H80" t="s">
-        <v>132</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J80" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E81" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F81">
-        <v>11727</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/11727</v>
-      </c>
-      <c r="H81" t="s">
-        <v>134</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J81" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E82" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F82">
-        <v>9095</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/9095</v>
-      </c>
-      <c r="H82" t="s">
-        <v>136</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E83" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F83">
-        <v>15988</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/15988</v>
-      </c>
-      <c r="H83" t="s">
-        <v>138</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E84" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F84">
-        <v>11052</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/11052</v>
-      </c>
-      <c r="H84" t="s">
-        <v>140</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E85" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F85">
-        <v>16194</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/16194</v>
-      </c>
-      <c r="H85" t="s">
-        <v>142</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E86" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F86">
-        <v>15990</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/15990</v>
-      </c>
-      <c r="H86" t="s">
-        <v>144</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E87" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F87">
-        <v>10844</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/10844</v>
-      </c>
-      <c r="H87" t="s">
-        <v>146</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E88" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88">
-        <v>11057</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/11057</v>
-      </c>
-      <c r="H88" t="s">
-        <v>148</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E89" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F89">
-        <v>2193</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/2193</v>
-      </c>
-      <c r="H89" t="s">
-        <v>150</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E90" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F90">
-        <v>9465</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/9465</v>
-      </c>
-      <c r="H90" t="s">
-        <v>152</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E91" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F91">
-        <v>2156</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/2156</v>
-      </c>
-      <c r="H91" t="s">
-        <v>154</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F92">
-        <v>11053</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/11053</v>
-      </c>
-      <c r="H92" t="s">
-        <v>155</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E93" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F93">
-        <v>14002</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/14002</v>
-      </c>
-      <c r="H93" t="s">
-        <v>158</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="94" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E94" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F94">
-        <v>11055</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/11055</v>
-      </c>
-      <c r="H94" t="s">
-        <v>160</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="95" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E95" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F95">
-        <v>11722</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="3"/>
-        <v>https://www.acmicpc.net/problem/11722</v>
-      </c>
-      <c r="H95" t="s">
-        <v>162</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="96" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="H96" t="s">
-        <v>163</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E97" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F97">
-        <v>11054</v>
-      </c>
-      <c r="G97" t="str">
-        <f>IF(F97="","",CONCATENATE("https://www.acmicpc.net/problem/",F97))</f>
-        <v>https://www.acmicpc.net/problem/11054</v>
-      </c>
-      <c r="H97" t="s">
-        <v>165</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E98" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F98">
-        <v>1912</v>
-      </c>
-      <c r="G98" t="str">
-        <f>IF(F98="","",CONCATENATE("https://www.acmicpc.net/problem/",F98))</f>
-        <v>https://www.acmicpc.net/problem/1912</v>
-      </c>
-      <c r="H98" t="s">
-        <v>167</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E99" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F99">
-        <v>13398</v>
-      </c>
-      <c r="G99" t="str">
-        <f>IF(F99="","",CONCATENATE("https://www.acmicpc.net/problem/",F99))</f>
-        <v>https://www.acmicpc.net/problem/13398</v>
-      </c>
-      <c r="H99" t="s">
-        <v>169</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E100" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F100">
-        <v>1699</v>
-      </c>
-      <c r="G100" t="str">
-        <f>IF(F100="","",CONCATENATE("https://www.acmicpc.net/problem/",F100))</f>
-        <v>https://www.acmicpc.net/problem/1699</v>
-      </c>
-      <c r="H100" t="s">
-        <v>171</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E101" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F101">
-        <v>2225</v>
-      </c>
-      <c r="G101" t="str">
-        <f>IF(F101="","",CONCATENATE("https://www.acmicpc.net/problem/",F101))</f>
-        <v>https://www.acmicpc.net/problem/2225</v>
-      </c>
-      <c r="H101" t="s">
-        <v>173</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="H102" t="s">
-        <v>174</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="J103" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E181" t="str">
-        <f>IF(D181="","",CONCATENATE("https://www.acmicpc.net/problem/",D181))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.45">
-      <c r="E182" t="str">
-        <f>IF(D182="","",CONCATENATE("https://www.acmicpc.net/problem/",D182))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185" t="str">
+        <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186" t="str">
+        <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
       </c>
     </row>
@@ -3356,4 +3814,2032 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:M112"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
+    <col min="8" max="8" width="62" customWidth="1"/>
+    <col min="9" max="9" width="9.75" customWidth="1"/>
+    <col min="10" max="10" width="31" style="1" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="13" max="13" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+      <c r="E5" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F5">
+        <v>1463</v>
+      </c>
+      <c r="G5" t="str">
+        <f>IF(F5="","",CONCATENATE("https://www.acmicpc.net/problem/",F5))</f>
+        <v>https://www.acmicpc.net/problem/1463</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="E6" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7">
+        <v>11726</v>
+      </c>
+      <c r="G7" t="str">
+        <f>IF(F7="","",CONCATENATE("https://www.acmicpc.net/problem/",F7))</f>
+        <v>https://www.acmicpc.net/problem/11726</v>
+      </c>
+      <c r="H7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="K7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8">
+        <v>11727</v>
+      </c>
+      <c r="G8" t="str">
+        <f>IF(F8="","",CONCATENATE("https://www.acmicpc.net/problem/",F8))</f>
+        <v>https://www.acmicpc.net/problem/11727</v>
+      </c>
+      <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9">
+        <v>9095</v>
+      </c>
+      <c r="G9" t="str">
+        <f>IF(F9="","",CONCATENATE("https://www.acmicpc.net/problem/",F9))</f>
+        <v>https://www.acmicpc.net/problem/9095</v>
+      </c>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10">
+        <v>15988</v>
+      </c>
+      <c r="G10" t="str">
+        <f>IF(F10="","",CONCATENATE("https://www.acmicpc.net/problem/",F10))</f>
+        <v>https://www.acmicpc.net/problem/15988</v>
+      </c>
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11">
+        <v>11052</v>
+      </c>
+      <c r="G11" t="str">
+        <f>IF(F11="","",CONCATENATE("https://www.acmicpc.net/problem/",F11))</f>
+        <v>https://www.acmicpc.net/problem/11052</v>
+      </c>
+      <c r="H11" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12">
+        <v>16194</v>
+      </c>
+      <c r="G12" t="str">
+        <f>IF(F12="","",CONCATENATE("https://www.acmicpc.net/problem/",F12))</f>
+        <v>https://www.acmicpc.net/problem/16194</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13">
+        <v>15990</v>
+      </c>
+      <c r="G13" t="str">
+        <f>IF(F13="","",CONCATENATE("https://www.acmicpc.net/problem/",F13))</f>
+        <v>https://www.acmicpc.net/problem/15990</v>
+      </c>
+      <c r="H13" t="s">
+        <v>141</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14">
+        <v>10844</v>
+      </c>
+      <c r="G14" t="str">
+        <f>IF(F14="","",CONCATENATE("https://www.acmicpc.net/problem/",F14))</f>
+        <v>https://www.acmicpc.net/problem/10844</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15">
+        <v>11057</v>
+      </c>
+      <c r="G15" t="str">
+        <f>IF(F15="","",CONCATENATE("https://www.acmicpc.net/problem/",F15))</f>
+        <v>https://www.acmicpc.net/problem/11057</v>
+      </c>
+      <c r="H15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16">
+        <v>2193</v>
+      </c>
+      <c r="G16" t="str">
+        <f>IF(F16="","",CONCATENATE("https://www.acmicpc.net/problem/",F16))</f>
+        <v>https://www.acmicpc.net/problem/2193</v>
+      </c>
+      <c r="H16" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F17">
+        <v>9465</v>
+      </c>
+      <c r="G17" t="str">
+        <f>IF(F17="","",CONCATENATE("https://www.acmicpc.net/problem/",F17))</f>
+        <v>https://www.acmicpc.net/problem/9465</v>
+      </c>
+      <c r="H17" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18">
+        <v>2156</v>
+      </c>
+      <c r="G18" t="str">
+        <f>IF(F18="","",CONCATENATE("https://www.acmicpc.net/problem/",F18))</f>
+        <v>https://www.acmicpc.net/problem/2156</v>
+      </c>
+      <c r="H18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19">
+        <v>11053</v>
+      </c>
+      <c r="G19" t="str">
+        <f>IF(F19="","",CONCATENATE("https://www.acmicpc.net/problem/",F19))</f>
+        <v>https://www.acmicpc.net/problem/11053</v>
+      </c>
+      <c r="H19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20">
+        <v>14002</v>
+      </c>
+      <c r="G20" t="str">
+        <f>IF(F20="","",CONCATENATE("https://www.acmicpc.net/problem/",F20))</f>
+        <v>https://www.acmicpc.net/problem/14002</v>
+      </c>
+      <c r="H20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21">
+        <v>11055</v>
+      </c>
+      <c r="G21" t="str">
+        <f>IF(F21="","",CONCATENATE("https://www.acmicpc.net/problem/",F21))</f>
+        <v>https://www.acmicpc.net/problem/11055</v>
+      </c>
+      <c r="H21" t="s">
+        <v>157</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22">
+        <v>11722</v>
+      </c>
+      <c r="G22" t="str">
+        <f>IF(F22="","",CONCATENATE("https://www.acmicpc.net/problem/",F22))</f>
+        <v>https://www.acmicpc.net/problem/11722</v>
+      </c>
+      <c r="H22" t="s">
+        <v>159</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24">
+        <v>11054</v>
+      </c>
+      <c r="G24" t="str">
+        <f>IF(F24="","",CONCATENATE("https://www.acmicpc.net/problem/",F24))</f>
+        <v>https://www.acmicpc.net/problem/11054</v>
+      </c>
+      <c r="H24" t="s">
+        <v>162</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25">
+        <v>1912</v>
+      </c>
+      <c r="G25" t="str">
+        <f>IF(F25="","",CONCATENATE("https://www.acmicpc.net/problem/",F25))</f>
+        <v>https://www.acmicpc.net/problem/1912</v>
+      </c>
+      <c r="H25" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26">
+        <v>13398</v>
+      </c>
+      <c r="G26" t="str">
+        <f>IF(F26="","",CONCATENATE("https://www.acmicpc.net/problem/",F26))</f>
+        <v>https://www.acmicpc.net/problem/13398</v>
+      </c>
+      <c r="H26" t="s">
+        <v>166</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E27" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27">
+        <v>1699</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(F27="","",CONCATENATE("https://www.acmicpc.net/problem/",F27))</f>
+        <v>https://www.acmicpc.net/problem/1699</v>
+      </c>
+      <c r="H27" t="s">
+        <v>168</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28">
+        <v>2225</v>
+      </c>
+      <c r="G28" t="str">
+        <f>IF(F28="","",CONCATENATE("https://www.acmicpc.net/problem/",F28))</f>
+        <v>https://www.acmicpc.net/problem/2225</v>
+      </c>
+      <c r="H28" t="s">
+        <v>170</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H29" t="s">
+        <v>171</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E30" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30">
+        <v>2579</v>
+      </c>
+      <c r="G30" t="str">
+        <f>IF(F30="","",CONCATENATE("https://www.acmicpc.net/problem/",F30))</f>
+        <v>https://www.acmicpc.net/problem/2579</v>
+      </c>
+      <c r="H30" t="s">
+        <v>251</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="H31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E32" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32">
+        <v>2133</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(F32="","",CONCATENATE("https://www.acmicpc.net/problem/",F32))</f>
+        <v>https://www.acmicpc.net/problem/2133</v>
+      </c>
+      <c r="H32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="K32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33">
+        <v>9461</v>
+      </c>
+      <c r="G33" t="str">
+        <f>IF(F33="","",CONCATENATE("https://www.acmicpc.net/problem/",F33))</f>
+        <v>https://www.acmicpc.net/problem/9461</v>
+      </c>
+      <c r="H33" t="s">
+        <v>245</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F34">
+        <v>2011</v>
+      </c>
+      <c r="G34" t="str">
+        <f>IF(F34="","",CONCATENATE("https://www.acmicpc.net/problem/",F34))</f>
+        <v>https://www.acmicpc.net/problem/2011</v>
+      </c>
+      <c r="H34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36" s="10">
+        <v>11048</v>
+      </c>
+      <c r="G36" t="str">
+        <f>IF(F36="","",CONCATENATE("https://www.acmicpc.net/problem/",F36))</f>
+        <v>https://www.acmicpc.net/problem/11048</v>
+      </c>
+      <c r="H36" t="s">
+        <v>256</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H37" t="s">
+        <v>257</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H38" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H39" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H40" t="s">
+        <v>298</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E41" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F41">
+        <v>1890</v>
+      </c>
+      <c r="G41" t="str">
+        <f>IF(F41="","",CONCATENATE("https://www.acmicpc.net/problem/",F41))</f>
+        <v>https://www.acmicpc.net/problem/1890</v>
+      </c>
+      <c r="H41" t="s">
+        <v>301</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H42" t="s">
+        <v>302</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="E43" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="F43">
+        <v>10942</v>
+      </c>
+      <c r="G43" t="str">
+        <f>IF(F43="","",CONCATENATE("https://www.acmicpc.net/problem/",F43))</f>
+        <v>https://www.acmicpc.net/problem/10942</v>
+      </c>
+      <c r="H43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="E44" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="H44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" s="18" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F45">
+        <v>1509</v>
+      </c>
+      <c r="G45" t="str">
+        <f>IF(F45="","",CONCATENATE("https://www.acmicpc.net/problem/",F45))</f>
+        <v>https://www.acmicpc.net/problem/1509</v>
+      </c>
+      <c r="H45" t="s">
+        <v>307</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E46" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46">
+        <v>2293</v>
+      </c>
+      <c r="G46" t="str">
+        <f>IF(F46="","",CONCATENATE("https://www.acmicpc.net/problem/",F46))</f>
+        <v>https://www.acmicpc.net/problem/2293</v>
+      </c>
+      <c r="H46" t="s">
+        <v>310</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E47" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47">
+        <v>2294</v>
+      </c>
+      <c r="G47" t="str">
+        <f>IF(F47="","",CONCATENATE("https://www.acmicpc.net/problem/",F47))</f>
+        <v>https://www.acmicpc.net/problem/2294</v>
+      </c>
+      <c r="H47" t="s">
+        <v>312</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="E48" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="F48">
+        <v>1520</v>
+      </c>
+      <c r="G48" t="str">
+        <f>IF(F48="","",CONCATENATE("https://www.acmicpc.net/problem/",F48))</f>
+        <v>https://www.acmicpc.net/problem/1520</v>
+      </c>
+      <c r="H48" t="s">
+        <v>314</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="E49" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="H49" t="s">
+        <v>319</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F50">
+        <v>11066</v>
+      </c>
+      <c r="G50" t="str">
+        <f>IF(F50="","",CONCATENATE("https://www.acmicpc.net/problem/",F50))</f>
+        <v>https://www.acmicpc.net/problem/11066</v>
+      </c>
+      <c r="H50" t="s">
+        <v>322</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E51" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F51">
+        <v>11049</v>
+      </c>
+      <c r="G51" t="str">
+        <f>IF(F51="","",CONCATENATE("https://www.acmicpc.net/problem/",F51))</f>
+        <v>https://www.acmicpc.net/problem/11049</v>
+      </c>
+      <c r="H51" t="s">
+        <v>324</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F52">
+        <v>2228</v>
+      </c>
+      <c r="G52" t="str">
+        <f>IF(F52="","",CONCATENATE("https://www.acmicpc.net/problem/",F52))</f>
+        <v>https://www.acmicpc.net/problem/2228</v>
+      </c>
+      <c r="H52" t="s">
+        <v>326</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E53" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F53">
+        <v>2240</v>
+      </c>
+      <c r="G53" t="str">
+        <f>IF(F53="","",CONCATENATE("https://www.acmicpc.net/problem/",F53))</f>
+        <v>https://www.acmicpc.net/problem/2240</v>
+      </c>
+      <c r="H53" t="s">
+        <v>328</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E54" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F54">
+        <v>1328</v>
+      </c>
+      <c r="G54" t="str">
+        <f>IF(F54="","",CONCATENATE("https://www.acmicpc.net/problem/",F54))</f>
+        <v>https://www.acmicpc.net/problem/1328</v>
+      </c>
+      <c r="H54" t="s">
+        <v>330</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H55" t="s">
+        <v>331</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E56" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56">
+        <v>1720</v>
+      </c>
+      <c r="G56" t="str">
+        <f>IF(F56="","",CONCATENATE("https://www.acmicpc.net/problem/",F56))</f>
+        <v>https://www.acmicpc.net/problem/1720</v>
+      </c>
+      <c r="H56" t="s">
+        <v>333</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E57" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57">
+        <v>1495</v>
+      </c>
+      <c r="G57" t="str">
+        <f>IF(F57="","",CONCATENATE("https://www.acmicpc.net/problem/",F57))</f>
+        <v>https://www.acmicpc.net/problem/1495</v>
+      </c>
+      <c r="H57" t="s">
+        <v>334</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E58" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F58">
+        <v>5557</v>
+      </c>
+      <c r="G58" t="str">
+        <f>IF(F58="","",CONCATENATE("https://www.acmicpc.net/problem/",F58))</f>
+        <v>https://www.acmicpc.net/problem/5557</v>
+      </c>
+      <c r="H58" t="s">
+        <v>337</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59">
+        <v>3012</v>
+      </c>
+      <c r="G59" t="str">
+        <f>IF(F59="","",CONCATENATE("https://www.acmicpc.net/problem/",F59))</f>
+        <v>https://www.acmicpc.net/problem/3012</v>
+      </c>
+      <c r="H59" t="s">
+        <v>339</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E60" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="F60">
+        <v>1126</v>
+      </c>
+      <c r="G60" t="str">
+        <f>IF(F60="","",CONCATENATE("https://www.acmicpc.net/problem/",F60))</f>
+        <v>https://www.acmicpc.net/problem/1126</v>
+      </c>
+      <c r="H60" t="s">
+        <v>341</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E62" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F62">
+        <v>2133</v>
+      </c>
+      <c r="G62" t="str">
+        <f>IF(F62="","",CONCATENATE("https://www.acmicpc.net/problem/",F62))</f>
+        <v>https://www.acmicpc.net/problem/2133</v>
+      </c>
+      <c r="H62" t="s">
+        <v>343</v>
+      </c>
+      <c r="I62" t="s">
+        <v>320</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E63" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F63">
+        <v>2098</v>
+      </c>
+      <c r="G63" t="str">
+        <f>IF(F63="","",CONCATENATE("https://www.acmicpc.net/problem/",F63))</f>
+        <v>https://www.acmicpc.net/problem/2098</v>
+      </c>
+      <c r="H63" t="s">
+        <v>345</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E64" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F64">
+        <v>1102</v>
+      </c>
+      <c r="G64" t="str">
+        <f>IF(F64="","",CONCATENATE("https://www.acmicpc.net/problem/",F64))</f>
+        <v>https://www.acmicpc.net/problem/1102</v>
+      </c>
+      <c r="H64" t="s">
+        <v>347</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E65" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="F65">
+        <v>1562</v>
+      </c>
+      <c r="G65" t="str">
+        <f>IF(F65="","",CONCATENATE("https://www.acmicpc.net/problem/",F65))</f>
+        <v>https://www.acmicpc.net/problem/1562</v>
+      </c>
+      <c r="H65" t="s">
+        <v>349</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F66">
+        <v>10844</v>
+      </c>
+      <c r="G66" t="str">
+        <f>IF(F66="","",CONCATENATE("https://www.acmicpc.net/problem/",F66))</f>
+        <v>https://www.acmicpc.net/problem/10844</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E67" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F67">
+        <v>1086</v>
+      </c>
+      <c r="G67" t="str">
+        <f>IF(F67="","",CONCATENATE("https://www.acmicpc.net/problem/",F67))</f>
+        <v>https://www.acmicpc.net/problem/1086</v>
+      </c>
+      <c r="H67" t="s">
+        <v>351</v>
+      </c>
+      <c r="I67" t="s">
+        <v>320</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E68" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="F68">
+        <v>1648</v>
+      </c>
+      <c r="G68" t="str">
+        <f>IF(F68="","",CONCATENATE("https://www.acmicpc.net/problem/",F68))</f>
+        <v>https://www.acmicpc.net/problem/1648</v>
+      </c>
+      <c r="H68" t="s">
+        <v>353</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E69" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F69">
+        <v>9023</v>
+      </c>
+      <c r="G69" t="str">
+        <f>IF(F69="","",CONCATENATE("https://www.acmicpc.net/problem/",F69))</f>
+        <v>https://www.acmicpc.net/problem/9023</v>
+      </c>
+      <c r="H69" t="s">
+        <v>355</v>
+      </c>
+      <c r="I69" t="s">
+        <v>320</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E70" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F70">
+        <v>2172</v>
+      </c>
+      <c r="G70" t="str">
+        <f>IF(F70="","",CONCATENATE("https://www.acmicpc.net/problem/",F70))</f>
+        <v>https://www.acmicpc.net/problem/2172</v>
+      </c>
+      <c r="H70" t="s">
+        <v>357</v>
+      </c>
+      <c r="I70" t="s">
+        <v>320</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E71" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F71">
+        <v>1563</v>
+      </c>
+      <c r="G71" t="str">
+        <f>IF(F71="","",CONCATENATE("https://www.acmicpc.net/problem/",F71))</f>
+        <v>https://www.acmicpc.net/problem/1563</v>
+      </c>
+      <c r="H71" t="s">
+        <v>363</v>
+      </c>
+      <c r="I71" t="s">
+        <v>320</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H72" t="s">
+        <v>364</v>
+      </c>
+      <c r="I72" t="s">
+        <v>320</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H73" t="s">
+        <v>365</v>
+      </c>
+      <c r="I73" t="s">
+        <v>320</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="H74" t="s">
+        <v>366</v>
+      </c>
+      <c r="I74" t="s">
+        <v>320</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H75" t="s">
+        <v>367</v>
+      </c>
+      <c r="I75" t="s">
+        <v>320</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F77">
+        <v>2213</v>
+      </c>
+      <c r="G77" t="str">
+        <f>IF(F77="","",CONCATENATE("https://www.acmicpc.net/problem/",F77))</f>
+        <v>https://www.acmicpc.net/problem/2213</v>
+      </c>
+      <c r="H77" t="s">
+        <v>371</v>
+      </c>
+      <c r="I77" t="s">
+        <v>320</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E78" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F78">
+        <v>2262</v>
+      </c>
+      <c r="G78" t="str">
+        <f>IF(F78="","",CONCATENATE("https://www.acmicpc.net/problem/",F78))</f>
+        <v>https://www.acmicpc.net/problem/2262</v>
+      </c>
+      <c r="H78" t="s">
+        <v>373</v>
+      </c>
+      <c r="I78" t="s">
+        <v>320</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E79" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F79">
+        <v>1866</v>
+      </c>
+      <c r="G79" t="str">
+        <f>IF(F79="","",CONCATENATE("https://www.acmicpc.net/problem/",F79))</f>
+        <v>https://www.acmicpc.net/problem/1866</v>
+      </c>
+      <c r="H79" t="s">
+        <v>376</v>
+      </c>
+      <c r="I79" t="s">
+        <v>320</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>416</v>
+      </c>
+      <c r="G80" t="str">
+        <f>IF(F80="","",CONCATENATE("https://www.acmicpc.net/problem/",F80))</f>
+        <v>https://www.acmicpc.net/problem/동전 뒤집기</v>
+      </c>
+      <c r="H80" t="s">
+        <v>377</v>
+      </c>
+      <c r="I80" t="s">
+        <v>320</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E81" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F81">
+        <v>2142</v>
+      </c>
+      <c r="G81" t="str">
+        <f>IF(F81="","",CONCATENATE("https://www.acmicpc.net/problem/",F81))</f>
+        <v>https://www.acmicpc.net/problem/2142</v>
+      </c>
+      <c r="J81" s="16"/>
+    </row>
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E82" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F82">
+        <v>2315</v>
+      </c>
+      <c r="G82" t="str">
+        <f>IF(F82="","",CONCATENATE("https://www.acmicpc.net/problem/",F82))</f>
+        <v>https://www.acmicpc.net/problem/2315</v>
+      </c>
+      <c r="H82" t="s">
+        <v>379</v>
+      </c>
+      <c r="I82" t="s">
+        <v>320</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E83" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="F83">
+        <v>2419</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" ref="G83:G112" si="0">IF(F83="","",CONCATENATE("https://www.acmicpc.net/problem/",F83))</f>
+        <v>https://www.acmicpc.net/problem/2419</v>
+      </c>
+      <c r="H83" t="s">
+        <v>381</v>
+      </c>
+      <c r="I83" t="s">
+        <v>320</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="G84" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H84" t="s">
+        <v>382</v>
+      </c>
+      <c r="I84" t="s">
+        <v>320</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E85" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F85">
+        <v>2291</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/2291</v>
+      </c>
+      <c r="H85" t="s">
+        <v>384</v>
+      </c>
+      <c r="I85" t="s">
+        <v>320</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E86" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="F86">
+        <v>1344</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/1344</v>
+      </c>
+      <c r="H86" t="s">
+        <v>386</v>
+      </c>
+      <c r="I86" t="s">
+        <v>320</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E87" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="F87">
+        <v>1204</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/1204</v>
+      </c>
+      <c r="H87" t="s">
+        <v>388</v>
+      </c>
+      <c r="I87" t="s">
+        <v>320</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E89" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F89" s="10">
+        <v>13247</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13247</v>
+      </c>
+      <c r="H89" t="s">
+        <v>401</v>
+      </c>
+      <c r="I89" t="s">
+        <v>320</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E90" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F90" s="10">
+        <v>13249</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13249</v>
+      </c>
+      <c r="H90" t="s">
+        <v>403</v>
+      </c>
+      <c r="I90" t="s">
+        <v>320</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E91" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F91" s="10">
+        <v>1359</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/1359</v>
+      </c>
+      <c r="H91" t="s">
+        <v>405</v>
+      </c>
+      <c r="I91" t="s">
+        <v>320</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E92" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F92" s="10">
+        <v>13250</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13250</v>
+      </c>
+      <c r="H92" t="s">
+        <v>407</v>
+      </c>
+      <c r="I92" t="s">
+        <v>320</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E93" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F93" s="10">
+        <v>13251</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13251</v>
+      </c>
+      <c r="H93" t="s">
+        <v>409</v>
+      </c>
+      <c r="I93" t="s">
+        <v>320</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E94" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F94" s="10">
+        <v>13252</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13252</v>
+      </c>
+      <c r="H94" t="s">
+        <v>410</v>
+      </c>
+      <c r="I94" t="s">
+        <v>320</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E95" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F95" s="10">
+        <v>13253</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13253</v>
+      </c>
+      <c r="H95" t="s">
+        <v>412</v>
+      </c>
+      <c r="I95" t="s">
+        <v>320</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="G96" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H96" t="s">
+        <v>413</v>
+      </c>
+      <c r="I96" t="s">
+        <v>320</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E97" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F97">
+        <v>13254</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13254</v>
+      </c>
+      <c r="H97" t="s">
+        <v>415</v>
+      </c>
+      <c r="I97" t="s">
+        <v>320</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E98" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F98">
+        <v>13255</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13255</v>
+      </c>
+      <c r="H98" t="s">
+        <v>418</v>
+      </c>
+      <c r="I98" t="s">
+        <v>320</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E99" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F99">
+        <v>13257</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13257</v>
+      </c>
+      <c r="H99" t="s">
+        <v>420</v>
+      </c>
+      <c r="I99" t="s">
+        <v>320</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E100" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F100">
+        <v>1521</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/1521</v>
+      </c>
+      <c r="H100" t="s">
+        <v>422</v>
+      </c>
+      <c r="I100" t="s">
+        <v>320</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E101" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F101">
+        <v>13258</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13258</v>
+      </c>
+      <c r="H101" t="s">
+        <v>424</v>
+      </c>
+      <c r="I101" t="s">
+        <v>320</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E102" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F102">
+        <v>11066</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/11066</v>
+      </c>
+      <c r="H102" t="s">
+        <v>426</v>
+      </c>
+      <c r="I102" t="s">
+        <v>320</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
+        <v>427</v>
+      </c>
+      <c r="I103" t="s">
+        <v>320</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E104" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="F104">
+        <v>13260</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13260</v>
+      </c>
+      <c r="H104" t="s">
+        <v>429</v>
+      </c>
+      <c r="I104" t="s">
+        <v>320</v>
+      </c>
+      <c r="J104" s="16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G105" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H105" t="s">
+        <v>430</v>
+      </c>
+      <c r="I105" t="s">
+        <v>320</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E106" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F106">
+        <v>13261</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13261</v>
+      </c>
+      <c r="H106" t="s">
+        <v>432</v>
+      </c>
+      <c r="I106" t="s">
+        <v>320</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
+        <v>433</v>
+      </c>
+      <c r="I107" t="s">
+        <v>320</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E108" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F108">
+        <v>13262</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13262</v>
+      </c>
+      <c r="H108" t="s">
+        <v>435</v>
+      </c>
+      <c r="I108" t="s">
+        <v>320</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E109" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F109">
+        <v>13263</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/13263</v>
+      </c>
+      <c r="H109" t="s">
+        <v>437</v>
+      </c>
+      <c r="I109" t="s">
+        <v>320</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>443</v>
+      </c>
+      <c r="H110" t="s">
+        <v>438</v>
+      </c>
+      <c r="I110" t="s">
+        <v>320</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E111" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F111">
+        <v>6171</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/6171</v>
+      </c>
+      <c r="H111" t="s">
+        <v>440</v>
+      </c>
+      <c r="I111" t="s">
+        <v>320</v>
+      </c>
+      <c r="J111" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E112" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F112">
+        <v>4008</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="0"/>
+        <v>https://www.acmicpc.net/problem/4008</v>
+      </c>
+      <c r="H112" t="s">
+        <v>442</v>
+      </c>
+      <c r="I112" t="s">
+        <v>320</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="493">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2430,27 +2430,27 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2542,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2605,7 +2605,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -2685,7 +2685,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -2701,7 +2701,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2738,7 +2738,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -2750,7 +2750,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -2794,7 +2794,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -2885,7 +2885,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -2998,7 +2998,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -3197,7 +3197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -3237,7 +3237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -3277,7 +3277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -3317,7 +3317,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -3342,7 +3342,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -3367,7 +3367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -3392,7 +3392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -3417,7 +3417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -3443,7 +3443,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>222</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>7576</v>
       </c>
       <c r="G68" t="str">
-        <f>IF(F68="","",CONCATENATE("https://www.acmicpc.net/problem/",F68))</f>
+        <f t="shared" ref="G68:G73" si="3">IF(F68="","",CONCATENATE("https://www.acmicpc.net/problem/",F68))</f>
         <v>https://www.acmicpc.net/problem/7576</v>
       </c>
       <c r="H68" t="s">
@@ -3624,7 +3624,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>1697</v>
       </c>
       <c r="G69" t="str">
-        <f>IF(F69="","",CONCATENATE("https://www.acmicpc.net/problem/",F69))</f>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1697</v>
       </c>
       <c r="H69" t="s">
@@ -3645,7 +3645,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>14226</v>
       </c>
       <c r="G70" t="str">
-        <f>IF(F70="","",CONCATENATE("https://www.acmicpc.net/problem/",F70))</f>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/14226</v>
       </c>
       <c r="H70" t="s">
@@ -3666,7 +3666,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>13549</v>
       </c>
       <c r="G71" t="str">
-        <f>IF(F71="","",CONCATENATE("https://www.acmicpc.net/problem/",F71))</f>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13549</v>
       </c>
       <c r="H71" t="s">
@@ -3690,12 +3690,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
       <c r="G72" t="str">
-        <f>IF(F72="","",CONCATENATE("https://www.acmicpc.net/problem/",F72))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H72" t="s">
@@ -3708,7 +3708,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>1261</v>
       </c>
       <c r="G73" t="str">
-        <f>IF(F73="","",CONCATENATE("https://www.acmicpc.net/problem/",F73))</f>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1261</v>
       </c>
       <c r="H73" t="s">
@@ -3726,7 +3726,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -3785,25 +3785,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -3820,26 +3820,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
         <v>285</v>
       </c>
@@ -3847,7 +3847,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>253</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>261</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
         <v>262</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>11726</v>
       </c>
       <c r="G7" t="str">
-        <f>IF(F7="","",CONCATENATE("https://www.acmicpc.net/problem/",F7))</f>
+        <f t="shared" ref="G7:G22" si="0">IF(F7="","",CONCATENATE("https://www.acmicpc.net/problem/",F7))</f>
         <v>https://www.acmicpc.net/problem/11726</v>
       </c>
       <c r="H7" t="s">
@@ -3958,7 +3958,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>11727</v>
       </c>
       <c r="G8" t="str">
-        <f>IF(F8="","",CONCATENATE("https://www.acmicpc.net/problem/",F8))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/11727</v>
       </c>
       <c r="H8" t="s">
@@ -3982,7 +3982,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -3990,7 +3990,7 @@
         <v>9095</v>
       </c>
       <c r="G9" t="str">
-        <f>IF(F9="","",CONCATENATE("https://www.acmicpc.net/problem/",F9))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/9095</v>
       </c>
       <c r="H9" t="s">
@@ -4003,7 +4003,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>15988</v>
       </c>
       <c r="G10" t="str">
-        <f>IF(F10="","",CONCATENATE("https://www.acmicpc.net/problem/",F10))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/15988</v>
       </c>
       <c r="H10" t="s">
@@ -4024,7 +4024,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>11052</v>
       </c>
       <c r="G11" t="str">
-        <f>IF(F11="","",CONCATENATE("https://www.acmicpc.net/problem/",F11))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/11052</v>
       </c>
       <c r="H11" t="s">
@@ -4045,7 +4045,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>16194</v>
       </c>
       <c r="G12" t="str">
-        <f>IF(F12="","",CONCATENATE("https://www.acmicpc.net/problem/",F12))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/16194</v>
       </c>
       <c r="H12" t="s">
@@ -4066,7 +4066,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>15990</v>
       </c>
       <c r="G13" t="str">
-        <f>IF(F13="","",CONCATENATE("https://www.acmicpc.net/problem/",F13))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/15990</v>
       </c>
       <c r="H13" t="s">
@@ -4087,7 +4087,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>10844</v>
       </c>
       <c r="G14" t="str">
-        <f>IF(F14="","",CONCATENATE("https://www.acmicpc.net/problem/",F14))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
       <c r="H14" t="s">
@@ -4108,7 +4108,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>11057</v>
       </c>
       <c r="G15" t="str">
-        <f>IF(F15="","",CONCATENATE("https://www.acmicpc.net/problem/",F15))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/11057</v>
       </c>
       <c r="H15" t="s">
@@ -4129,7 +4129,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>2193</v>
       </c>
       <c r="G16" t="str">
-        <f>IF(F16="","",CONCATENATE("https://www.acmicpc.net/problem/",F16))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/2193</v>
       </c>
       <c r="H16" t="s">
@@ -4150,7 +4150,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>9465</v>
       </c>
       <c r="G17" t="str">
-        <f>IF(F17="","",CONCATENATE("https://www.acmicpc.net/problem/",F17))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/9465</v>
       </c>
       <c r="H17" t="s">
@@ -4171,7 +4171,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>2156</v>
       </c>
       <c r="G18" t="str">
-        <f>IF(F18="","",CONCATENATE("https://www.acmicpc.net/problem/",F18))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/2156</v>
       </c>
       <c r="H18" t="s">
@@ -4192,7 +4192,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>11053</v>
       </c>
       <c r="G19" t="str">
-        <f>IF(F19="","",CONCATENATE("https://www.acmicpc.net/problem/",F19))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/11053</v>
       </c>
       <c r="H19" t="s">
@@ -4213,7 +4213,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>14002</v>
       </c>
       <c r="G20" t="str">
-        <f>IF(F20="","",CONCATENATE("https://www.acmicpc.net/problem/",F20))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/14002</v>
       </c>
       <c r="H20" t="s">
@@ -4234,7 +4234,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>11055</v>
       </c>
       <c r="G21" t="str">
-        <f>IF(F21="","",CONCATENATE("https://www.acmicpc.net/problem/",F21))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/11055</v>
       </c>
       <c r="H21" t="s">
@@ -4255,7 +4255,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -4263,7 +4263,7 @@
         <v>11722</v>
       </c>
       <c r="G22" t="str">
-        <f>IF(F22="","",CONCATENATE("https://www.acmicpc.net/problem/",F22))</f>
+        <f t="shared" si="0"/>
         <v>https://www.acmicpc.net/problem/11722</v>
       </c>
       <c r="H22" t="s">
@@ -4276,7 +4276,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E25" s="1" t="s">
         <v>163</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>165</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>167</v>
       </c>
@@ -4371,7 +4371,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>169</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H29" t="s">
         <v>171</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E30" s="1" t="s">
         <v>249</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
         <v>250</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>247</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>244</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E34" s="1" t="s">
         <v>243</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D35" s="5" t="s">
         <v>254</v>
       </c>
@@ -4505,7 +4505,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E36" s="15" t="s">
         <v>255</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H37" t="s">
         <v>257</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>258</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
         <v>259</v>
       </c>
@@ -4547,7 +4547,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
         <v>298</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>300</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H42" t="s">
         <v>302</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E43" s="14" t="s">
         <v>317</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
         <v>315</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>308</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
         <v>309</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>311</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E48" s="14" t="s">
         <v>316</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
         <v>318</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>321</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
         <v>323</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>325</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
         <v>327</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>329</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H55" t="s">
         <v>331</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>332</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
         <v>335</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
         <v>336</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>338</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="60" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E60" s="1" t="s">
         <v>340</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D61" s="5" t="s">
         <v>342</v>
       </c>
@@ -4895,7 +4895,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>247</v>
       </c>
@@ -4903,20 +4903,17 @@
         <v>2133</v>
       </c>
       <c r="G62" t="str">
-        <f>IF(F62="","",CONCATENATE("https://www.acmicpc.net/problem/",F62))</f>
+        <f t="shared" ref="G62:G71" si="1">IF(F62="","",CONCATENATE("https://www.acmicpc.net/problem/",F62))</f>
         <v>https://www.acmicpc.net/problem/2133</v>
       </c>
       <c r="H62" t="s">
         <v>343</v>
       </c>
-      <c r="I62" t="s">
-        <v>320</v>
-      </c>
       <c r="J62" s="16" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>344</v>
       </c>
@@ -4924,7 +4921,7 @@
         <v>2098</v>
       </c>
       <c r="G63" t="str">
-        <f>IF(F63="","",CONCATENATE("https://www.acmicpc.net/problem/",F63))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/2098</v>
       </c>
       <c r="H63" t="s">
@@ -4934,7 +4931,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>346</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>1102</v>
       </c>
       <c r="G64" t="str">
-        <f>IF(F64="","",CONCATENATE("https://www.acmicpc.net/problem/",F64))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1102</v>
       </c>
       <c r="H64" t="s">
@@ -4952,7 +4949,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
         <v>348</v>
       </c>
@@ -4960,7 +4957,7 @@
         <v>1562</v>
       </c>
       <c r="G65" t="str">
-        <f>IF(F65="","",CONCATENATE("https://www.acmicpc.net/problem/",F65))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1562</v>
       </c>
       <c r="H65" t="s">
@@ -4970,7 +4967,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>142</v>
       </c>
@@ -4978,14 +4975,14 @@
         <v>10844</v>
       </c>
       <c r="G66" t="str">
-        <f>IF(F66="","",CONCATENATE("https://www.acmicpc.net/problem/",F66))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
       <c r="J66" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>350</v>
       </c>
@@ -4993,20 +4990,17 @@
         <v>1086</v>
       </c>
       <c r="G67" t="str">
-        <f>IF(F67="","",CONCATENATE("https://www.acmicpc.net/problem/",F67))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1086</v>
       </c>
       <c r="H67" t="s">
         <v>351</v>
       </c>
-      <c r="I67" t="s">
-        <v>320</v>
-      </c>
       <c r="J67" s="16" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>352</v>
       </c>
@@ -5014,7 +5008,7 @@
         <v>1648</v>
       </c>
       <c r="G68" t="str">
-        <f>IF(F68="","",CONCATENATE("https://www.acmicpc.net/problem/",F68))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1648</v>
       </c>
       <c r="H68" t="s">
@@ -5024,7 +5018,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>354</v>
       </c>
@@ -5032,20 +5026,17 @@
         <v>9023</v>
       </c>
       <c r="G69" t="str">
-        <f>IF(F69="","",CONCATENATE("https://www.acmicpc.net/problem/",F69))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/9023</v>
       </c>
       <c r="H69" t="s">
         <v>355</v>
       </c>
-      <c r="I69" t="s">
-        <v>320</v>
-      </c>
       <c r="J69" s="16" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>356</v>
       </c>
@@ -5053,7 +5044,7 @@
         <v>2172</v>
       </c>
       <c r="G70" t="str">
-        <f>IF(F70="","",CONCATENATE("https://www.acmicpc.net/problem/",F70))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/2172</v>
       </c>
       <c r="H70" t="s">
@@ -5066,7 +5057,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>358</v>
       </c>
@@ -5074,7 +5065,7 @@
         <v>1563</v>
       </c>
       <c r="G71" t="str">
-        <f>IF(F71="","",CONCATENATE("https://www.acmicpc.net/problem/",F71))</f>
+        <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1563</v>
       </c>
       <c r="H71" t="s">
@@ -5087,7 +5078,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H72" t="s">
         <v>364</v>
       </c>
@@ -5098,7 +5089,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
         <v>365</v>
       </c>
@@ -5109,7 +5100,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
         <v>366</v>
       </c>
@@ -5120,7 +5111,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H75" t="s">
         <v>367</v>
       </c>
@@ -5131,7 +5122,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D76" s="5" t="s">
         <v>368</v>
       </c>
@@ -5145,7 +5136,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E77" s="1" t="s">
         <v>370</v>
       </c>
@@ -5153,7 +5144,7 @@
         <v>2213</v>
       </c>
       <c r="G77" t="str">
-        <f>IF(F77="","",CONCATENATE("https://www.acmicpc.net/problem/",F77))</f>
+        <f t="shared" ref="G77:G82" si="2">IF(F77="","",CONCATENATE("https://www.acmicpc.net/problem/",F77))</f>
         <v>https://www.acmicpc.net/problem/2213</v>
       </c>
       <c r="H77" t="s">
@@ -5166,7 +5157,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
         <v>372</v>
       </c>
@@ -5174,7 +5165,7 @@
         <v>2262</v>
       </c>
       <c r="G78" t="str">
-        <f>IF(F78="","",CONCATENATE("https://www.acmicpc.net/problem/",F78))</f>
+        <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/2262</v>
       </c>
       <c r="H78" t="s">
@@ -5187,7 +5178,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
         <v>374</v>
       </c>
@@ -5195,7 +5186,7 @@
         <v>1866</v>
       </c>
       <c r="G79" t="str">
-        <f>IF(F79="","",CONCATENATE("https://www.acmicpc.net/problem/",F79))</f>
+        <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/1866</v>
       </c>
       <c r="H79" t="s">
@@ -5208,12 +5199,12 @@
         <v>391</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="F80" t="s">
         <v>416</v>
       </c>
       <c r="G80" t="str">
-        <f>IF(F80="","",CONCATENATE("https://www.acmicpc.net/problem/",F80))</f>
+        <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/동전 뒤집기</v>
       </c>
       <c r="H80" t="s">
@@ -5226,7 +5217,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
         <v>375</v>
       </c>
@@ -5234,12 +5225,12 @@
         <v>2142</v>
       </c>
       <c r="G81" t="str">
-        <f>IF(F81="","",CONCATENATE("https://www.acmicpc.net/problem/",F81))</f>
+        <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/2142</v>
       </c>
       <c r="J81" s="16"/>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>378</v>
       </c>
@@ -5247,7 +5238,7 @@
         <v>2315</v>
       </c>
       <c r="G82" t="str">
-        <f>IF(F82="","",CONCATENATE("https://www.acmicpc.net/problem/",F82))</f>
+        <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/2315</v>
       </c>
       <c r="H82" t="s">
@@ -5260,7 +5251,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>380</v>
       </c>
@@ -5268,7 +5259,7 @@
         <v>2419</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" ref="G83:G112" si="0">IF(F83="","",CONCATENATE("https://www.acmicpc.net/problem/",F83))</f>
+        <f t="shared" ref="G83:G112" si="3">IF(F83="","",CONCATENATE("https://www.acmicpc.net/problem/",F83))</f>
         <v>https://www.acmicpc.net/problem/2419</v>
       </c>
       <c r="H83" t="s">
@@ -5281,9 +5272,9 @@
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G84" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H84" t="s">
@@ -5296,7 +5287,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
         <v>383</v>
       </c>
@@ -5304,7 +5295,7 @@
         <v>2291</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/2291</v>
       </c>
       <c r="H85" t="s">
@@ -5317,7 +5308,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>385</v>
       </c>
@@ -5325,7 +5316,7 @@
         <v>1344</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1344</v>
       </c>
       <c r="H86" t="s">
@@ -5338,7 +5329,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E87" s="1" t="s">
         <v>387</v>
       </c>
@@ -5346,7 +5337,7 @@
         <v>1204</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1204</v>
       </c>
       <c r="H87" t="s">
@@ -5359,7 +5350,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D88" s="5" t="s">
         <v>399</v>
       </c>
@@ -5373,7 +5364,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
         <v>400</v>
       </c>
@@ -5381,7 +5372,7 @@
         <v>13247</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13247</v>
       </c>
       <c r="H89" t="s">
@@ -5394,7 +5385,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>402</v>
       </c>
@@ -5402,7 +5393,7 @@
         <v>13249</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13249</v>
       </c>
       <c r="H90" t="s">
@@ -5415,7 +5406,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>404</v>
       </c>
@@ -5423,7 +5414,7 @@
         <v>1359</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1359</v>
       </c>
       <c r="H91" t="s">
@@ -5436,7 +5427,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>406</v>
       </c>
@@ -5444,7 +5435,7 @@
         <v>13250</v>
       </c>
       <c r="G92" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13250</v>
       </c>
       <c r="H92" t="s">
@@ -5457,7 +5448,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>408</v>
       </c>
@@ -5465,7 +5456,7 @@
         <v>13251</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13251</v>
       </c>
       <c r="H93" t="s">
@@ -5478,7 +5469,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>448</v>
       </c>
@@ -5486,7 +5477,7 @@
         <v>13252</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13252</v>
       </c>
       <c r="H94" t="s">
@@ -5499,7 +5490,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>411</v>
       </c>
@@ -5507,7 +5498,7 @@
         <v>13253</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13253</v>
       </c>
       <c r="H95" t="s">
@@ -5520,9 +5511,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G96" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H96" t="s">
@@ -5535,7 +5526,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
         <v>414</v>
       </c>
@@ -5543,7 +5534,7 @@
         <v>13254</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13254</v>
       </c>
       <c r="H97" t="s">
@@ -5556,7 +5547,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>417</v>
       </c>
@@ -5564,7 +5555,7 @@
         <v>13255</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13255</v>
       </c>
       <c r="H98" t="s">
@@ -5577,7 +5568,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>419</v>
       </c>
@@ -5585,7 +5576,7 @@
         <v>13257</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13257</v>
       </c>
       <c r="H99" t="s">
@@ -5598,7 +5589,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>421</v>
       </c>
@@ -5606,7 +5597,7 @@
         <v>1521</v>
       </c>
       <c r="G100" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1521</v>
       </c>
       <c r="H100" t="s">
@@ -5619,7 +5610,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>423</v>
       </c>
@@ -5627,7 +5618,7 @@
         <v>13258</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13258</v>
       </c>
       <c r="H101" t="s">
@@ -5640,7 +5631,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E102" s="1" t="s">
         <v>425</v>
       </c>
@@ -5648,7 +5639,7 @@
         <v>11066</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H102" t="s">
@@ -5661,7 +5652,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H103" t="s">
         <v>427</v>
       </c>
@@ -5672,7 +5663,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E104" s="1" t="s">
         <v>428</v>
       </c>
@@ -5680,7 +5671,7 @@
         <v>13260</v>
       </c>
       <c r="G104" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13260</v>
       </c>
       <c r="H104" t="s">
@@ -5693,9 +5684,9 @@
         <v>492</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G105" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H105" t="s">
@@ -5708,7 +5699,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E106" s="1" t="s">
         <v>431</v>
       </c>
@@ -5716,7 +5707,7 @@
         <v>13261</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13261</v>
       </c>
       <c r="H106" t="s">
@@ -5729,7 +5720,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H107" t="s">
         <v>433</v>
       </c>
@@ -5740,7 +5731,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>434</v>
       </c>
@@ -5748,7 +5739,7 @@
         <v>13262</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13262</v>
       </c>
       <c r="H108" t="s">
@@ -5761,7 +5752,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E109" s="1" t="s">
         <v>436</v>
       </c>
@@ -5769,7 +5760,7 @@
         <v>13263</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13263</v>
       </c>
       <c r="H109" t="s">
@@ -5782,7 +5773,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F110" t="s">
         <v>443</v>
       </c>
@@ -5796,7 +5787,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E111" s="1" t="s">
         <v>439</v>
       </c>
@@ -5804,7 +5795,7 @@
         <v>6171</v>
       </c>
       <c r="G111" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/6171</v>
       </c>
       <c r="H111" t="s">
@@ -5817,7 +5808,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E112" s="1" t="s">
         <v>441</v>
       </c>
@@ -5825,7 +5816,7 @@
         <v>4008</v>
       </c>
       <c r="G112" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/4008</v>
       </c>
       <c r="H112" t="s">

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="492">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1686,9 +1686,6 @@
   </si>
   <si>
     <t>https://gist.github.com/Baekjoon/f9d380e1411d3e0e6436a7785498d44a</t>
-  </si>
-  <si>
-    <t>동전 뒤집기</t>
   </si>
   <si>
     <t>동전 뒤집기</t>
@@ -2430,27 +2427,27 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2482,7 +2479,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -2506,7 +2503,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2542,7 +2539,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2563,7 +2560,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2584,7 +2581,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2605,7 +2602,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2623,7 +2620,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2651,7 +2648,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2669,7 +2666,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -2685,7 +2682,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -2701,7 +2698,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2722,7 +2719,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2738,7 +2735,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -2750,7 +2747,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2768,7 +2765,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -2794,7 +2791,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2812,7 +2809,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2830,7 +2827,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2848,7 +2845,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2869,7 +2866,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -2885,7 +2882,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2906,7 +2903,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2948,7 +2945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -2974,7 +2971,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -2998,7 +2995,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -3043,7 +3040,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -3064,7 +3061,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -3082,7 +3079,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -3103,7 +3100,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -3129,7 +3126,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3150,7 +3147,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -3172,7 +3169,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3187,7 +3184,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -3197,7 +3194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3212,7 +3209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3227,7 +3224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -3237,7 +3234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -3252,7 +3249,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3267,7 +3264,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -3277,7 +3274,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -3292,7 +3289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -3307,7 +3304,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -3317,7 +3314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3332,7 +3329,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -3342,7 +3339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -3357,7 +3354,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -3367,7 +3364,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -3392,7 +3389,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -3407,7 +3404,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -3417,7 +3414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -3443,7 +3440,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -3467,7 +3464,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>222</v>
       </c>
@@ -3481,7 +3478,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -3513,7 +3510,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -3534,7 +3531,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -3552,7 +3549,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -3567,7 +3564,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -3585,7 +3582,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -3603,7 +3600,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -3624,7 +3621,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -3645,7 +3642,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -3666,7 +3663,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -3690,7 +3687,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -3708,7 +3705,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -3726,7 +3723,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -3737,7 +3734,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -3761,7 +3758,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -3785,25 +3782,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -3820,26 +3817,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>285</v>
       </c>
@@ -3847,7 +3844,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3882,7 +3879,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>253</v>
       </c>
@@ -3890,7 +3887,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>261</v>
       </c>
@@ -3917,7 +3914,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>262</v>
       </c>
@@ -3934,7 +3931,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -3958,7 +3955,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -3982,7 +3979,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -4003,7 +4000,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -4024,7 +4021,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -4066,7 +4063,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4087,7 +4084,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -4108,7 +4105,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -4129,7 +4126,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -4150,7 +4147,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -4171,7 +4168,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -4192,7 +4189,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -4213,7 +4210,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -4234,7 +4231,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -4255,7 +4252,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -4276,7 +4273,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -4287,7 +4284,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -4308,7 +4305,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E25" s="1" t="s">
         <v>163</v>
       </c>
@@ -4329,7 +4326,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>165</v>
       </c>
@@ -4350,7 +4347,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>167</v>
       </c>
@@ -4371,7 +4368,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>169</v>
       </c>
@@ -4392,7 +4389,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H29" t="s">
         <v>171</v>
       </c>
@@ -4403,7 +4400,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E30" s="1" t="s">
         <v>249</v>
       </c>
@@ -4422,7 +4419,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H31" t="s">
         <v>250</v>
       </c>
@@ -4431,7 +4428,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>247</v>
       </c>
@@ -4453,7 +4450,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>244</v>
       </c>
@@ -4472,7 +4469,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="34" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="1" t="s">
         <v>243</v>
       </c>
@@ -4491,7 +4488,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D35" s="5" t="s">
         <v>254</v>
       </c>
@@ -4505,7 +4502,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E36" s="15" t="s">
         <v>255</v>
       </c>
@@ -4523,7 +4520,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H37" t="s">
         <v>257</v>
       </c>
@@ -4531,7 +4528,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>258</v>
       </c>
@@ -4539,7 +4536,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>259</v>
       </c>
@@ -4547,7 +4544,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>298</v>
       </c>
@@ -4555,7 +4552,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>300</v>
       </c>
@@ -4573,7 +4570,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>302</v>
       </c>
@@ -4581,7 +4578,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="43" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E43" s="14" t="s">
         <v>317</v>
       </c>
@@ -4596,10 +4593,10 @@
         <v>305</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>315</v>
       </c>
@@ -4610,7 +4607,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>308</v>
       </c>
@@ -4625,10 +4622,10 @@
         <v>307</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>309</v>
       </c>
@@ -4643,10 +4640,10 @@
         <v>310</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>311</v>
       </c>
@@ -4664,7 +4661,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="48" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E48" s="14" t="s">
         <v>316</v>
       </c>
@@ -4679,10 +4676,10 @@
         <v>314</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>318</v>
       </c>
@@ -4690,10 +4687,10 @@
         <v>319</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>321</v>
       </c>
@@ -4708,10 +4705,10 @@
         <v>322</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>323</v>
       </c>
@@ -4726,10 +4723,10 @@
         <v>324</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>325</v>
       </c>
@@ -4744,10 +4741,10 @@
         <v>326</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>327</v>
       </c>
@@ -4762,10 +4759,10 @@
         <v>328</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>329</v>
       </c>
@@ -4780,18 +4777,18 @@
         <v>330</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H55" t="s">
         <v>331</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>332</v>
       </c>
@@ -4806,10 +4803,10 @@
         <v>333</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>335</v>
       </c>
@@ -4824,10 +4821,10 @@
         <v>334</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>336</v>
       </c>
@@ -4842,10 +4839,10 @@
         <v>337</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>338</v>
       </c>
@@ -4860,10 +4857,10 @@
         <v>339</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E60" s="1" t="s">
         <v>340</v>
       </c>
@@ -4878,10 +4875,10 @@
         <v>341</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D61" s="5" t="s">
         <v>342</v>
       </c>
@@ -4895,7 +4892,7 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>247</v>
       </c>
@@ -4913,7 +4910,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>344</v>
       </c>
@@ -4928,10 +4925,10 @@
         <v>345</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>346</v>
       </c>
@@ -4946,10 +4943,10 @@
         <v>347</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>348</v>
       </c>
@@ -4964,10 +4961,10 @@
         <v>349</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>142</v>
       </c>
@@ -4979,10 +4976,10 @@
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>350</v>
       </c>
@@ -4997,10 +4994,10 @@
         <v>351</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>352</v>
       </c>
@@ -5015,10 +5012,10 @@
         <v>353</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>354</v>
       </c>
@@ -5033,10 +5030,10 @@
         <v>355</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>356</v>
       </c>
@@ -5050,14 +5047,11 @@
       <c r="H70" t="s">
         <v>357</v>
       </c>
-      <c r="I70" t="s">
-        <v>320</v>
-      </c>
       <c r="J70" s="16" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>358</v>
       </c>
@@ -5071,58 +5065,43 @@
       <c r="H71" t="s">
         <v>363</v>
       </c>
-      <c r="I71" t="s">
-        <v>320</v>
-      </c>
       <c r="J71" s="16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H72" t="s">
         <v>364</v>
       </c>
-      <c r="I72" t="s">
-        <v>320</v>
-      </c>
       <c r="J72" s="16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>365</v>
       </c>
-      <c r="I73" t="s">
-        <v>320</v>
-      </c>
       <c r="J73" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>366</v>
       </c>
-      <c r="I74" t="s">
-        <v>320</v>
-      </c>
       <c r="J74" s="16" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="75" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="75" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H75" t="s">
         <v>367</v>
       </c>
-      <c r="I75" t="s">
-        <v>320</v>
-      </c>
       <c r="J75" s="16" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D76" s="5" t="s">
         <v>368</v>
       </c>
@@ -5136,7 +5115,7 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E77" s="1" t="s">
         <v>370</v>
       </c>
@@ -5150,14 +5129,11 @@
       <c r="H77" t="s">
         <v>371</v>
       </c>
-      <c r="I77" t="s">
-        <v>320</v>
-      </c>
       <c r="J77" s="16" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>372</v>
       </c>
@@ -5171,14 +5147,11 @@
       <c r="H78" t="s">
         <v>373</v>
       </c>
-      <c r="I78" t="s">
-        <v>320</v>
-      </c>
       <c r="J78" s="16" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>374</v>
       </c>
@@ -5192,32 +5165,23 @@
       <c r="H79" t="s">
         <v>376</v>
       </c>
-      <c r="I79" t="s">
-        <v>320</v>
-      </c>
       <c r="J79" s="16" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="F80" t="s">
-        <v>416</v>
-      </c>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>https://www.acmicpc.net/problem/동전 뒤집기</v>
+        <v/>
       </c>
       <c r="H80" t="s">
         <v>377</v>
       </c>
-      <c r="I80" t="s">
-        <v>320</v>
-      </c>
       <c r="J80" s="16" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
         <v>375</v>
       </c>
@@ -5230,7 +5194,7 @@
       </c>
       <c r="J81" s="16"/>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>378</v>
       </c>
@@ -5244,14 +5208,11 @@
       <c r="H82" t="s">
         <v>379</v>
       </c>
-      <c r="I82" t="s">
-        <v>320</v>
-      </c>
       <c r="J82" s="16" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>380</v>
       </c>
@@ -5265,14 +5226,11 @@
       <c r="H83" t="s">
         <v>381</v>
       </c>
-      <c r="I83" t="s">
-        <v>320</v>
-      </c>
       <c r="J83" s="16" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G84" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5280,14 +5238,11 @@
       <c r="H84" t="s">
         <v>382</v>
       </c>
-      <c r="I84" t="s">
-        <v>320</v>
-      </c>
       <c r="J84" s="16" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
         <v>383</v>
       </c>
@@ -5301,14 +5256,11 @@
       <c r="H85" t="s">
         <v>384</v>
       </c>
-      <c r="I85" t="s">
-        <v>320</v>
-      </c>
       <c r="J85" s="16" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>385</v>
       </c>
@@ -5322,14 +5274,11 @@
       <c r="H86" t="s">
         <v>386</v>
       </c>
-      <c r="I86" t="s">
-        <v>320</v>
-      </c>
       <c r="J86" s="16" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="87" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="87" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E87" s="1" t="s">
         <v>387</v>
       </c>
@@ -5343,14 +5292,11 @@
       <c r="H87" t="s">
         <v>388</v>
       </c>
-      <c r="I87" t="s">
-        <v>320</v>
-      </c>
       <c r="J87" s="16" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D88" s="5" t="s">
         <v>399</v>
       </c>
@@ -5364,7 +5310,7 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
         <v>400</v>
       </c>
@@ -5382,10 +5328,10 @@
         <v>320</v>
       </c>
       <c r="J89" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>402</v>
       </c>
@@ -5403,10 +5349,10 @@
         <v>320</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>404</v>
       </c>
@@ -5424,10 +5370,10 @@
         <v>320</v>
       </c>
       <c r="J91" s="16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>406</v>
       </c>
@@ -5445,10 +5391,10 @@
         <v>320</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>408</v>
       </c>
@@ -5466,12 +5412,12 @@
         <v>320</v>
       </c>
       <c r="J93" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="E94" s="1" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E94" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="F94" s="10">
         <v>13252</v>
@@ -5487,10 +5433,10 @@
         <v>320</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>411</v>
       </c>
@@ -5508,10 +5454,10 @@
         <v>320</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G96" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5523,10 +5469,10 @@
         <v>320</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
         <v>414</v>
       </c>
@@ -5544,12 +5490,12 @@
         <v>320</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F98">
         <v>13255</v>
@@ -5559,18 +5505,18 @@
         <v>https://www.acmicpc.net/problem/13255</v>
       </c>
       <c r="H98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I98" t="s">
         <v>320</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F99">
         <v>13257</v>
@@ -5580,18 +5526,18 @@
         <v>https://www.acmicpc.net/problem/13257</v>
       </c>
       <c r="H99" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I99" t="s">
         <v>320</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F100">
         <v>1521</v>
@@ -5601,18 +5547,18 @@
         <v>https://www.acmicpc.net/problem/1521</v>
       </c>
       <c r="H100" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I100" t="s">
         <v>320</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F101">
         <v>13258</v>
@@ -5622,18 +5568,18 @@
         <v>https://www.acmicpc.net/problem/13258</v>
       </c>
       <c r="H101" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I101" t="s">
         <v>320</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E102" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F102">
         <v>11066</v>
@@ -5643,29 +5589,29 @@
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H102" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I102" t="s">
         <v>320</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H103" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I103" t="s">
         <v>320</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F104">
         <v>13260</v>
@@ -5675,33 +5621,33 @@
         <v>https://www.acmicpc.net/problem/13260</v>
       </c>
       <c r="H104" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I104" t="s">
         <v>320</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G105" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H105" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I105" t="s">
         <v>320</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F106">
         <v>13261</v>
@@ -5711,29 +5657,29 @@
         <v>https://www.acmicpc.net/problem/13261</v>
       </c>
       <c r="H106" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I106" t="s">
         <v>320</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H107" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I107" t="s">
         <v>320</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F108">
         <v>13262</v>
@@ -5743,18 +5689,18 @@
         <v>https://www.acmicpc.net/problem/13262</v>
       </c>
       <c r="H108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I108" t="s">
         <v>320</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E109" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F109">
         <v>13263</v>
@@ -5764,32 +5710,32 @@
         <v>https://www.acmicpc.net/problem/13263</v>
       </c>
       <c r="H109" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I109" t="s">
         <v>320</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F110" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H110" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I110" t="s">
         <v>320</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F111">
         <v>6171</v>
@@ -5799,18 +5745,18 @@
         <v>https://www.acmicpc.net/problem/6171</v>
       </c>
       <c r="H111" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I111" t="s">
         <v>320</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E112" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F112">
         <v>4008</v>
@@ -5820,17 +5766,18 @@
         <v>https://www.acmicpc.net/problem/4008</v>
       </c>
       <c r="H112" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I112" t="s">
         <v>320</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="497">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1353,10 +1353,6 @@
     <t>https://gist.github.com/Baekjoon/6d6e66747da68ced6b2b</t>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일합치기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1971,6 +1967,30 @@
   </si>
   <si>
     <t>CutString_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간초과남</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomSort_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CutTree_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Commando_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아직안함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3815,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M112"/>
+  <dimension ref="C2:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+      <selection activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4593,7 +4613,7 @@
         <v>305</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
@@ -4604,7 +4624,7 @@
         <v>306</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="4:13" x14ac:dyDescent="0.3">
@@ -4622,7 +4642,7 @@
         <v>307</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.3">
@@ -4640,7 +4660,7 @@
         <v>310</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.3">
@@ -4676,7 +4696,7 @@
         <v>314</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
@@ -4687,12 +4707,12 @@
         <v>319</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="50" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F50">
         <v>11066</v>
@@ -4702,15 +4722,15 @@
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F51">
         <v>11049</v>
@@ -4720,15 +4740,15 @@
         <v>https://www.acmicpc.net/problem/11049</v>
       </c>
       <c r="H51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F52">
         <v>2228</v>
@@ -4738,15 +4758,15 @@
         <v>https://www.acmicpc.net/problem/2228</v>
       </c>
       <c r="H52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F53">
         <v>2240</v>
@@ -4756,15 +4776,15 @@
         <v>https://www.acmicpc.net/problem/2240</v>
       </c>
       <c r="H53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F54">
         <v>1328</v>
@@ -4774,23 +4794,23 @@
         <v>https://www.acmicpc.net/problem/1328</v>
       </c>
       <c r="H54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F56">
         <v>1720</v>
@@ -4800,15 +4820,15 @@
         <v>https://www.acmicpc.net/problem/1720</v>
       </c>
       <c r="H56" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F57">
         <v>1495</v>
@@ -4818,15 +4838,15 @@
         <v>https://www.acmicpc.net/problem/1495</v>
       </c>
       <c r="H57" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F58">
         <v>5557</v>
@@ -4836,15 +4856,15 @@
         <v>https://www.acmicpc.net/problem/5557</v>
       </c>
       <c r="H58" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F59">
         <v>3012</v>
@@ -4854,15 +4874,15 @@
         <v>https://www.acmicpc.net/problem/3012</v>
       </c>
       <c r="H59" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E60" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F60">
         <v>1126</v>
@@ -4872,15 +4892,15 @@
         <v>https://www.acmicpc.net/problem/1126</v>
       </c>
       <c r="H60" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D61" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="5"/>
@@ -4904,7 +4924,7 @@
         <v>https://www.acmicpc.net/problem/2133</v>
       </c>
       <c r="H62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J62" s="16" t="s">
         <v>291</v>
@@ -4912,7 +4932,7 @@
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F63">
         <v>2098</v>
@@ -4922,15 +4942,15 @@
         <v>https://www.acmicpc.net/problem/2098</v>
       </c>
       <c r="H63" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F64">
         <v>1102</v>
@@ -4940,15 +4960,15 @@
         <v>https://www.acmicpc.net/problem/1102</v>
       </c>
       <c r="H64" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F65">
         <v>1562</v>
@@ -4958,10 +4978,10 @@
         <v>https://www.acmicpc.net/problem/1562</v>
       </c>
       <c r="H65" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.3">
@@ -4976,12 +4996,12 @@
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F67">
         <v>1086</v>
@@ -4991,15 +5011,15 @@
         <v>https://www.acmicpc.net/problem/1086</v>
       </c>
       <c r="H67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F68">
         <v>1648</v>
@@ -5009,15 +5029,15 @@
         <v>https://www.acmicpc.net/problem/1648</v>
       </c>
       <c r="H68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F69">
         <v>9023</v>
@@ -5027,15 +5047,15 @@
         <v>https://www.acmicpc.net/problem/9023</v>
       </c>
       <c r="H69" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F70">
         <v>2172</v>
@@ -5045,15 +5065,15 @@
         <v>https://www.acmicpc.net/problem/2172</v>
       </c>
       <c r="H70" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F71">
         <v>1563</v>
@@ -5063,47 +5083,47 @@
         <v>https://www.acmicpc.net/problem/1563</v>
       </c>
       <c r="H71" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H75" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D76" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
@@ -5117,7 +5137,7 @@
     </row>
     <row r="77" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E77" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F77">
         <v>2213</v>
@@ -5127,15 +5147,15 @@
         <v>https://www.acmicpc.net/problem/2213</v>
       </c>
       <c r="H77" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F78">
         <v>2262</v>
@@ -5145,15 +5165,15 @@
         <v>https://www.acmicpc.net/problem/2262</v>
       </c>
       <c r="H78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F79">
         <v>1866</v>
@@ -5163,10 +5183,10 @@
         <v>https://www.acmicpc.net/problem/1866</v>
       </c>
       <c r="H79" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="80" spans="4:13" x14ac:dyDescent="0.3">
@@ -5175,15 +5195,15 @@
         <v/>
       </c>
       <c r="H80" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E81" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F81">
         <v>2142</v>
@@ -5196,7 +5216,7 @@
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F82">
         <v>2315</v>
@@ -5206,28 +5226,28 @@
         <v>https://www.acmicpc.net/problem/2315</v>
       </c>
       <c r="H82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F83">
         <v>2419</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" ref="G83:G112" si="3">IF(F83="","",CONCATENATE("https://www.acmicpc.net/problem/",F83))</f>
+        <f t="shared" ref="G83:G114" si="3">IF(F83="","",CONCATENATE("https://www.acmicpc.net/problem/",F83))</f>
         <v>https://www.acmicpc.net/problem/2419</v>
       </c>
       <c r="H83" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="4:13" x14ac:dyDescent="0.3">
@@ -5236,15 +5256,15 @@
         <v/>
       </c>
       <c r="H84" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E85" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F85">
         <v>2291</v>
@@ -5254,15 +5274,15 @@
         <v>https://www.acmicpc.net/problem/2291</v>
       </c>
       <c r="H85" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F86">
         <v>1344</v>
@@ -5272,15 +5292,15 @@
         <v>https://www.acmicpc.net/problem/1344</v>
       </c>
       <c r="H86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E87" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F87">
         <v>1204</v>
@@ -5290,15 +5310,15 @@
         <v>https://www.acmicpc.net/problem/1204</v>
       </c>
       <c r="H87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="88" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D88" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="5"/>
@@ -5312,7 +5332,7 @@
     </row>
     <row r="89" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E89" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F89" s="10">
         <v>13247</v>
@@ -5322,18 +5342,15 @@
         <v>https://www.acmicpc.net/problem/13247</v>
       </c>
       <c r="H89" t="s">
-        <v>401</v>
-      </c>
-      <c r="I89" t="s">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="J89" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F90" s="10">
         <v>13249</v>
@@ -5343,18 +5360,15 @@
         <v>https://www.acmicpc.net/problem/13249</v>
       </c>
       <c r="H90" t="s">
-        <v>403</v>
-      </c>
-      <c r="I90" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="F91" s="10">
         <v>1359</v>
@@ -5364,18 +5378,15 @@
         <v>https://www.acmicpc.net/problem/1359</v>
       </c>
       <c r="H91" t="s">
-        <v>405</v>
-      </c>
-      <c r="I91" t="s">
-        <v>320</v>
+        <v>404</v>
       </c>
       <c r="J91" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F92" s="10">
         <v>13250</v>
@@ -5385,18 +5396,15 @@
         <v>https://www.acmicpc.net/problem/13250</v>
       </c>
       <c r="H92" t="s">
-        <v>407</v>
-      </c>
-      <c r="I92" t="s">
-        <v>320</v>
+        <v>406</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F93" s="10">
         <v>13251</v>
@@ -5406,18 +5414,15 @@
         <v>https://www.acmicpc.net/problem/13251</v>
       </c>
       <c r="H93" t="s">
-        <v>409</v>
-      </c>
-      <c r="I93" t="s">
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="J93" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F94" s="10">
         <v>13252</v>
@@ -5427,18 +5432,15 @@
         <v>https://www.acmicpc.net/problem/13252</v>
       </c>
       <c r="H94" t="s">
-        <v>410</v>
-      </c>
-      <c r="I94" t="s">
-        <v>320</v>
+        <v>409</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F95" s="10">
         <v>13253</v>
@@ -5448,13 +5450,10 @@
         <v>https://www.acmicpc.net/problem/13253</v>
       </c>
       <c r="H95" t="s">
-        <v>412</v>
-      </c>
-      <c r="I95" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="96" spans="4:13" x14ac:dyDescent="0.3">
@@ -5463,18 +5462,15 @@
         <v/>
       </c>
       <c r="H96" t="s">
-        <v>413</v>
-      </c>
-      <c r="I96" t="s">
-        <v>320</v>
+        <v>412</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E97" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F97">
         <v>13254</v>
@@ -5484,18 +5480,15 @@
         <v>https://www.acmicpc.net/problem/13254</v>
       </c>
       <c r="H97" t="s">
-        <v>415</v>
-      </c>
-      <c r="I97" t="s">
-        <v>320</v>
+        <v>414</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F98">
         <v>13255</v>
@@ -5505,18 +5498,15 @@
         <v>https://www.acmicpc.net/problem/13255</v>
       </c>
       <c r="H98" t="s">
-        <v>417</v>
-      </c>
-      <c r="I98" t="s">
-        <v>320</v>
+        <v>416</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F99">
         <v>13257</v>
@@ -5526,18 +5516,15 @@
         <v>https://www.acmicpc.net/problem/13257</v>
       </c>
       <c r="H99" t="s">
-        <v>419</v>
-      </c>
-      <c r="I99" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F100">
         <v>1521</v>
@@ -5547,232 +5534,217 @@
         <v>https://www.acmicpc.net/problem/1521</v>
       </c>
       <c r="H100" t="s">
+        <v>420</v>
+      </c>
+      <c r="I100" t="s">
+        <v>496</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J101" s="16" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E102" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="I100" t="s">
-        <v>320</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E101" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F101">
+      <c r="F102">
         <v>13258</v>
       </c>
-      <c r="G101" t="str">
+      <c r="G102" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13258</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H102" t="s">
+        <v>422</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E103" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I101" t="s">
-        <v>320</v>
-      </c>
-      <c r="J101" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E102" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="F102">
+      <c r="F103">
         <v>11066</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G103" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H103" t="s">
+        <v>424</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
         <v>425</v>
       </c>
-      <c r="I102" t="s">
-        <v>320</v>
-      </c>
-      <c r="J102" s="16" t="s">
+      <c r="J104" s="16" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H103" t="s">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E105" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="I103" t="s">
-        <v>320</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E104" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F104">
+      <c r="F105">
         <v>13260</v>
       </c>
-      <c r="G104" t="str">
+      <c r="G105" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13260</v>
       </c>
-      <c r="H104" t="s">
-        <v>428</v>
-      </c>
-      <c r="I104" t="s">
-        <v>320</v>
-      </c>
-      <c r="J104" s="16" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="G105" t="str">
+      <c r="H105" t="s">
+        <v>427</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="G106" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H105" t="s">
+      <c r="H106" t="s">
+        <v>428</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E107" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="I105" t="s">
-        <v>320</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E106" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F106">
+      <c r="F107">
         <v>13261</v>
       </c>
-      <c r="G106" t="str">
+      <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13261</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H107" t="s">
+        <v>430</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
         <v>431</v>
       </c>
-      <c r="I106" t="s">
-        <v>320</v>
-      </c>
-      <c r="J106" s="16" t="s">
+      <c r="J108" s="16" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H107" t="s">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E109" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="I107" t="s">
-        <v>320</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E108" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F108">
+      <c r="F109">
         <v>13262</v>
       </c>
-      <c r="G108" t="str">
+      <c r="G109" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13262</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H109" t="s">
+        <v>433</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E110" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I108" t="s">
-        <v>320</v>
-      </c>
-      <c r="J108" s="16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E109" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F109">
+      <c r="F110">
         <v>13263</v>
       </c>
-      <c r="G109" t="str">
+      <c r="G110" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13263</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H110" t="s">
+        <v>435</v>
+      </c>
+      <c r="I110" t="s">
+        <v>491</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>441</v>
+      </c>
+      <c r="H111" t="s">
         <v>436</v>
       </c>
-      <c r="I109" t="s">
-        <v>320</v>
-      </c>
-      <c r="J109" s="16" t="s">
+      <c r="J111" s="16" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="F110" t="s">
-        <v>442</v>
-      </c>
-      <c r="H110" t="s">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J112" s="16" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E113" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="I110" t="s">
-        <v>320</v>
-      </c>
-      <c r="J110" s="16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E111" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="F111">
+      <c r="F113">
         <v>6171</v>
       </c>
-      <c r="G111" t="str">
+      <c r="G113" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/6171</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H113" t="s">
+        <v>438</v>
+      </c>
+      <c r="J113" s="16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E114" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="I111" t="s">
-        <v>320</v>
-      </c>
-      <c r="J111" s="16" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E112" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F112">
+      <c r="F114">
         <v>4008</v>
       </c>
-      <c r="G112" t="str">
+      <c r="G114" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/4008</v>
       </c>
-      <c r="H112" t="s">
-        <v>441</v>
-      </c>
-      <c r="I112" t="s">
-        <v>320</v>
-      </c>
-      <c r="J112" s="16" t="s">
-        <v>465</v>
+      <c r="H114" t="s">
+        <v>440</v>
+      </c>
+      <c r="I114" t="s">
+        <v>492</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J115" s="16" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="497">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,42 +1045,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>△</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">이건 공식이 아니라 샘플 그려 본 후 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>점화식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>으로 알 수 있는 문제인 듯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먼저 봐버림..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>암호코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1169,10 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MakeNBySumOf123_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BuyCard2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1991,6 +1951,24 @@
   </si>
   <si>
     <t>아직안함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점화식으로 답을 찾는 케이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeNBySumOf123_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d[i] = d[i-1]+1; 을 초기값으로 세팅함으로써 분기조건에 d[i]==0을 삭제가능
+--&gt; 유용하니까 자주 써먹자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점화식을 최대한 간결하게 줄일 수 있는지 꼭 확인해보자
+ --&gt; d[n-2]까지는 한번 확인해볼 필요가 있을듯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2447,27 +2425,27 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2499,7 +2477,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -2523,7 +2501,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2519,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2559,7 +2537,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2580,7 +2558,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2601,7 +2579,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2622,7 +2600,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2640,7 +2618,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2668,7 +2646,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2686,7 +2664,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -2702,7 +2680,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -2718,7 +2696,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2739,7 +2717,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2755,7 +2733,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -2767,7 +2745,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,7 +2763,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -2811,7 +2789,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2829,7 +2807,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2847,7 +2825,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2865,7 +2843,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2886,7 +2864,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -2902,7 +2880,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -2923,7 +2901,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -2944,7 +2922,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -2965,7 +2943,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -2991,7 +2969,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -3015,7 +2993,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -3039,7 +3017,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -3060,7 +3038,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -3081,7 +3059,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -3099,7 +3077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -3120,7 +3098,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -3146,7 +3124,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3167,7 +3145,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -3189,7 +3167,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3204,7 +3182,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -3214,7 +3192,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3229,7 +3207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3244,7 +3222,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -3254,7 +3232,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -3269,7 +3247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3284,7 +3262,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -3294,7 +3272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -3309,7 +3287,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -3324,7 +3302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -3334,7 +3312,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3349,7 +3327,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -3359,7 +3337,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -3374,7 +3352,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -3384,7 +3362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -3399,7 +3377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -3409,7 +3387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -3424,7 +3402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -3434,7 +3412,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -3460,7 +3438,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -3484,7 +3462,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>222</v>
       </c>
@@ -3498,7 +3476,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -3509,7 +3487,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -3530,7 +3508,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -3551,7 +3529,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -3569,7 +3547,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -3584,7 +3562,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -3602,7 +3580,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -3620,7 +3598,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -3641,7 +3619,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -3662,7 +3640,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -3683,7 +3661,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -3707,7 +3685,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -3725,7 +3703,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -3743,7 +3721,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -3754,7 +3732,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -3778,7 +3756,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -3802,25 +3780,25 @@
         <v>236</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -3837,34 +3815,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I101" sqref="I101"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3887,7 +3865,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>192</v>
@@ -3899,17 +3877,17 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F5">
         <v>1463</v>
@@ -3925,7 +3903,7 @@
         <v>176</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>238</v>
@@ -3934,24 +3912,24 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H6" t="s">
         <v>127</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>240</v>
+        <v>176</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -3966,16 +3944,16 @@
         <v>129</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K7" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -3990,16 +3968,16 @@
         <v>131</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K8" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -4014,13 +3992,13 @@
         <v>133</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -4035,13 +4013,13 @@
         <v>135</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -4056,13 +4034,13 @@
         <v>137</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -4077,13 +4055,13 @@
         <v>139</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4098,13 +4076,13 @@
         <v>141</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -4119,13 +4097,13 @@
         <v>143</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -4140,13 +4118,13 @@
         <v>145</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -4161,13 +4139,16 @@
         <v>147</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -4181,14 +4162,12 @@
       <c r="H17" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" s="16" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -4202,14 +4181,12 @@
       <c r="H18" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I18" s="1"/>
       <c r="J18" s="16" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -4223,14 +4200,12 @@
       <c r="H19" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I19" s="1"/>
       <c r="J19" s="16" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -4244,14 +4219,12 @@
       <c r="H20" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -4265,14 +4238,12 @@
       <c r="H21" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I21" s="1"/>
       <c r="J21" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -4286,25 +4257,21 @@
       <c r="H22" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I22" s="1"/>
       <c r="J22" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="16" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -4318,14 +4285,12 @@
       <c r="H24" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I24" s="1"/>
       <c r="J24" s="16" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E25" s="1" t="s">
         <v>163</v>
       </c>
@@ -4339,14 +4304,12 @@
       <c r="H25" t="s">
         <v>164</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I25" s="1"/>
       <c r="J25" s="16" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>165</v>
       </c>
@@ -4360,14 +4323,12 @@
       <c r="H26" t="s">
         <v>166</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I26" s="1"/>
       <c r="J26" s="16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>167</v>
       </c>
@@ -4381,14 +4342,12 @@
       <c r="H27" t="s">
         <v>168</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I27" s="1"/>
       <c r="J27" s="16" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>169</v>
       </c>
@@ -4402,27 +4361,23 @@
       <c r="H28" t="s">
         <v>170</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I28" s="1"/>
       <c r="J28" s="16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H29" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>190</v>
-      </c>
+      <c r="I29" s="1"/>
       <c r="J29" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E30" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F30">
         <v>2579</v>
@@ -4432,25 +4387,25 @@
         <v>https://www.acmicpc.net/problem/2579</v>
       </c>
       <c r="H30" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F32">
         <v>2133</v>
@@ -4460,19 +4415,19 @@
         <v>https://www.acmicpc.net/problem/2133</v>
       </c>
       <c r="H32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="16" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="K32" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F33">
         <v>9461</v>
@@ -4482,16 +4437,16 @@
         <v>https://www.acmicpc.net/problem/9461</v>
       </c>
       <c r="H33" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="16" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E34" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F34">
         <v>2011</v>
@@ -4501,16 +4456,16 @@
         <v>https://www.acmicpc.net/problem/2011</v>
       </c>
       <c r="H34" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D35" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="5"/>
@@ -4522,9 +4477,9 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E36" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F36" s="10">
         <v>11048</v>
@@ -4534,47 +4489,47 @@
         <v>https://www.acmicpc.net/problem/11048</v>
       </c>
       <c r="H36" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H38" t="s">
+        <v>255</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H39" t="s">
         <v>256</v>
       </c>
-      <c r="J36" s="16" t="s">
+      <c r="J39" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H40" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H37" t="s">
-        <v>257</v>
-      </c>
-      <c r="J37" s="16" t="s">
+      <c r="J40" s="16" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H38" t="s">
-        <v>258</v>
-      </c>
-      <c r="J38" s="16" t="s">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E41" s="1" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H39" t="s">
-        <v>259</v>
-      </c>
-      <c r="J39" s="16" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H40" t="s">
-        <v>298</v>
-      </c>
-      <c r="J40" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="E41" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="F41">
         <v>1890</v>
@@ -4584,23 +4539,23 @@
         <v>https://www.acmicpc.net/problem/1890</v>
       </c>
       <c r="H41" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J41" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E43" s="14" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F43">
         <v>10942</v>
@@ -4610,26 +4565,26 @@
         <v>https://www.acmicpc.net/problem/10942</v>
       </c>
       <c r="H43" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H44" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F45">
         <v>1509</v>
@@ -4639,15 +4594,15 @@
         <v>https://www.acmicpc.net/problem/1509</v>
       </c>
       <c r="H45" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="J45" s="16" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F46">
         <v>2293</v>
@@ -4657,15 +4612,15 @@
         <v>https://www.acmicpc.net/problem/2293</v>
       </c>
       <c r="H46" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F47">
         <v>2294</v>
@@ -4675,15 +4630,15 @@
         <v>https://www.acmicpc.net/problem/2294</v>
       </c>
       <c r="H47" t="s">
+        <v>308</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+      <c r="E48" s="14" t="s">
         <v>312</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="E48" s="14" t="s">
-        <v>316</v>
       </c>
       <c r="F48">
         <v>1520</v>
@@ -4693,26 +4648,26 @@
         <v>https://www.acmicpc.net/problem/1520</v>
       </c>
       <c r="H48" t="s">
+        <v>310</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+      <c r="E49" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="J48" s="16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="E49" s="14" t="s">
-        <v>318</v>
-      </c>
       <c r="H49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F50">
         <v>11066</v>
@@ -4722,15 +4677,15 @@
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H50" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F51">
         <v>11049</v>
@@ -4740,15 +4695,15 @@
         <v>https://www.acmicpc.net/problem/11049</v>
       </c>
       <c r="H51" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F52">
         <v>2228</v>
@@ -4758,15 +4713,15 @@
         <v>https://www.acmicpc.net/problem/2228</v>
       </c>
       <c r="H52" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F53">
         <v>2240</v>
@@ -4776,15 +4731,15 @@
         <v>https://www.acmicpc.net/problem/2240</v>
       </c>
       <c r="H53" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F54">
         <v>1328</v>
@@ -4794,23 +4749,23 @@
         <v>https://www.acmicpc.net/problem/1328</v>
       </c>
       <c r="H54" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H55" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F56">
         <v>1720</v>
@@ -4820,15 +4775,15 @@
         <v>https://www.acmicpc.net/problem/1720</v>
       </c>
       <c r="H56" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F57">
         <v>1495</v>
@@ -4838,15 +4793,15 @@
         <v>https://www.acmicpc.net/problem/1495</v>
       </c>
       <c r="H57" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F58">
         <v>5557</v>
@@ -4856,15 +4811,15 @@
         <v>https://www.acmicpc.net/problem/5557</v>
       </c>
       <c r="H58" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F59">
         <v>3012</v>
@@ -4874,15 +4829,15 @@
         <v>https://www.acmicpc.net/problem/3012</v>
       </c>
       <c r="H59" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E60" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F60">
         <v>1126</v>
@@ -4892,15 +4847,15 @@
         <v>https://www.acmicpc.net/problem/1126</v>
       </c>
       <c r="H60" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D61" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="5"/>
@@ -4912,9 +4867,9 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
     </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F62">
         <v>2133</v>
@@ -4924,15 +4879,15 @@
         <v>https://www.acmicpc.net/problem/2133</v>
       </c>
       <c r="H62" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J62" s="16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F63">
         <v>2098</v>
@@ -4942,15 +4897,15 @@
         <v>https://www.acmicpc.net/problem/2098</v>
       </c>
       <c r="H63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F64">
         <v>1102</v>
@@ -4960,15 +4915,15 @@
         <v>https://www.acmicpc.net/problem/1102</v>
       </c>
       <c r="H64" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F65">
         <v>1562</v>
@@ -4978,13 +4933,13 @@
         <v>https://www.acmicpc.net/problem/1562</v>
       </c>
       <c r="H65" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>142</v>
       </c>
@@ -4996,12 +4951,12 @@
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F67">
         <v>1086</v>
@@ -5011,15 +4966,15 @@
         <v>https://www.acmicpc.net/problem/1086</v>
       </c>
       <c r="H67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F68">
         <v>1648</v>
@@ -5029,15 +4984,15 @@
         <v>https://www.acmicpc.net/problem/1648</v>
       </c>
       <c r="H68" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F69">
         <v>9023</v>
@@ -5047,15 +5002,15 @@
         <v>https://www.acmicpc.net/problem/9023</v>
       </c>
       <c r="H69" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F70">
         <v>2172</v>
@@ -5065,15 +5020,15 @@
         <v>https://www.acmicpc.net/problem/2172</v>
       </c>
       <c r="H70" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F71">
         <v>1563</v>
@@ -5083,47 +5038,47 @@
         <v>https://www.acmicpc.net/problem/1563</v>
       </c>
       <c r="H71" t="s">
+        <v>358</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H72" t="s">
+        <v>359</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H73" t="s">
+        <v>360</v>
+      </c>
+      <c r="J73" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H74" t="s">
+        <v>361</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H75" t="s">
         <v>362</v>
       </c>
-      <c r="J71" s="16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H72" t="s">
+      <c r="J75" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D76" s="5" t="s">
         <v>363</v>
-      </c>
-      <c r="J72" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H73" t="s">
-        <v>364</v>
-      </c>
-      <c r="J73" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="H74" t="s">
-        <v>365</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="75" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H75" t="s">
-        <v>366</v>
-      </c>
-      <c r="J75" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="76" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D76" s="5" t="s">
-        <v>367</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="5"/>
@@ -5135,9 +5090,9 @@
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
     </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E77" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F77">
         <v>2213</v>
@@ -5147,15 +5102,15 @@
         <v>https://www.acmicpc.net/problem/2213</v>
       </c>
       <c r="H77" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F78">
         <v>2262</v>
@@ -5165,15 +5120,15 @@
         <v>https://www.acmicpc.net/problem/2262</v>
       </c>
       <c r="H78" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F79">
         <v>1866</v>
@@ -5183,27 +5138,27 @@
         <v>https://www.acmicpc.net/problem/1866</v>
       </c>
       <c r="H79" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G80" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="H80" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E81" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F81">
         <v>2142</v>
@@ -5214,9 +5169,9 @@
       </c>
       <c r="J81" s="16"/>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F82">
         <v>2315</v>
@@ -5226,15 +5181,15 @@
         <v>https://www.acmicpc.net/problem/2315</v>
       </c>
       <c r="H82" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F83">
         <v>2419</v>
@@ -5244,27 +5199,27 @@
         <v>https://www.acmicpc.net/problem/2419</v>
       </c>
       <c r="H83" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G84" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H84" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E85" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F85">
         <v>2291</v>
@@ -5274,15 +5229,15 @@
         <v>https://www.acmicpc.net/problem/2291</v>
       </c>
       <c r="H85" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F86">
         <v>1344</v>
@@ -5292,15 +5247,15 @@
         <v>https://www.acmicpc.net/problem/1344</v>
       </c>
       <c r="H86" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="87" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E87" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F87">
         <v>1204</v>
@@ -5310,15 +5265,15 @@
         <v>https://www.acmicpc.net/problem/1204</v>
       </c>
       <c r="H87" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="88" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D88" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="5"/>
@@ -5330,9 +5285,9 @@
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E89" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F89" s="10">
         <v>13247</v>
@@ -5342,15 +5297,15 @@
         <v>https://www.acmicpc.net/problem/13247</v>
       </c>
       <c r="H89" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J89" s="16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F90" s="10">
         <v>13249</v>
@@ -5360,15 +5315,15 @@
         <v>https://www.acmicpc.net/problem/13249</v>
       </c>
       <c r="H90" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F91" s="10">
         <v>1359</v>
@@ -5378,15 +5333,15 @@
         <v>https://www.acmicpc.net/problem/1359</v>
       </c>
       <c r="H91" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J91" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F92" s="10">
         <v>13250</v>
@@ -5396,15 +5351,15 @@
         <v>https://www.acmicpc.net/problem/13250</v>
       </c>
       <c r="H92" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F93" s="10">
         <v>13251</v>
@@ -5414,15 +5369,15 @@
         <v>https://www.acmicpc.net/problem/13251</v>
       </c>
       <c r="H93" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J93" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F94" s="10">
         <v>13252</v>
@@ -5432,15 +5387,15 @@
         <v>https://www.acmicpc.net/problem/13252</v>
       </c>
       <c r="H94" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F95" s="10">
         <v>13253</v>
@@ -5450,27 +5405,27 @@
         <v>https://www.acmicpc.net/problem/13253</v>
       </c>
       <c r="H95" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G96" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H96" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E97" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F97">
         <v>13254</v>
@@ -5480,15 +5435,15 @@
         <v>https://www.acmicpc.net/problem/13254</v>
       </c>
       <c r="H97" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F98">
         <v>13255</v>
@@ -5498,15 +5453,15 @@
         <v>https://www.acmicpc.net/problem/13255</v>
       </c>
       <c r="H98" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F99">
         <v>13257</v>
@@ -5516,15 +5471,15 @@
         <v>https://www.acmicpc.net/problem/13257</v>
       </c>
       <c r="H99" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F100">
         <v>1521</v>
@@ -5534,23 +5489,23 @@
         <v>https://www.acmicpc.net/problem/1521</v>
       </c>
       <c r="H100" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="I100" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J101" s="16" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E102" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F102">
         <v>13258</v>
@@ -5560,15 +5515,15 @@
         <v>https://www.acmicpc.net/problem/13258</v>
       </c>
       <c r="H102" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J102" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E103" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F103">
         <v>11066</v>
@@ -5578,23 +5533,23 @@
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H103" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H104" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E105" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F105">
         <v>13260</v>
@@ -5604,27 +5559,27 @@
         <v>https://www.acmicpc.net/problem/13260</v>
       </c>
       <c r="H105" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G106" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="H106" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E107" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F107">
         <v>13261</v>
@@ -5634,23 +5589,23 @@
         <v>https://www.acmicpc.net/problem/13261</v>
       </c>
       <c r="H107" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H108" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E109" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F109">
         <v>13262</v>
@@ -5660,15 +5615,15 @@
         <v>https://www.acmicpc.net/problem/13262</v>
       </c>
       <c r="H109" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E110" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F110">
         <v>13263</v>
@@ -5678,34 +5633,34 @@
         <v>https://www.acmicpc.net/problem/13263</v>
       </c>
       <c r="H110" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="I110" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F111" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H111" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J112" s="16" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E113" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F113">
         <v>6171</v>
@@ -5715,15 +5670,15 @@
         <v>https://www.acmicpc.net/problem/6171</v>
       </c>
       <c r="H113" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J113" s="16" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E114" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F114">
         <v>4008</v>
@@ -5733,18 +5688,18 @@
         <v>https://www.acmicpc.net/problem/4008</v>
       </c>
       <c r="H114" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="I114" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J114" s="16" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J115" s="16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="501">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1969,6 +1969,26 @@
   <si>
     <t>점화식을 최대한 간결하게 줄일 수 있는지 꼭 확인해보자
  --&gt; d[n-2]까지는 한번 확인해볼 필요가 있을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점화식이 조건에 맞게 내려가야 정답이 된다.
+3개 연속 못마시면 d[n-3]까지 내려갸야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초기화를 꼭 해주어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP 결과 출력값은 재귀호출로 구현하면 편하다
+거꾸로 추가된 배열을 출력할때 재귀호출을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부등호를 바꾸려면 for(int j=i+1; j&lt;=n; j++)
+i가 n부터 시작해야 한다.
+즉 거꾸로 증가하는 부부분수열로 풀 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2422,7 +2442,7 @@
   <dimension ref="C3:L186"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3815,8 +3835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4162,12 +4182,14 @@
       <c r="H17" t="s">
         <v>149</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J17" s="16" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -4181,9 +4203,14 @@
       <c r="H18" t="s">
         <v>151</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J18" s="16" t="s">
         <v>269</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.45">
@@ -4200,12 +4227,17 @@
       <c r="H19" t="s">
         <v>152</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J19" s="16" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="K19" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -4219,9 +4251,14 @@
       <c r="H20" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J20" s="16" t="s">
         <v>271</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.45">
@@ -4238,7 +4275,9 @@
       <c r="H21" t="s">
         <v>157</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J21" s="16" t="s">
         <v>272</v>
       </c>
@@ -4257,18 +4296,25 @@
       <c r="H22" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J22" s="16" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
-      <c r="I23" s="1"/>
+      <c r="I23" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="J23" s="16" t="s">
         <v>274</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.45">

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="509">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,10 +854,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>`</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>전역변수를 적절히 이용해서 파라미터를 줄일수 있으면 줄이자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1161,16 +1157,10 @@
     <t>MostBigIncreaseSequenceSubSet</t>
   </si>
   <si>
-    <t>MostLongDecreaseSequenceSubSet_1</t>
-  </si>
-  <si>
     <t>MostLongDecreaseSequenceSubSet_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MostLongBitonicSubSet</t>
-  </si>
-  <si>
     <t>ContinuousSum</t>
   </si>
   <si>
@@ -1212,9 +1202,6 @@
   </si>
   <si>
     <t>FillTile</t>
-  </si>
-  <si>
-    <t>WaveClassSequence</t>
   </si>
   <si>
     <t>PassWardCode</t>
@@ -1989,6 +1976,103 @@
     <t>부등호를 바꾸려면 for(int j=i+1; j&lt;=n; j++)
 i가 n부터 시작해야 한다.
 즉 거꾸로 증가하는 부부분수열로 풀 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MostLongDecreaseSequenceSubSet_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MostLongBitonicSubSet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MostLongBitonicSubSet_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이 아닌 K 인덱스부터 Bottom-UP 하는 경우 j인덱스 조건 주의해야함
+for(int i=k;i&lt;=n;i++)
+    for(int j=1; i-j&gt;=k; j++)
+pivot을 이동시키는 방식으로 구현한 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이토닉은 pivot팅보다 0시작 n시작 2개로 하는게 더 쉽게 구현 가능
+ → ←방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1개를 제거할 수 있으면 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>←</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>방식을 사용할 수 있다.
+초기값을 d[1]로 잡아야하는데 d[0]으로 잡아서 틀림</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수(k)를 기준으로 잡아야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점화식을 올바르게 작성했는지 확인을 해야한다.
+보통 중간이 비었으면 틀렸을 확률이 높다 N , N-2, N-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점화식이 무한차수열일줄 생각 못했다. 이런케이스도 있으니 주의할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaveClassSequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이 앞에올 경우, 해당자리일 경우, 뒤의올 경우 예외처리가 필요함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1996,7 +2080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2050,6 +2134,13 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2441,7 +2532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L186"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -3112,10 +3203,10 @@
         <v>50</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
@@ -3136,10 +3227,10 @@
         <v>54</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -3159,10 +3250,10 @@
         <v>55</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J37" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
@@ -3453,7 +3544,7 @@
         <v>190</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -3476,15 +3567,15 @@
         <v>176</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K59" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H60" t="s">
         <v>94</v>
@@ -3493,7 +3584,7 @@
         <v>176</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="4:12" x14ac:dyDescent="0.45">
@@ -3504,7 +3595,7 @@
         <v>176</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="4:12" x14ac:dyDescent="0.45">
@@ -3525,7 +3616,7 @@
         <v>176</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
@@ -3546,7 +3637,7 @@
         <v>176</v>
       </c>
       <c r="J63" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="4:12" x14ac:dyDescent="0.45">
@@ -3636,7 +3727,7 @@
         <v>176</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
@@ -3657,7 +3748,7 @@
         <v>176</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
@@ -3678,7 +3769,7 @@
         <v>176</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
@@ -3699,10 +3790,10 @@
         <v>176</v>
       </c>
       <c r="J71" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="5:11" x14ac:dyDescent="0.45">
@@ -3720,7 +3811,7 @@
         <v>176</v>
       </c>
       <c r="J72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="5:11" x14ac:dyDescent="0.45">
@@ -3770,10 +3861,10 @@
         <v>176</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
@@ -3794,10 +3885,10 @@
         <v>176</v>
       </c>
       <c r="J76" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="K76" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="K76" s="14" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="183" spans="5:5" x14ac:dyDescent="0.45">
@@ -3833,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:M115"/>
+  <dimension ref="C2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3856,7 +3947,7 @@
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>195</v>
@@ -3885,7 +3976,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>192</v>
@@ -3899,15 +3990,15 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F5">
         <v>1463</v>
@@ -3923,18 +4014,18 @@
         <v>176</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H6" t="s">
         <v>127</v>
@@ -3943,10 +4034,10 @@
         <v>176</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.45">
@@ -3967,10 +4058,10 @@
         <v>176</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.45">
@@ -3991,10 +4082,10 @@
         <v>176</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.45">
@@ -4015,7 +4106,7 @@
         <v>176</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.45">
@@ -4036,7 +4127,7 @@
         <v>176</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.45">
@@ -4057,7 +4148,7 @@
         <v>176</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.45">
@@ -4078,7 +4169,7 @@
         <v>176</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.45">
@@ -4099,7 +4190,7 @@
         <v>176</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.45">
@@ -4120,7 +4211,7 @@
         <v>176</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.45">
@@ -4141,7 +4232,7 @@
         <v>176</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
@@ -4162,10 +4253,10 @@
         <v>176</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.45">
@@ -4186,7 +4277,7 @@
         <v>176</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
@@ -4207,10 +4298,10 @@
         <v>176</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.45">
@@ -4231,10 +4322,10 @@
         <v>176</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K19" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
@@ -4255,10 +4346,10 @@
         <v>176</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.45">
@@ -4279,7 +4370,7 @@
         <v>176</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.45">
@@ -4300,7 +4391,7 @@
         <v>176</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>273</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
@@ -4311,13 +4402,13 @@
         <v>190</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11" x14ac:dyDescent="0.45">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -4331,1421 +4422,1472 @@
       <c r="H24" t="s">
         <v>162</v>
       </c>
-      <c r="I24" s="1"/>
+      <c r="I24" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J24" s="16" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="25" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F25">
-        <v>1912</v>
-      </c>
-      <c r="G25" t="str">
-        <f>IF(F25="","",CONCATENATE("https://www.acmicpc.net/problem/",F25))</f>
-        <v>https://www.acmicpc.net/problem/1912</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J25" s="16" t="s">
-        <v>276</v>
+        <v>499</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F26">
-        <v>13398</v>
+        <v>1912</v>
       </c>
       <c r="G26" t="str">
         <f>IF(F26="","",CONCATENATE("https://www.acmicpc.net/problem/",F26))</f>
-        <v>https://www.acmicpc.net/problem/13398</v>
+        <v>https://www.acmicpc.net/problem/1912</v>
       </c>
       <c r="H26" t="s">
-        <v>166</v>
-      </c>
-      <c r="I26" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J26" s="16" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.45">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F27">
-        <v>1699</v>
+        <v>13398</v>
       </c>
       <c r="G27" t="str">
         <f>IF(F27="","",CONCATENATE("https://www.acmicpc.net/problem/",F27))</f>
-        <v>https://www.acmicpc.net/problem/1699</v>
+        <v>https://www.acmicpc.net/problem/13398</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
-      </c>
-      <c r="I27" s="1"/>
+        <v>166</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J27" s="16" t="s">
-        <v>282</v>
+        <v>274</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F28">
-        <v>2225</v>
+        <v>1699</v>
       </c>
       <c r="G28" t="str">
         <f>IF(F28="","",CONCATENATE("https://www.acmicpc.net/problem/",F28))</f>
+        <v>https://www.acmicpc.net/problem/1699</v>
+      </c>
+      <c r="H28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="E29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29">
+        <v>2225</v>
+      </c>
+      <c r="G29" t="str">
+        <f>IF(F29="","",CONCATENATE("https://www.acmicpc.net/problem/",F29))</f>
         <v>https://www.acmicpc.net/problem/2225</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" t="s">
         <v>170</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="H29" t="s">
+      <c r="I29" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+      <c r="H30" t="s">
         <v>171</v>
       </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E30" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F30">
+      <c r="I30" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+      <c r="E31" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F31">
         <v>2579</v>
       </c>
-      <c r="G30" t="str">
-        <f>IF(F30="","",CONCATENATE("https://www.acmicpc.net/problem/",F30))</f>
+      <c r="G31" t="str">
+        <f>IF(F31="","",CONCATENATE("https://www.acmicpc.net/problem/",F31))</f>
         <v>https://www.acmicpc.net/problem/2579</v>
       </c>
-      <c r="H30" t="s">
-        <v>248</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H31" t="s">
         <v>247</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J31" s="16" t="s">
-        <v>286</v>
+        <v>282</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.45">
-      <c r="E32" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F32">
-        <v>2133</v>
-      </c>
-      <c r="G32" t="str">
-        <f>IF(F32="","",CONCATENATE("https://www.acmicpc.net/problem/",F32))</f>
-        <v>https://www.acmicpc.net/problem/2133</v>
-      </c>
       <c r="H32" t="s">
-        <v>245</v>
-      </c>
-      <c r="I32" s="1"/>
+        <v>246</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J32" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="K32" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F33">
-        <v>9461</v>
+        <v>2133</v>
       </c>
       <c r="G33" t="str">
         <f>IF(F33="","",CONCATENATE("https://www.acmicpc.net/problem/",F33))</f>
-        <v>https://www.acmicpc.net/problem/9461</v>
+        <v>https://www.acmicpc.net/problem/2133</v>
       </c>
       <c r="H33" t="s">
-        <v>242</v>
-      </c>
-      <c r="I33" s="1"/>
+        <v>244</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="J33" s="16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>284</v>
+      </c>
+      <c r="K33" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F34">
-        <v>2011</v>
+        <v>9461</v>
       </c>
       <c r="G34" t="str">
         <f>IF(F34="","",CONCATENATE("https://www.acmicpc.net/problem/",F34))</f>
+        <v>https://www.acmicpc.net/problem/9461</v>
+      </c>
+      <c r="H34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F35">
+        <v>2011</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(F35="","",CONCATENATE("https://www.acmicpc.net/problem/",F35))</f>
         <v>https://www.acmicpc.net/problem/2011</v>
       </c>
-      <c r="H34" t="s">
-        <v>243</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="16" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="5" t="s">
+      <c r="H35" t="s">
+        <v>242</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="K35" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E36" s="15" t="s">
+      <c r="F37" s="10">
+        <v>11048</v>
+      </c>
+      <c r="G37" t="str">
+        <f>IF(F37="","",CONCATENATE("https://www.acmicpc.net/problem/",F37))</f>
+        <v>https://www.acmicpc.net/problem/11048</v>
+      </c>
+      <c r="H37" t="s">
         <v>252</v>
       </c>
-      <c r="F36" s="10">
-        <v>11048</v>
-      </c>
-      <c r="G36" t="str">
-        <f>IF(F36="","",CONCATENATE("https://www.acmicpc.net/problem/",F36))</f>
-        <v>https://www.acmicpc.net/problem/11048</v>
-      </c>
-      <c r="H36" t="s">
-        <v>253</v>
-      </c>
-      <c r="J36" s="16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="H37" t="s">
-        <v>254</v>
-      </c>
       <c r="J37" s="16" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E42" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42">
+        <v>1890</v>
+      </c>
+      <c r="G42" t="str">
+        <f>IF(F42="","",CONCATENATE("https://www.acmicpc.net/problem/",F42))</f>
+        <v>https://www.acmicpc.net/problem/1890</v>
+      </c>
+      <c r="H42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="H43" t="s">
         <v>294</v>
       </c>
-      <c r="J40" s="16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E41" s="1" t="s">
+      <c r="J43" s="16" t="s">
         <v>296</v>
-      </c>
-      <c r="F41">
-        <v>1890</v>
-      </c>
-      <c r="G41" t="str">
-        <f>IF(F41="","",CONCATENATE("https://www.acmicpc.net/problem/",F41))</f>
-        <v>https://www.acmicpc.net/problem/1890</v>
-      </c>
-      <c r="H41" t="s">
-        <v>297</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="H42" t="s">
-        <v>298</v>
-      </c>
-      <c r="J42" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" ht="34" x14ac:dyDescent="0.45">
-      <c r="E43" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="F43">
-        <v>10942</v>
-      </c>
-      <c r="G43" t="str">
-        <f>IF(F43="","",CONCATENATE("https://www.acmicpc.net/problem/",F43))</f>
-        <v>https://www.acmicpc.net/problem/10942</v>
-      </c>
-      <c r="H43" t="s">
-        <v>301</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
-        <v>311</v>
+        <v>309</v>
+      </c>
+      <c r="F44">
+        <v>10942</v>
+      </c>
+      <c r="G44" t="str">
+        <f>IF(F44="","",CONCATENATE("https://www.acmicpc.net/problem/",F44))</f>
+        <v>https://www.acmicpc.net/problem/10942</v>
       </c>
       <c r="H44" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E45" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F45">
-        <v>1509</v>
-      </c>
-      <c r="G45" t="str">
-        <f>IF(F45="","",CONCATENATE("https://www.acmicpc.net/problem/",F45))</f>
-        <v>https://www.acmicpc.net/problem/1509</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+      <c r="E45" s="14" t="s">
+        <v>307</v>
       </c>
       <c r="H45" t="s">
-        <v>303</v>
-      </c>
-      <c r="J45" s="16" t="s">
-        <v>462</v>
+        <v>298</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F46">
-        <v>2293</v>
+        <v>1509</v>
       </c>
       <c r="G46" t="str">
         <f>IF(F46="","",CONCATENATE("https://www.acmicpc.net/problem/",F46))</f>
-        <v>https://www.acmicpc.net/problem/2293</v>
+        <v>https://www.acmicpc.net/problem/1509</v>
       </c>
       <c r="H46" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F47">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="G47" t="str">
         <f>IF(F47="","",CONCATENATE("https://www.acmicpc.net/problem/",F47))</f>
-        <v>https://www.acmicpc.net/problem/2294</v>
+        <v>https://www.acmicpc.net/problem/2293</v>
       </c>
       <c r="H47" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" ht="34" x14ac:dyDescent="0.45">
-      <c r="E48" s="14" t="s">
-        <v>312</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E48" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="F48">
-        <v>1520</v>
+        <v>2294</v>
       </c>
       <c r="G48" t="str">
         <f>IF(F48="","",CONCATENATE("https://www.acmicpc.net/problem/",F48))</f>
-        <v>https://www.acmicpc.net/problem/1520</v>
+        <v>https://www.acmicpc.net/problem/2294</v>
       </c>
       <c r="H48" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="J48" s="16" t="s">
-        <v>464</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
-        <v>314</v>
+        <v>308</v>
+      </c>
+      <c r="F49">
+        <v>1520</v>
+      </c>
+      <c r="G49" t="str">
+        <f>IF(F49="","",CONCATENATE("https://www.acmicpc.net/problem/",F49))</f>
+        <v>https://www.acmicpc.net/problem/1520</v>
       </c>
       <c r="H49" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E50" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="F50">
-        <v>11066</v>
-      </c>
-      <c r="G50" t="str">
-        <f>IF(F50="","",CONCATENATE("https://www.acmicpc.net/problem/",F50))</f>
-        <v>https://www.acmicpc.net/problem/11066</v>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+      <c r="E50" s="14" t="s">
+        <v>310</v>
       </c>
       <c r="H50" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="J50" s="16" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F51">
-        <v>11049</v>
+        <v>11066</v>
       </c>
       <c r="G51" t="str">
         <f>IF(F51="","",CONCATENATE("https://www.acmicpc.net/problem/",F51))</f>
-        <v>https://www.acmicpc.net/problem/11049</v>
+        <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H51" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F52">
-        <v>2228</v>
+        <v>11049</v>
       </c>
       <c r="G52" t="str">
         <f>IF(F52="","",CONCATENATE("https://www.acmicpc.net/problem/",F52))</f>
-        <v>https://www.acmicpc.net/problem/2228</v>
+        <v>https://www.acmicpc.net/problem/11049</v>
       </c>
       <c r="H52" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F53">
-        <v>2240</v>
+        <v>2228</v>
       </c>
       <c r="G53" t="str">
         <f>IF(F53="","",CONCATENATE("https://www.acmicpc.net/problem/",F53))</f>
-        <v>https://www.acmicpc.net/problem/2240</v>
+        <v>https://www.acmicpc.net/problem/2228</v>
       </c>
       <c r="H53" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F54">
-        <v>1328</v>
+        <v>2240</v>
       </c>
       <c r="G54" t="str">
         <f>IF(F54="","",CONCATENATE("https://www.acmicpc.net/problem/",F54))</f>
+        <v>https://www.acmicpc.net/problem/2240</v>
+      </c>
+      <c r="H54" t="s">
+        <v>319</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E55" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F55">
+        <v>1328</v>
+      </c>
+      <c r="G55" t="str">
+        <f>IF(F55="","",CONCATENATE("https://www.acmicpc.net/problem/",F55))</f>
         <v>https://www.acmicpc.net/problem/1328</v>
       </c>
-      <c r="H54" t="s">
-        <v>325</v>
-      </c>
-      <c r="J54" s="16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H55" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E56" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="F56">
-        <v>1720</v>
-      </c>
-      <c r="G56" t="str">
-        <f>IF(F56="","",CONCATENATE("https://www.acmicpc.net/problem/",F56))</f>
-        <v>https://www.acmicpc.net/problem/1720</v>
-      </c>
       <c r="H56" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="F57">
-        <v>1495</v>
+        <v>1720</v>
       </c>
       <c r="G57" t="str">
         <f>IF(F57="","",CONCATENATE("https://www.acmicpc.net/problem/",F57))</f>
-        <v>https://www.acmicpc.net/problem/1495</v>
+        <v>https://www.acmicpc.net/problem/1720</v>
       </c>
       <c r="H57" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F58">
-        <v>5557</v>
+        <v>1495</v>
       </c>
       <c r="G58" t="str">
         <f>IF(F58="","",CONCATENATE("https://www.acmicpc.net/problem/",F58))</f>
-        <v>https://www.acmicpc.net/problem/5557</v>
+        <v>https://www.acmicpc.net/problem/1495</v>
       </c>
       <c r="H58" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F59">
-        <v>3012</v>
+        <v>5557</v>
       </c>
       <c r="G59" t="str">
         <f>IF(F59="","",CONCATENATE("https://www.acmicpc.net/problem/",F59))</f>
-        <v>https://www.acmicpc.net/problem/3012</v>
+        <v>https://www.acmicpc.net/problem/5557</v>
       </c>
       <c r="H59" t="s">
-        <v>334</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="60" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>328</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E60" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F60">
-        <v>1126</v>
+        <v>3012</v>
       </c>
       <c r="G60" t="str">
         <f>IF(F60="","",CONCATENATE("https://www.acmicpc.net/problem/",F60))</f>
+        <v>https://www.acmicpc.net/problem/3012</v>
+      </c>
+      <c r="H60" t="s">
+        <v>330</v>
+      </c>
+      <c r="J60" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E61" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F61">
+        <v>1126</v>
+      </c>
+      <c r="G61" t="str">
+        <f>IF(F61="","",CONCATENATE("https://www.acmicpc.net/problem/",F61))</f>
         <v>https://www.acmicpc.net/problem/1126</v>
       </c>
-      <c r="H60" t="s">
-        <v>336</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="61" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D61" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-    </row>
-    <row r="62" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E62" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F62">
-        <v>2133</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" ref="G62:G71" si="1">IF(F62="","",CONCATENATE("https://www.acmicpc.net/problem/",F62))</f>
-        <v>https://www.acmicpc.net/problem/2133</v>
-      </c>
-      <c r="H62" t="s">
-        <v>338</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>287</v>
-      </c>
+      <c r="H61" t="s">
+        <v>332</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D62" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
     </row>
     <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
-        <v>339</v>
+        <v>243</v>
       </c>
       <c r="F63">
+        <v>2133</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" ref="G63:G72" si="1">IF(F63="","",CONCATENATE("https://www.acmicpc.net/problem/",F63))</f>
+        <v>https://www.acmicpc.net/problem/2133</v>
+      </c>
+      <c r="H63" t="s">
+        <v>334</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E64" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F64">
         <v>2098</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G64" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/2098</v>
       </c>
-      <c r="H63" t="s">
-        <v>340</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E64" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="F64">
+      <c r="H64" t="s">
+        <v>336</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E65" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F65">
         <v>1102</v>
       </c>
-      <c r="G64" t="str">
+      <c r="G65" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1102</v>
       </c>
-      <c r="H64" t="s">
-        <v>342</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E65" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="F65">
+      <c r="H65" t="s">
+        <v>338</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E66" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F66">
         <v>1562</v>
       </c>
-      <c r="G65" t="str">
+      <c r="G66" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1562</v>
       </c>
-      <c r="H65" t="s">
-        <v>344</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E66" s="1" t="s">
+      <c r="H66" t="s">
+        <v>340</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>10844</v>
       </c>
-      <c r="G66" t="str">
+      <c r="G67" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
-      <c r="J66" s="16" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E67" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F67">
+      <c r="J67" s="16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E68" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F68">
         <v>1086</v>
       </c>
-      <c r="G67" t="str">
+      <c r="G68" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1086</v>
       </c>
-      <c r="H67" t="s">
-        <v>346</v>
-      </c>
-      <c r="J67" s="16" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E68" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F68">
+      <c r="H68" t="s">
+        <v>342</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E69" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F69">
         <v>1648</v>
       </c>
-      <c r="G68" t="str">
+      <c r="G69" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1648</v>
       </c>
-      <c r="H68" t="s">
-        <v>348</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E69" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F69">
+      <c r="H69" t="s">
+        <v>344</v>
+      </c>
+      <c r="J69" s="16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E70" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F70">
         <v>9023</v>
       </c>
-      <c r="G69" t="str">
+      <c r="G70" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/9023</v>
       </c>
-      <c r="H69" t="s">
-        <v>350</v>
-      </c>
-      <c r="J69" s="16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E70" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="F70">
+      <c r="H70" t="s">
+        <v>346</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E71" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F71">
         <v>2172</v>
       </c>
-      <c r="G70" t="str">
+      <c r="G71" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/2172</v>
       </c>
-      <c r="H70" t="s">
-        <v>352</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E71" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="F71">
+      <c r="H71" t="s">
+        <v>348</v>
+      </c>
+      <c r="J71" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E72" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F72">
         <v>1563</v>
       </c>
-      <c r="G71" t="str">
+      <c r="G72" t="str">
         <f t="shared" si="1"/>
         <v>https://www.acmicpc.net/problem/1563</v>
       </c>
-      <c r="H71" t="s">
-        <v>358</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H72" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>354</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="75" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H75" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="76" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D76" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="17"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-    </row>
-    <row r="77" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E77" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F77">
-        <v>2213</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" ref="G77:G82" si="2">IF(F77="","",CONCATENATE("https://www.acmicpc.net/problem/",F77))</f>
-        <v>https://www.acmicpc.net/problem/2213</v>
-      </c>
-      <c r="H77" t="s">
-        <v>366</v>
-      </c>
-      <c r="J77" s="16" t="s">
-        <v>384</v>
-      </c>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H76" t="s">
+        <v>358</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D77" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
     </row>
     <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F78">
+        <v>2213</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" ref="G78:G83" si="2">IF(F78="","",CONCATENATE("https://www.acmicpc.net/problem/",F78))</f>
+        <v>https://www.acmicpc.net/problem/2213</v>
+      </c>
+      <c r="H78" t="s">
+        <v>362</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E79" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="F79">
         <v>2262</v>
       </c>
-      <c r="G78" t="str">
+      <c r="G79" t="str">
         <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/2262</v>
       </c>
-      <c r="H78" t="s">
-        <v>368</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E79" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="F79">
+      <c r="H79" t="s">
+        <v>364</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E80" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F80">
         <v>1866</v>
       </c>
-      <c r="G79" t="str">
+      <c r="G80" t="str">
         <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/1866</v>
       </c>
-      <c r="H79" t="s">
-        <v>371</v>
-      </c>
-      <c r="J79" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="G80" t="str">
+      <c r="H80" t="s">
+        <v>367</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H80" t="s">
-        <v>372</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E81" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="F81">
+      <c r="H81" t="s">
+        <v>368</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E82" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F82">
         <v>2142</v>
       </c>
-      <c r="G81" t="str">
+      <c r="G82" t="str">
         <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/2142</v>
       </c>
-      <c r="J81" s="16"/>
-    </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E82" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="F82">
+      <c r="J82" s="16"/>
+    </row>
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E83" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="F83">
         <v>2315</v>
       </c>
-      <c r="G82" t="str">
+      <c r="G83" t="str">
         <f t="shared" si="2"/>
         <v>https://www.acmicpc.net/problem/2315</v>
       </c>
-      <c r="H82" t="s">
-        <v>374</v>
-      </c>
-      <c r="J82" s="16" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E83" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F83">
+      <c r="H83" t="s">
+        <v>370</v>
+      </c>
+      <c r="J83" s="16" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E84" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F84">
         <v>2419</v>
       </c>
-      <c r="G83" t="str">
-        <f t="shared" ref="G83:G114" si="3">IF(F83="","",CONCATENATE("https://www.acmicpc.net/problem/",F83))</f>
+      <c r="G84" t="str">
+        <f t="shared" ref="G84:G115" si="3">IF(F84="","",CONCATENATE("https://www.acmicpc.net/problem/",F84))</f>
         <v>https://www.acmicpc.net/problem/2419</v>
       </c>
-      <c r="H83" t="s">
-        <v>376</v>
-      </c>
-      <c r="J83" s="16" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="G84" t="str">
+      <c r="H84" t="s">
+        <v>372</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H84" t="s">
-        <v>377</v>
-      </c>
-      <c r="J84" s="16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E85" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="F85">
+      <c r="H85" t="s">
+        <v>373</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E86" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F86">
         <v>2291</v>
       </c>
-      <c r="G85" t="str">
+      <c r="G86" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/2291</v>
       </c>
-      <c r="H85" t="s">
-        <v>379</v>
-      </c>
-      <c r="J85" s="16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E86" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F86">
+      <c r="H86" t="s">
+        <v>375</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E87" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F87">
         <v>1344</v>
       </c>
-      <c r="G86" t="str">
+      <c r="G87" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1344</v>
       </c>
-      <c r="H86" t="s">
-        <v>381</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="87" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="E87" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F87">
+      <c r="H87" t="s">
+        <v>377</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E88" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F88">
         <v>1204</v>
       </c>
-      <c r="G87" t="str">
+      <c r="G88" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1204</v>
       </c>
-      <c r="H87" t="s">
-        <v>383</v>
-      </c>
-      <c r="J87" s="16" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="88" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="D88" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-    </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E89" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F89" s="10">
+      <c r="H88" t="s">
+        <v>379</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="D89" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E90" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="F90" s="10">
         <v>13247</v>
       </c>
-      <c r="G89" t="str">
+      <c r="G90" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13247</v>
       </c>
-      <c r="H89" t="s">
-        <v>396</v>
-      </c>
-      <c r="J89" s="16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E90" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F90" s="10">
+      <c r="H90" t="s">
+        <v>392</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E91" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F91" s="10">
         <v>13249</v>
       </c>
-      <c r="G90" t="str">
+      <c r="G91" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13249</v>
       </c>
-      <c r="H90" t="s">
-        <v>398</v>
-      </c>
-      <c r="J90" s="16" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E91" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="F91" s="10">
+      <c r="H91" t="s">
+        <v>394</v>
+      </c>
+      <c r="J91" s="16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E92" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="F92" s="10">
         <v>1359</v>
       </c>
-      <c r="G91" t="str">
+      <c r="G92" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1359</v>
       </c>
-      <c r="H91" t="s">
-        <v>400</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E92" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F92" s="10">
+      <c r="H92" t="s">
+        <v>396</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E93" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F93" s="10">
         <v>13250</v>
       </c>
-      <c r="G92" t="str">
+      <c r="G93" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13250</v>
       </c>
-      <c r="H92" t="s">
-        <v>402</v>
-      </c>
-      <c r="J92" s="16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E93" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="F93" s="10">
+      <c r="H93" t="s">
+        <v>398</v>
+      </c>
+      <c r="J93" s="16" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E94" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F94" s="10">
         <v>13251</v>
       </c>
-      <c r="G93" t="str">
+      <c r="G94" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13251</v>
       </c>
-      <c r="H93" t="s">
-        <v>404</v>
-      </c>
-      <c r="J93" s="16" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E94" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="F94" s="10">
+      <c r="H94" t="s">
+        <v>400</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E95" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F95" s="10">
         <v>13252</v>
       </c>
-      <c r="G94" t="str">
+      <c r="G95" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13252</v>
       </c>
-      <c r="H94" t="s">
-        <v>405</v>
-      </c>
-      <c r="J94" s="16" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="E95" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="F95" s="10">
+      <c r="H95" t="s">
+        <v>401</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="E96" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F96" s="10">
         <v>13253</v>
       </c>
-      <c r="G95" t="str">
+      <c r="G96" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13253</v>
       </c>
-      <c r="H95" t="s">
-        <v>407</v>
-      </c>
-      <c r="J95" s="16" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
-      <c r="G96" t="str">
+      <c r="H96" t="s">
+        <v>403</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H96" t="s">
-        <v>408</v>
-      </c>
-      <c r="J96" s="16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E97" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="F97">
+      <c r="H97" t="s">
+        <v>404</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E98" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F98">
         <v>13254</v>
       </c>
-      <c r="G97" t="str">
+      <c r="G98" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13254</v>
       </c>
-      <c r="H97" t="s">
-        <v>410</v>
-      </c>
-      <c r="J97" s="16" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E98" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="F98">
+      <c r="H98" t="s">
+        <v>406</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E99" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F99">
         <v>13255</v>
       </c>
-      <c r="G98" t="str">
+      <c r="G99" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13255</v>
       </c>
-      <c r="H98" t="s">
-        <v>412</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E99" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="F99">
+      <c r="H99" t="s">
+        <v>408</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E100" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F100">
         <v>13257</v>
       </c>
-      <c r="G99" t="str">
+      <c r="G100" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13257</v>
       </c>
-      <c r="H99" t="s">
-        <v>414</v>
-      </c>
-      <c r="J99" s="16" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E100" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="F100">
+      <c r="H100" t="s">
+        <v>410</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E101" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F101">
         <v>1521</v>
       </c>
-      <c r="G100" t="str">
+      <c r="G101" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/1521</v>
       </c>
-      <c r="H100" t="s">
-        <v>416</v>
-      </c>
-      <c r="I100" t="s">
-        <v>492</v>
-      </c>
-      <c r="J100" s="16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="H101" t="s">
+        <v>412</v>
+      </c>
+      <c r="I101" t="s">
+        <v>488</v>
+      </c>
       <c r="J101" s="16" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E102" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F102">
+      <c r="J102" s="16" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E103" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F103">
         <v>13258</v>
       </c>
-      <c r="G102" t="str">
+      <c r="G103" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13258</v>
       </c>
-      <c r="H102" t="s">
-        <v>418</v>
-      </c>
-      <c r="J102" s="16" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E103" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F103">
+      <c r="H103" t="s">
+        <v>414</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E104" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F104">
         <v>11066</v>
       </c>
-      <c r="G103" t="str">
+      <c r="G104" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
-      <c r="H103" t="s">
-        <v>420</v>
-      </c>
-      <c r="J103" s="16" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H104" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="105" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E105" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="F105">
+      <c r="H105" t="s">
+        <v>417</v>
+      </c>
+      <c r="J105" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E106" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F106">
         <v>13260</v>
       </c>
-      <c r="G105" t="str">
+      <c r="G106" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13260</v>
       </c>
-      <c r="H105" t="s">
-        <v>423</v>
-      </c>
-      <c r="J105" s="16" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="G106" t="str">
+      <c r="H106" t="s">
+        <v>419</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H106" t="s">
-        <v>424</v>
-      </c>
-      <c r="J106" s="16" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E107" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="F107">
+      <c r="H107" t="s">
+        <v>420</v>
+      </c>
+      <c r="J107" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E108" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F108">
         <v>13261</v>
       </c>
-      <c r="G107" t="str">
+      <c r="G108" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13261</v>
       </c>
-      <c r="H107" t="s">
-        <v>426</v>
-      </c>
-      <c r="J107" s="16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H108" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="109" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E109" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="F109">
+      <c r="H109" t="s">
+        <v>423</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E110" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F110">
         <v>13262</v>
       </c>
-      <c r="G109" t="str">
+      <c r="G110" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13262</v>
       </c>
-      <c r="H109" t="s">
-        <v>429</v>
-      </c>
-      <c r="J109" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E110" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F110">
+      <c r="H110" t="s">
+        <v>425</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E111" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="F111">
         <v>13263</v>
       </c>
-      <c r="G110" t="str">
+      <c r="G111" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/13263</v>
       </c>
-      <c r="H110" t="s">
-        <v>431</v>
-      </c>
-      <c r="I110" t="s">
-        <v>487</v>
-      </c>
-      <c r="J110" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="F111" t="s">
-        <v>437</v>
-      </c>
       <c r="H111" t="s">
-        <v>432</v>
+        <v>427</v>
+      </c>
+      <c r="I111" t="s">
+        <v>483</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="F112" t="s">
+        <v>433</v>
+      </c>
+      <c r="H112" t="s">
+        <v>428</v>
+      </c>
       <c r="J112" s="16" t="s">
-        <v>490</v>
+        <v>454</v>
       </c>
     </row>
     <row r="113" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E113" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="F113">
+      <c r="J113" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E114" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F114">
         <v>6171</v>
       </c>
-      <c r="G113" t="str">
+      <c r="G114" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/6171</v>
       </c>
-      <c r="H113" t="s">
-        <v>434</v>
-      </c>
-      <c r="J113" s="16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E114" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="F114">
+      <c r="H114" t="s">
+        <v>430</v>
+      </c>
+      <c r="J114" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E115" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F115">
         <v>4008</v>
       </c>
-      <c r="G114" t="str">
+      <c r="G115" t="str">
         <f t="shared" si="3"/>
         <v>https://www.acmicpc.net/problem/4008</v>
       </c>
-      <c r="H114" t="s">
-        <v>436</v>
-      </c>
-      <c r="I114" t="s">
-        <v>488</v>
-      </c>
-      <c r="J114" s="16" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="H115" t="s">
+        <v>432</v>
+      </c>
+      <c r="I115" t="s">
+        <v>484</v>
+      </c>
       <c r="J115" s="16" t="s">
-        <v>491</v>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="J116" s="16" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -2072,7 +2072,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0이 앞에올 경우, 해당자리일 경우, 뒤의올 경우 예외처리가 필요함</t>
+    <t>0이 앞에올 경우, 해당자리일 경우, 뒤의올 경우 예외처리가 필요함
+[1,9]일때와 [10,26] 인경우를 나눠서 d[i]+=d[i-1], d[i]+=d[i-2]
+0예외처리하기가 아주 깔끔해진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2536,27 +2538,27 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2630,7 +2632,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2690,7 +2692,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2729,7 +2731,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -2757,7 +2759,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -2775,7 +2777,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -2791,7 +2793,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -2807,7 +2809,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2828,7 +2830,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -2844,7 +2846,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -2856,7 +2858,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -2900,7 +2902,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,7 +2920,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -2975,7 +2977,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -2991,7 +2993,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -3054,7 +3056,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -3080,7 +3082,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -3104,7 +3106,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -3149,7 +3151,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -3188,7 +3190,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -3209,7 +3211,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -3235,7 +3237,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -3256,7 +3258,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -3278,7 +3280,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -3293,7 +3295,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -3303,7 +3305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -3318,7 +3320,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -3343,7 +3345,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -3373,7 +3375,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -3383,7 +3385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -3398,7 +3400,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -3423,7 +3425,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -3438,7 +3440,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -3448,7 +3450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -3463,7 +3465,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -3473,7 +3475,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -3488,7 +3490,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -3498,7 +3500,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,7 +3515,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -3523,7 +3525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -3549,7 +3551,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -3573,7 +3575,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -3587,7 +3589,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -3598,7 +3600,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -3619,7 +3621,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -3640,7 +3642,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -3658,7 +3660,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -3673,7 +3675,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -3730,7 +3732,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -3772,7 +3774,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -3796,7 +3798,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -3814,7 +3816,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -3832,7 +3834,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -3843,7 +3845,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -3867,7 +3869,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -3891,25 +3893,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -3927,25 +3929,25 @@
   <dimension ref="C2:M116"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>278</v>
       </c>
@@ -3953,7 +3955,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -3988,7 +3990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>249</v>
       </c>
@@ -3996,7 +3998,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
@@ -4040,7 +4042,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -4064,7 +4066,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -4088,7 +4090,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -4109,7 +4111,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -4130,7 +4132,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -4151,7 +4153,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -4172,7 +4174,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -4214,7 +4216,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -4235,7 +4237,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -4280,7 +4282,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -4328,7 +4330,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -4352,7 +4354,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -4373,7 +4375,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -4394,7 +4396,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -4408,7 +4410,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -4432,7 +4434,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -4467,7 +4469,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -4491,7 +4493,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -4536,7 +4538,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -4547,7 +4549,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -4571,7 +4573,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -4582,7 +4584,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -4606,7 +4608,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -4627,7 +4629,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -4647,11 +4649,11 @@
       <c r="J35" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
@@ -4665,7 +4667,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
@@ -4683,7 +4685,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>253</v>
       </c>
@@ -4691,7 +4693,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>254</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>255</v>
       </c>
@@ -4707,7 +4709,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>290</v>
       </c>
@@ -4715,7 +4717,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
@@ -4733,7 +4735,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>294</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>309</v>
       </c>
@@ -4759,7 +4761,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>307</v>
       </c>
@@ -4770,7 +4772,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>300</v>
       </c>
@@ -4788,7 +4790,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>301</v>
       </c>
@@ -4806,7 +4808,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>303</v>
       </c>
@@ -4824,7 +4826,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>308</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
         <v>310</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>312</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>314</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
@@ -4907,7 +4909,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>318</v>
       </c>
@@ -4925,7 +4927,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>320</v>
       </c>
@@ -4943,7 +4945,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>322</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>323</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>326</v>
       </c>
@@ -4987,7 +4989,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>327</v>
       </c>
@@ -5005,7 +5007,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>329</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
         <v>331</v>
       </c>
@@ -5041,7 +5043,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>333</v>
       </c>
@@ -5055,7 +5057,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>335</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>337</v>
       </c>
@@ -5109,7 +5111,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
@@ -5127,7 +5129,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
@@ -5160,7 +5162,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -5178,7 +5180,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>345</v>
       </c>
@@ -5196,7 +5198,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
@@ -5214,7 +5216,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
         <v>349</v>
       </c>
@@ -5232,7 +5234,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>355</v>
       </c>
@@ -5240,7 +5242,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>356</v>
       </c>
@@ -5248,7 +5250,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>357</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>358</v>
       </c>
@@ -5264,7 +5266,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
         <v>359</v>
       </c>
@@ -5278,7 +5280,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>361</v>
       </c>
@@ -5296,7 +5298,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>363</v>
       </c>
@@ -5314,7 +5316,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>365</v>
       </c>
@@ -5332,7 +5334,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -5344,7 +5346,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>366</v>
       </c>
@@ -5357,7 +5359,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>369</v>
       </c>
@@ -5375,7 +5377,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>371</v>
       </c>
@@ -5393,7 +5395,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5405,7 +5407,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>374</v>
       </c>
@@ -5423,7 +5425,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>376</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
         <v>378</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
         <v>390</v>
       </c>
@@ -5473,7 +5475,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>391</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>393</v>
       </c>
@@ -5509,7 +5511,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>395</v>
       </c>
@@ -5527,7 +5529,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>397</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>399</v>
       </c>
@@ -5563,7 +5565,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
@@ -5599,7 +5601,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5611,7 +5613,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
@@ -5629,7 +5631,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>407</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>411</v>
       </c>
@@ -5686,12 +5688,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
         <v>413</v>
       </c>
@@ -5709,7 +5711,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
@@ -5727,7 +5729,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>417</v>
       </c>
@@ -5735,7 +5737,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
         <v>418</v>
       </c>
@@ -5753,7 +5755,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5765,7 +5767,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
         <v>421</v>
       </c>
@@ -5783,7 +5785,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>423</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>424</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
@@ -5830,7 +5832,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>433</v>
       </c>
@@ -5841,12 +5843,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
@@ -5864,7 +5866,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
         <v>431</v>
       </c>
@@ -5885,7 +5887,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
         <v>487</v>
       </c>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
     <sheet name="DP" sheetId="2" r:id="rId2"/>
+    <sheet name="프로그래머스 고득점" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="573">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2077,12 +2078,1168 @@
 0예외처리하기가 아주 깔끔해진다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>고득점 키트 문제</t>
+  </si>
+  <si>
+    <t>1. 해시</t>
+  </si>
+  <si>
+    <t>2. 스택/큐</t>
+  </si>
+  <si>
+    <t>3. 힙</t>
+  </si>
+  <si>
+    <t>4. 정렬</t>
+  </si>
+  <si>
+    <t>5. 완전탐색</t>
+  </si>
+  <si>
+    <t>7. 동적 계획법</t>
+  </si>
+  <si>
+    <t>8. 깊이/너비 우선탐색(DFS/BFS)</t>
+  </si>
+  <si>
+    <t>9. 이분탐색</t>
+  </si>
+  <si>
+    <t>  2) 징검다리</t>
+  </si>
+  <si>
+    <t>10. 그래프</t>
+  </si>
+  <si>
+    <t>  2) 순위</t>
+  </si>
+  <si>
+    <t>  3) 방의 개수 </t>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완주하지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>못한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적의 답으로 풀지 못함</t>
+  </si>
+  <si>
+    <t>최적의 답으로 풀지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream을 사용한 풀이도 숙지 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베스트앨범</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능개발</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프린터</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다리를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지나는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>트럭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주식가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최적의 답으로 풀지 못함  </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>더</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맵게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ의 존재를 이때앎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힌트를 얻어서 품</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디스크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>컨트롤러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이중우선순위큐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>  1) K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>번째수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>  3) H-Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모의고사</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 완벽</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>소수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찾기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>카펫</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인적으로 제일 어려웠다.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐욕법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Greedy)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> toString의 부하를 몰라서 고생함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>체육복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조이스틱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구명보트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  5) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>섬</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결하기</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  6) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단속카메라</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>  1) N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표현</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삼각형</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등굣길</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도둑질</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타겟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘버</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>네트워크</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여행</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경로</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입국심사</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>먼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>노드</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2144,8 +3301,30 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2158,8 +3337,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2185,13 +3370,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2252,9 +3504,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3928,7 +5220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -5897,4 +7189,643 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="25"/>
+      <c r="B6" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>511</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="25"/>
+      <c r="B10" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="25"/>
+      <c r="B11" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="25"/>
+      <c r="B12" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26" t="s">
+        <v>538</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="26" t="s">
+        <v>543</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
+        <v>544</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="23"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="25"/>
+      <c r="B21" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="25"/>
+      <c r="B22" s="26" t="s">
+        <v>546</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26" t="s">
+        <v>547</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="23"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="25"/>
+      <c r="B27" s="26" t="s">
+        <v>548</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="25"/>
+      <c r="B28" s="26" t="s">
+        <v>550</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26" t="s">
+        <v>551</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="23"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>553</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="25"/>
+      <c r="B32" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="25"/>
+      <c r="B33" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="25"/>
+      <c r="B34" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26" t="s">
+        <v>561</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28" t="s">
+        <v>565</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29" t="s">
+        <v>529</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="30"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="20" t="s">
+        <v>566</v>
+      </c>
+      <c r="D45" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="20" t="s">
+        <v>567</v>
+      </c>
+      <c r="D46" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="20" t="s">
+        <v>568</v>
+      </c>
+      <c r="D47" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="D48" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="D51" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="D55" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="21"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="21"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="575">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3232,6 +3232,14 @@
   </si>
   <si>
     <t>3차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3830,27 +3838,27 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -3906,7 +3914,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3924,7 +3932,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3942,7 +3950,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3963,7 +3971,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -3984,7 +3992,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4005,7 +4013,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4051,7 +4059,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4069,7 +4077,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4085,7 +4093,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4101,7 +4109,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4122,7 +4130,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4138,7 +4146,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4150,7 +4158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4168,7 +4176,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4194,7 +4202,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4212,7 +4220,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4230,7 +4238,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4248,7 +4256,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4269,7 +4277,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4285,7 +4293,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4306,7 +4314,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4327,7 +4335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4348,7 +4356,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -4374,7 +4382,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -4398,7 +4406,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4422,7 +4430,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4443,7 +4451,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -4464,7 +4472,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -4529,7 +4537,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4550,7 +4558,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4572,7 +4580,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4587,7 +4595,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -4597,7 +4605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -4612,7 +4620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4627,7 +4635,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -4637,7 +4645,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -4652,7 +4660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,7 +4675,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -4677,7 +4685,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -4692,7 +4700,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -4707,7 +4715,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -4717,7 +4725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -4732,7 +4740,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -4742,7 +4750,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -4757,7 +4765,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -4767,7 +4775,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -4792,7 +4800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -4817,7 +4825,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -4843,7 +4851,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -4867,7 +4875,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -4881,7 +4889,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -4892,7 +4900,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -4913,7 +4921,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -4934,7 +4942,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -4952,7 +4960,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -4985,7 +4993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5003,7 +5011,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5024,7 +5032,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5045,7 +5053,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5066,7 +5074,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5090,7 +5098,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5108,7 +5116,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5126,7 +5134,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5161,7 +5169,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5185,25 +5193,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5224,22 +5232,22 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
         <v>278</v>
       </c>
@@ -5247,7 +5255,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5282,7 +5290,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>249</v>
       </c>
@@ -5290,7 +5298,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
@@ -5317,7 +5325,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
@@ -5334,7 +5342,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -5358,7 +5366,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -5403,7 +5411,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5445,7 +5453,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -5466,7 +5474,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -5508,7 +5516,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -5574,7 +5582,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -5598,7 +5606,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -5646,7 +5654,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -5667,7 +5675,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -5688,7 +5696,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -5702,7 +5710,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -5726,7 +5734,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -5740,7 +5748,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -5761,7 +5769,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -5806,7 +5814,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -5830,7 +5838,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -5841,7 +5849,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -5865,7 +5873,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -5876,7 +5884,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -5900,7 +5908,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -5921,7 +5929,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -5945,7 +5953,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
@@ -5959,7 +5967,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
@@ -5977,7 +5985,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>253</v>
       </c>
@@ -5985,7 +5993,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
         <v>254</v>
       </c>
@@ -5993,7 +6001,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
         <v>255</v>
       </c>
@@ -6001,7 +6009,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H41" t="s">
         <v>290</v>
       </c>
@@ -6009,7 +6017,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
@@ -6027,7 +6035,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>294</v>
       </c>
@@ -6035,7 +6043,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
         <v>309</v>
       </c>
@@ -6053,7 +6061,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E45" s="14" t="s">
         <v>307</v>
       </c>
@@ -6064,7 +6072,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
         <v>300</v>
       </c>
@@ -6082,7 +6090,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>301</v>
       </c>
@@ -6100,7 +6108,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>303</v>
       </c>
@@ -6118,7 +6126,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
         <v>308</v>
       </c>
@@ -6136,7 +6144,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E50" s="14" t="s">
         <v>310</v>
       </c>
@@ -6147,7 +6155,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
         <v>312</v>
       </c>
@@ -6165,7 +6173,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>314</v>
       </c>
@@ -6183,7 +6191,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>318</v>
       </c>
@@ -6219,7 +6227,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E55" s="1" t="s">
         <v>320</v>
       </c>
@@ -6237,7 +6245,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>322</v>
       </c>
@@ -6245,7 +6253,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
         <v>323</v>
       </c>
@@ -6263,7 +6271,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
         <v>326</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>327</v>
       </c>
@@ -6299,7 +6307,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E60" s="1" t="s">
         <v>329</v>
       </c>
@@ -6317,7 +6325,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E61" s="1" t="s">
         <v>331</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D62" s="5" t="s">
         <v>333</v>
       </c>
@@ -6349,7 +6357,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -6367,7 +6375,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>335</v>
       </c>
@@ -6385,7 +6393,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
         <v>337</v>
       </c>
@@ -6403,7 +6411,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -6436,7 +6444,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -6472,7 +6480,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>345</v>
       </c>
@@ -6490,7 +6498,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
@@ -6508,7 +6516,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E72" s="1" t="s">
         <v>349</v>
       </c>
@@ -6526,7 +6534,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
         <v>355</v>
       </c>
@@ -6534,7 +6542,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
         <v>356</v>
       </c>
@@ -6542,7 +6550,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H75" t="s">
         <v>357</v>
       </c>
@@ -6550,7 +6558,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H76" t="s">
         <v>358</v>
       </c>
@@ -6558,7 +6566,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5" t="s">
         <v>359</v>
       </c>
@@ -6572,7 +6580,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
         <v>361</v>
       </c>
@@ -6590,7 +6598,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
         <v>363</v>
       </c>
@@ -6608,7 +6616,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>365</v>
       </c>
@@ -6626,7 +6634,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6638,7 +6646,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>366</v>
       </c>
@@ -6651,7 +6659,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>369</v>
       </c>
@@ -6669,7 +6677,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>371</v>
       </c>
@@ -6687,7 +6695,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6699,7 +6707,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>374</v>
       </c>
@@ -6717,7 +6725,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>376</v>
       </c>
@@ -6735,7 +6743,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6753,7 +6761,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D89" s="5" t="s">
         <v>390</v>
       </c>
@@ -6767,7 +6775,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>391</v>
       </c>
@@ -6785,7 +6793,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>393</v>
       </c>
@@ -6803,7 +6811,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>395</v>
       </c>
@@ -6821,7 +6829,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>397</v>
       </c>
@@ -6839,7 +6847,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>399</v>
       </c>
@@ -6857,7 +6865,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
@@ -6875,7 +6883,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
@@ -6893,7 +6901,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6905,7 +6913,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
@@ -6923,7 +6931,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>407</v>
       </c>
@@ -6941,7 +6949,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
@@ -6959,7 +6967,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>411</v>
       </c>
@@ -6980,12 +6988,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J102" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E103" s="1" t="s">
         <v>413</v>
       </c>
@@ -7003,7 +7011,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
@@ -7021,7 +7029,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H105" t="s">
         <v>417</v>
       </c>
@@ -7029,7 +7037,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E106" s="1" t="s">
         <v>418</v>
       </c>
@@ -7047,7 +7055,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7059,7 +7067,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>421</v>
       </c>
@@ -7077,7 +7085,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H109" t="s">
         <v>423</v>
       </c>
@@ -7085,7 +7093,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E110" s="1" t="s">
         <v>424</v>
       </c>
@@ -7103,7 +7111,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
@@ -7124,7 +7132,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>433</v>
       </c>
@@ -7135,12 +7143,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J113" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
@@ -7158,7 +7166,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E115" s="1" t="s">
         <v>431</v>
       </c>
@@ -7179,7 +7187,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J116" s="16" t="s">
         <v>487</v>
       </c>
@@ -7195,22 +7203,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="36.5" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="32" t="s">
+        <v>574</v>
+      </c>
       <c r="C2" s="32" t="s">
         <v>522</v>
       </c>
@@ -7225,7 +7235,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>510</v>
       </c>
@@ -7236,7 +7246,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>525</v>
@@ -7249,7 +7259,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>528</v>
@@ -7262,7 +7272,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>533</v>
@@ -7277,7 +7287,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>534</v>
@@ -7292,7 +7302,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7301,7 +7311,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>511</v>
       </c>
@@ -7312,7 +7322,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>535</v>
@@ -7325,7 +7335,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>536</v>
@@ -7338,7 +7348,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>537</v>
@@ -7351,7 +7361,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>538</v>
@@ -7364,7 +7374,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7373,7 +7383,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>512</v>
       </c>
@@ -7384,7 +7394,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>540</v>
@@ -7399,7 +7409,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>543</v>
@@ -7412,7 +7422,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>544</v>
@@ -7425,7 +7435,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7434,7 +7444,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>513</v>
       </c>
@@ -7445,7 +7455,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>545</v>
@@ -7458,7 +7468,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>546</v>
@@ -7471,7 +7481,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>547</v>
@@ -7484,7 +7494,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7493,7 +7503,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7502,7 +7512,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
         <v>514</v>
       </c>
@@ -7513,7 +7523,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>548</v>
@@ -7526,7 +7536,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>550</v>
@@ -7539,7 +7549,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>551</v>
@@ -7552,7 +7562,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7561,7 +7571,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
         <v>553</v>
       </c>
@@ -7574,7 +7584,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>555</v>
@@ -7587,7 +7597,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>556</v>
@@ -7600,7 +7610,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>557</v>
@@ -7615,7 +7625,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>558</v>
@@ -7628,7 +7638,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>559</v>
@@ -7641,7 +7651,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>561</v>
@@ -7654,7 +7664,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>515</v>
       </c>
@@ -7665,7 +7675,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>562</v>
@@ -7678,7 +7688,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>563</v>
@@ -7691,7 +7701,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>564</v>
@@ -7704,123 +7714,205 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26" t="s">
         <v>565</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29" t="s">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="30"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" s="23"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" s="23" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B45" s="20" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" s="25"/>
+      <c r="B45" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="D45" t="s">
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B46" s="20" t="s">
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" s="25"/>
+      <c r="B46" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B47" s="20" t="s">
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" s="25"/>
+      <c r="B47" s="26" t="s">
         <v>568</v>
       </c>
-      <c r="D47" t="s">
+      <c r="C47" s="8"/>
+      <c r="D47" s="8" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B48" s="20" t="s">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" s="25"/>
+      <c r="B48" s="26" t="s">
         <v>569</v>
       </c>
-      <c r="D48" t="s">
+      <c r="C48" s="8"/>
+      <c r="D48" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="20" t="s">
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" s="23"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" s="23" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="20" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" s="25"/>
+      <c r="B51" s="26" t="s">
         <v>570</v>
       </c>
-      <c r="D51" t="s">
+      <c r="C51" s="8"/>
+      <c r="D51" s="8" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="20" t="s">
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="20" t="s">
+      <c r="C52" s="8"/>
+      <c r="D52" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" s="23"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" s="23" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="20" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26" t="s">
         <v>571</v>
       </c>
-      <c r="D55" t="s">
+      <c r="C55" s="8"/>
+      <c r="D55" s="8" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="20" t="s">
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="20" t="s">
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B58" s="20" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="20" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="30"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B58" s="20"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B59" s="20"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="578">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3240,6 +3240,18 @@
   </si>
   <si>
     <t>문제이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양방향 탐색, 플루이드 와샬 두가지 방법으로 다 풀 수 있어야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3838,27 +3850,27 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3902,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -3914,7 +3926,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3932,7 +3944,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3950,7 +3962,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3971,7 +3983,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -3992,7 +4004,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4013,7 +4025,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4031,7 +4043,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4059,7 +4071,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4077,7 +4089,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4093,7 +4105,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4109,7 +4121,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4130,7 +4142,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4146,7 +4158,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4158,7 +4170,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4176,7 +4188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4202,7 +4214,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4220,7 +4232,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4238,7 +4250,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4256,7 +4268,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4277,7 +4289,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4293,7 +4305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4314,7 +4326,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4335,7 +4347,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4356,7 +4368,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -4382,7 +4394,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -4406,7 +4418,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4430,7 +4442,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4451,7 +4463,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -4472,7 +4484,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -4490,7 +4502,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -4511,7 +4523,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -4537,7 +4549,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4558,7 +4570,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4580,7 +4592,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4595,7 +4607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -4605,7 +4617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -4620,7 +4632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4635,7 +4647,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -4645,7 +4657,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -4660,7 +4672,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4675,7 +4687,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -4685,7 +4697,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -4700,7 +4712,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -4715,7 +4727,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -4725,7 +4737,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -4740,7 +4752,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -4750,7 +4762,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -4765,7 +4777,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -4775,7 +4787,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -4800,7 +4812,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -4815,7 +4827,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -4825,7 +4837,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -4851,7 +4863,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -4875,7 +4887,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -4889,7 +4901,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -4900,7 +4912,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -4921,7 +4933,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -4942,7 +4954,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -4960,7 +4972,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -4975,7 +4987,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -4993,7 +5005,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5011,7 +5023,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5032,7 +5044,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5053,7 +5065,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5074,7 +5086,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5098,7 +5110,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5116,7 +5128,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5134,7 +5146,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5145,7 +5157,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5169,7 +5181,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5193,25 +5205,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5232,22 +5244,22 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>278</v>
       </c>
@@ -5255,7 +5267,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5290,7 +5302,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>249</v>
       </c>
@@ -5298,7 +5310,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
@@ -5325,7 +5337,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
@@ -5342,7 +5354,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -5366,7 +5378,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5390,7 +5402,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -5411,7 +5423,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5432,7 +5444,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -5474,7 +5486,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -5495,7 +5507,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -5516,7 +5528,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -5537,7 +5549,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -5561,7 +5573,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -5582,7 +5594,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -5606,7 +5618,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -5630,7 +5642,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -5654,7 +5666,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -5675,7 +5687,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -5696,7 +5708,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -5710,7 +5722,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -5734,7 +5746,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -5748,7 +5760,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -5769,7 +5781,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -5793,7 +5805,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -5814,7 +5826,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -5838,7 +5850,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -5849,7 +5861,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -5873,7 +5885,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -5884,7 +5896,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -5908,7 +5920,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -5929,7 +5941,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -5953,7 +5965,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
@@ -5967,7 +5979,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
@@ -5985,7 +5997,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>253</v>
       </c>
@@ -5993,7 +6005,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>254</v>
       </c>
@@ -6001,7 +6013,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>255</v>
       </c>
@@ -6009,7 +6021,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>290</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
@@ -6035,7 +6047,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>294</v>
       </c>
@@ -6043,7 +6055,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>309</v>
       </c>
@@ -6061,7 +6073,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>307</v>
       </c>
@@ -6072,7 +6084,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>300</v>
       </c>
@@ -6090,7 +6102,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>301</v>
       </c>
@@ -6108,7 +6120,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>303</v>
       </c>
@@ -6126,7 +6138,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>308</v>
       </c>
@@ -6144,7 +6156,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
         <v>310</v>
       </c>
@@ -6155,7 +6167,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>312</v>
       </c>
@@ -6173,7 +6185,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>314</v>
       </c>
@@ -6191,7 +6203,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
@@ -6209,7 +6221,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>318</v>
       </c>
@@ -6227,7 +6239,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>320</v>
       </c>
@@ -6245,7 +6257,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>322</v>
       </c>
@@ -6253,7 +6265,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>323</v>
       </c>
@@ -6271,7 +6283,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>326</v>
       </c>
@@ -6289,7 +6301,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>327</v>
       </c>
@@ -6307,7 +6319,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>329</v>
       </c>
@@ -6325,7 +6337,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
         <v>331</v>
       </c>
@@ -6343,7 +6355,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>333</v>
       </c>
@@ -6357,7 +6369,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -6375,7 +6387,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>335</v>
       </c>
@@ -6393,7 +6405,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>337</v>
       </c>
@@ -6411,7 +6423,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
@@ -6429,7 +6441,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -6444,7 +6456,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
@@ -6462,7 +6474,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -6480,7 +6492,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>345</v>
       </c>
@@ -6498,7 +6510,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
@@ -6516,7 +6528,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
         <v>349</v>
       </c>
@@ -6534,7 +6546,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>355</v>
       </c>
@@ -6542,7 +6554,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>356</v>
       </c>
@@ -6550,7 +6562,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>357</v>
       </c>
@@ -6558,7 +6570,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>358</v>
       </c>
@@ -6566,7 +6578,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
         <v>359</v>
       </c>
@@ -6580,7 +6592,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>361</v>
       </c>
@@ -6598,7 +6610,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>363</v>
       </c>
@@ -6616,7 +6628,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>365</v>
       </c>
@@ -6634,7 +6646,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6646,7 +6658,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>366</v>
       </c>
@@ -6659,7 +6671,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>369</v>
       </c>
@@ -6677,7 +6689,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>371</v>
       </c>
@@ -6695,7 +6707,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6707,7 +6719,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>374</v>
       </c>
@@ -6725,7 +6737,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>376</v>
       </c>
@@ -6743,7 +6755,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6761,7 +6773,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
         <v>390</v>
       </c>
@@ -6775,7 +6787,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>391</v>
       </c>
@@ -6793,7 +6805,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>393</v>
       </c>
@@ -6811,7 +6823,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>395</v>
       </c>
@@ -6829,7 +6841,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>397</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>399</v>
       </c>
@@ -6865,7 +6877,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
@@ -6901,7 +6913,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6913,7 +6925,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
@@ -6931,7 +6943,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>407</v>
       </c>
@@ -6949,7 +6961,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
@@ -6967,7 +6979,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>411</v>
       </c>
@@ -6988,12 +7000,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
         <v>413</v>
       </c>
@@ -7011,7 +7023,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
@@ -7029,7 +7041,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>417</v>
       </c>
@@ -7037,7 +7049,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
         <v>418</v>
       </c>
@@ -7055,7 +7067,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7067,7 +7079,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
         <v>421</v>
       </c>
@@ -7085,7 +7097,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>423</v>
       </c>
@@ -7093,7 +7105,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>424</v>
       </c>
@@ -7111,7 +7123,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
@@ -7132,7 +7144,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>433</v>
       </c>
@@ -7143,12 +7155,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
@@ -7166,7 +7178,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
         <v>431</v>
       </c>
@@ -7187,7 +7199,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
         <v>487</v>
       </c>
@@ -7204,17 +7216,18 @@
   <dimension ref="A2:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="59" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>509</v>
       </c>
@@ -7235,7 +7248,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>510</v>
       </c>
@@ -7246,7 +7259,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>525</v>
@@ -7259,7 +7272,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>528</v>
@@ -7272,7 +7285,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>533</v>
@@ -7287,7 +7300,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>534</v>
@@ -7302,7 +7315,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7311,7 +7324,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>511</v>
       </c>
@@ -7322,7 +7335,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>535</v>
@@ -7335,7 +7348,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>536</v>
@@ -7348,7 +7361,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>537</v>
@@ -7361,7 +7374,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>538</v>
@@ -7374,7 +7387,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7383,7 +7396,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>512</v>
       </c>
@@ -7394,7 +7407,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>540</v>
@@ -7409,7 +7422,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>543</v>
@@ -7422,7 +7435,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>544</v>
@@ -7435,7 +7448,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7444,7 +7457,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>513</v>
       </c>
@@ -7455,7 +7468,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>545</v>
@@ -7468,7 +7481,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>546</v>
@@ -7481,7 +7494,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>547</v>
@@ -7494,7 +7507,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7503,7 +7516,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7512,7 +7525,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>514</v>
       </c>
@@ -7523,7 +7536,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>548</v>
@@ -7536,7 +7549,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>550</v>
@@ -7549,7 +7562,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>551</v>
@@ -7562,7 +7575,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7571,7 +7584,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>553</v>
       </c>
@@ -7584,7 +7597,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>555</v>
@@ -7597,7 +7610,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>556</v>
@@ -7610,7 +7623,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>557</v>
@@ -7625,7 +7638,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>558</v>
@@ -7638,7 +7651,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>559</v>
@@ -7651,7 +7664,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>561</v>
@@ -7664,7 +7677,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>515</v>
       </c>
@@ -7675,7 +7688,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>562</v>
@@ -7688,7 +7701,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>563</v>
@@ -7701,7 +7714,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>564</v>
@@ -7714,7 +7727,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>565</v>
@@ -7727,7 +7740,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7736,7 +7749,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>516</v>
       </c>
@@ -7747,7 +7760,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>566</v>
@@ -7760,7 +7773,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>567</v>
@@ -7773,7 +7786,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>568</v>
@@ -7786,7 +7799,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>569</v>
@@ -7799,7 +7812,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -7808,7 +7821,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>517</v>
       </c>
@@ -7819,7 +7832,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>570</v>
@@ -7828,11 +7841,13 @@
       <c r="D51" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>575</v>
+      </c>
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>518</v>
@@ -7845,7 +7860,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -7854,7 +7869,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>519</v>
       </c>
@@ -7865,7 +7880,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>571</v>
@@ -7878,18 +7893,22 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>520</v>
       </c>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>576</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>521</v>
@@ -7900,19 +7919,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
     <sheet name="DP" sheetId="2" r:id="rId2"/>
     <sheet name="프로그래머스 고득점" sheetId="3" r:id="rId3"/>
+    <sheet name="프로그래머스 일일문제풀이" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="588">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3252,6 +3253,46 @@
   </si>
   <si>
     <t>양방향 탐색, 플루이드 와샬 두가지 방법으로 다 풀 수 있어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 이름(번호)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>람다를 이용하여 풀어보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로또의 최고 순위와 최저 순위(77484)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열 압축(60057)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음엔 제일 앞에서 자를 필요가 없는 경우도 고려해야하는 줄 알고 풀었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외케이스 찾기가 어려웠다. 시간내에 풀 수 있었을까..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 기준으로 before를 확인하는 방식으로 했으면 좀더 쉬웠을 것이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3463,7 +3504,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3562,6 +3603,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7215,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7939,4 +7983,92 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="4" max="4" width="70.75" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>584</v>
+      </c>
+      <c r="D4" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="591">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3293,6 +3293,18 @@
   </si>
   <si>
     <t>현재 기준으로 before를 확인하는 방식으로 했으면 좀더 쉬웠을 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추석 트래픽(17676)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 정확히 인지하지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간내 못품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7987,10 +7999,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H5"/>
+  <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8066,6 +8078,20 @@
         <v>587</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E6" t="s">
+        <v>590</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="590">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3300,11 +3300,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문제 정확히 인지하지 못함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시간내 못품</t>
+    <t>처음에 문제 정확히 인지하지 못함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7271,8 +7267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8002,7 +7998,7 @@
   <dimension ref="A2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8088,8 +8084,8 @@
       <c r="D6" t="s">
         <v>589</v>
       </c>
-      <c r="E6" t="s">
-        <v>590</v>
+      <c r="E6" s="8" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="593">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3301,6 +3301,20 @@
   </si>
   <si>
     <t>처음에 문제 정확히 인지하지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 아이디 추천(72410)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적의 답으로 풀지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 자바 스럽게 구현해보자
+2. 정규식 찾을 시간이 아까워 그냥 풀었다.
+&gt;&gt; 이정도는 정규식을 인지하고 있는게 나은가 생각도 들었다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7995,10 +8009,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H6"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8088,6 +8102,20 @@
         <v>560</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>590</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>591</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="596">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3315,6 +3315,18 @@
     <t>1. 자바 스럽게 구현해보자
 2. 정규식 찾을 시간이 아까워 그냥 풀었다.
 &gt;&gt; 이정도는 정규식을 인지하고 있는게 나은가 생각도 들었다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오픈채팅방(42888)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라이언의 고민(1830)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8009,10 +8021,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H7"/>
+  <dimension ref="A2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8116,6 +8128,25 @@
         <v>591</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>593</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>595</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="601">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3327,6 +3327,26 @@
   </si>
   <si>
     <t>브라이언의 고민(1830)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LinkedHashMap으로 HashMap에서도 순서를 가질 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자 문자열과 영단어(81301)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오프렌즈 컬러링북(1829)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8021,10 +8041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H9"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8146,6 +8166,31 @@
       <c r="C9" t="s">
         <v>595</v>
       </c>
+      <c r="D9" t="s">
+        <v>597</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>600</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="602">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3347,6 +3347,10 @@
   </si>
   <si>
     <t>카카오프렌즈 컬러링북(1829)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8044,7 +8048,7 @@
   <dimension ref="A2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8191,6 +8195,9 @@
       <c r="C11" t="s">
         <v>600</v>
       </c>
+      <c r="E11" s="10" t="s">
+        <v>601</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="603">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3351,6 +3351,10 @@
   </si>
   <si>
     <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리틀 프렌즈 사천성(1836)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8045,10 +8049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H11"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8199,6 +8203,14 @@
         <v>601</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>602</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="605">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3355,6 +3355,14 @@
   </si>
   <si>
     <t>리틀 프렌즈 사천성(1836)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 걸렸지만 풀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람 정답이랑 비교는 안해봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8052,7 +8060,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8210,6 +8218,12 @@
       <c r="C12" t="s">
         <v>602</v>
       </c>
+      <c r="D12" t="s">
+        <v>604</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>603</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="607">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3363,6 +3363,14 @@
   </si>
   <si>
     <t>다른 사람 정답이랑 비교는 안해봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다단계 칫솔 판매(77486)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3964,27 +3972,27 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4016,7 +4024,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4040,7 +4048,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4058,7 +4066,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4076,7 +4084,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4097,7 +4105,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4118,7 +4126,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4139,7 +4147,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4157,7 +4165,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4185,7 +4193,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4203,7 +4211,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4219,7 +4227,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4235,7 +4243,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4256,7 +4264,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4272,7 +4280,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4284,7 +4292,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4302,7 +4310,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4328,7 +4336,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4364,7 +4372,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4382,7 +4390,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4403,7 +4411,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4419,7 +4427,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4461,7 +4469,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4482,7 +4490,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -4508,7 +4516,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -4532,7 +4540,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4556,7 +4564,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4577,7 +4585,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -4598,7 +4606,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -4616,7 +4624,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -4637,7 +4645,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -4663,7 +4671,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4684,7 +4692,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4706,7 +4714,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4721,7 +4729,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -4731,7 +4739,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,7 +4754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4761,7 +4769,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -4771,7 +4779,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -4786,7 +4794,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4801,7 +4809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -4811,7 +4819,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -4841,7 +4849,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -4851,7 +4859,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -4866,7 +4874,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -4876,7 +4884,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -4891,7 +4899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -4901,7 +4909,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -4916,7 +4924,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -4926,7 +4934,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -4941,7 +4949,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -4951,7 +4959,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -4977,7 +4985,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5001,7 +5009,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5026,7 +5034,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5047,7 +5055,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5068,7 +5076,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5086,7 +5094,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5101,7 +5109,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5119,7 +5127,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5137,7 +5145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5158,7 +5166,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5179,7 +5187,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5200,7 +5208,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5224,7 +5232,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5242,7 +5250,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5260,7 +5268,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5271,7 +5279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5295,7 +5303,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5319,25 +5327,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5358,22 +5366,22 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
         <v>278</v>
       </c>
@@ -5381,7 +5389,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5416,7 +5424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>249</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
@@ -5451,7 +5459,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
@@ -5468,7 +5476,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -5492,7 +5500,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5516,7 +5524,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -5537,7 +5545,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5558,7 +5566,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5579,7 +5587,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -5621,7 +5629,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -5642,7 +5650,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -5663,7 +5671,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -5687,7 +5695,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -5708,7 +5716,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -5732,7 +5740,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -5756,7 +5764,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -5780,7 +5788,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -5801,7 +5809,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -5822,7 +5830,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -5836,7 +5844,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -5860,7 +5868,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -5874,7 +5882,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -5919,7 +5927,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -5940,7 +5948,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -5964,7 +5972,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -5975,7 +5983,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -5999,7 +6007,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6010,7 +6018,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6034,7 +6042,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6055,7 +6063,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6079,7 +6087,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
@@ -6093,7 +6101,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
@@ -6111,7 +6119,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>253</v>
       </c>
@@ -6119,7 +6127,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
         <v>254</v>
       </c>
@@ -6127,7 +6135,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
         <v>255</v>
       </c>
@@ -6135,7 +6143,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H41" t="s">
         <v>290</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
@@ -6161,7 +6169,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>294</v>
       </c>
@@ -6169,7 +6177,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
         <v>309</v>
       </c>
@@ -6187,7 +6195,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E45" s="14" t="s">
         <v>307</v>
       </c>
@@ -6198,7 +6206,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
         <v>300</v>
       </c>
@@ -6216,7 +6224,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>301</v>
       </c>
@@ -6234,7 +6242,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>303</v>
       </c>
@@ -6252,7 +6260,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
         <v>308</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E50" s="14" t="s">
         <v>310</v>
       </c>
@@ -6281,7 +6289,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
         <v>312</v>
       </c>
@@ -6299,7 +6307,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>314</v>
       </c>
@@ -6317,7 +6325,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>318</v>
       </c>
@@ -6353,7 +6361,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E55" s="1" t="s">
         <v>320</v>
       </c>
@@ -6371,7 +6379,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>322</v>
       </c>
@@ -6379,7 +6387,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
         <v>323</v>
       </c>
@@ -6397,7 +6405,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
         <v>326</v>
       </c>
@@ -6415,7 +6423,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>327</v>
       </c>
@@ -6433,7 +6441,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E60" s="1" t="s">
         <v>329</v>
       </c>
@@ -6451,7 +6459,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E61" s="1" t="s">
         <v>331</v>
       </c>
@@ -6469,7 +6477,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D62" s="5" t="s">
         <v>333</v>
       </c>
@@ -6483,7 +6491,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -6501,7 +6509,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>335</v>
       </c>
@@ -6519,7 +6527,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
         <v>337</v>
       </c>
@@ -6537,7 +6545,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
@@ -6555,7 +6563,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -6570,7 +6578,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
@@ -6588,7 +6596,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -6606,7 +6614,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>345</v>
       </c>
@@ -6624,7 +6632,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
@@ -6642,7 +6650,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E72" s="1" t="s">
         <v>349</v>
       </c>
@@ -6660,7 +6668,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
         <v>355</v>
       </c>
@@ -6668,7 +6676,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
         <v>356</v>
       </c>
@@ -6676,7 +6684,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H75" t="s">
         <v>357</v>
       </c>
@@ -6684,7 +6692,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H76" t="s">
         <v>358</v>
       </c>
@@ -6692,7 +6700,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5" t="s">
         <v>359</v>
       </c>
@@ -6706,7 +6714,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
         <v>361</v>
       </c>
@@ -6724,7 +6732,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
         <v>363</v>
       </c>
@@ -6742,7 +6750,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>365</v>
       </c>
@@ -6760,7 +6768,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6772,7 +6780,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>366</v>
       </c>
@@ -6785,7 +6793,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>369</v>
       </c>
@@ -6803,7 +6811,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>371</v>
       </c>
@@ -6821,7 +6829,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6833,7 +6841,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>374</v>
       </c>
@@ -6851,7 +6859,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>376</v>
       </c>
@@ -6869,7 +6877,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6887,7 +6895,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D89" s="5" t="s">
         <v>390</v>
       </c>
@@ -6901,7 +6909,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>391</v>
       </c>
@@ -6919,7 +6927,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>393</v>
       </c>
@@ -6937,7 +6945,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>395</v>
       </c>
@@ -6955,7 +6963,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>397</v>
       </c>
@@ -6973,7 +6981,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>399</v>
       </c>
@@ -6991,7 +6999,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
@@ -7009,7 +7017,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
@@ -7027,7 +7035,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7039,7 +7047,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
@@ -7057,7 +7065,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>407</v>
       </c>
@@ -7075,7 +7083,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
@@ -7093,7 +7101,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>411</v>
       </c>
@@ -7114,12 +7122,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J102" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E103" s="1" t="s">
         <v>413</v>
       </c>
@@ -7137,7 +7145,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
@@ -7155,7 +7163,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H105" t="s">
         <v>417</v>
       </c>
@@ -7163,7 +7171,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E106" s="1" t="s">
         <v>418</v>
       </c>
@@ -7181,7 +7189,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7193,7 +7201,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>421</v>
       </c>
@@ -7211,7 +7219,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H109" t="s">
         <v>423</v>
       </c>
@@ -7219,7 +7227,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E110" s="1" t="s">
         <v>424</v>
       </c>
@@ -7237,7 +7245,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
@@ -7258,7 +7266,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>433</v>
       </c>
@@ -7269,12 +7277,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J113" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
@@ -7292,7 +7300,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E115" s="1" t="s">
         <v>431</v>
       </c>
@@ -7313,7 +7321,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J116" s="16" t="s">
         <v>487</v>
       </c>
@@ -7333,15 +7341,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>509</v>
       </c>
@@ -7362,7 +7370,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>510</v>
       </c>
@@ -7373,7 +7381,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>525</v>
@@ -7386,7 +7394,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>528</v>
@@ -7399,7 +7407,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>533</v>
@@ -7414,7 +7422,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>534</v>
@@ -7429,7 +7437,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7438,7 +7446,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>511</v>
       </c>
@@ -7449,7 +7457,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>535</v>
@@ -7462,7 +7470,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>536</v>
@@ -7475,7 +7483,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>537</v>
@@ -7488,7 +7496,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>538</v>
@@ -7501,7 +7509,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7510,7 +7518,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>512</v>
       </c>
@@ -7521,7 +7529,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>540</v>
@@ -7536,7 +7544,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>543</v>
@@ -7549,7 +7557,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>544</v>
@@ -7562,7 +7570,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7571,7 +7579,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>513</v>
       </c>
@@ -7582,7 +7590,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>545</v>
@@ -7595,7 +7603,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>546</v>
@@ -7608,7 +7616,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>547</v>
@@ -7621,7 +7629,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7630,7 +7638,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7639,7 +7647,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
         <v>514</v>
       </c>
@@ -7650,7 +7658,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>548</v>
@@ -7663,7 +7671,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>550</v>
@@ -7676,7 +7684,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>551</v>
@@ -7689,7 +7697,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7698,7 +7706,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
         <v>553</v>
       </c>
@@ -7711,7 +7719,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>555</v>
@@ -7724,7 +7732,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>556</v>
@@ -7737,7 +7745,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>557</v>
@@ -7752,7 +7760,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>558</v>
@@ -7765,7 +7773,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>559</v>
@@ -7778,7 +7786,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>561</v>
@@ -7791,7 +7799,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>515</v>
       </c>
@@ -7802,7 +7810,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>562</v>
@@ -7815,7 +7823,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>563</v>
@@ -7828,7 +7836,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>564</v>
@@ -7841,7 +7849,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>565</v>
@@ -7854,7 +7862,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7863,7 +7871,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="s">
         <v>516</v>
       </c>
@@ -7874,7 +7882,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>566</v>
@@ -7887,7 +7895,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>567</v>
@@ -7900,7 +7908,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>568</v>
@@ -7913,7 +7921,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>569</v>
@@ -7926,7 +7934,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -7935,7 +7943,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="s">
         <v>517</v>
       </c>
@@ -7946,7 +7954,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>570</v>
@@ -7961,7 +7969,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>518</v>
@@ -7974,7 +7982,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -7983,7 +7991,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="s">
         <v>519</v>
       </c>
@@ -7994,7 +8002,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>571</v>
@@ -8007,7 +8015,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>520</v>
@@ -8022,7 +8030,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>521</v>
@@ -8033,19 +8041,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8057,22 +8065,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.08203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>580</v>
       </c>
@@ -8096,7 +8104,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="26">
         <v>1</v>
@@ -8114,7 +8122,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8128,7 +8136,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>585</v>
       </c>
@@ -8136,7 +8144,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8150,7 +8158,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8164,7 +8172,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8175,7 +8183,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8189,7 +8197,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8200,7 +8208,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8211,7 +8219,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8223,6 +8231,17 @@
       </c>
       <c r="E12" s="10" t="s">
         <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>605</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="613">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3371,6 +3371,30 @@
   </si>
   <si>
     <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if(prev==0)prev=10 &lt;&lt; 이거 하나 실수로 넣어서 테스트 케이스 완벽통과를 못해서 고생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간내 테스트 케이스 찾지 못함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키패드 누르기(67256)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 숫자 더하기(86051)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체사진 찍기(1835)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3972,27 +3996,27 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4024,7 +4048,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4048,7 +4072,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4066,7 +4090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4084,7 +4108,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4105,7 +4129,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4126,7 +4150,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4147,7 +4171,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4165,7 +4189,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4193,7 +4217,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4211,7 +4235,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4227,7 +4251,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4243,7 +4267,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4264,7 +4288,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4280,7 +4304,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4292,7 +4316,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4310,7 +4334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4336,7 +4360,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4354,7 +4378,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4372,7 +4396,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4390,7 +4414,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4411,7 +4435,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4427,7 +4451,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4448,7 +4472,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4469,7 +4493,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4490,7 +4514,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -4516,7 +4540,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -4540,7 +4564,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4564,7 +4588,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4585,7 +4609,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -4606,7 +4630,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -4624,7 +4648,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -4645,7 +4669,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -4671,7 +4695,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4692,7 +4716,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4714,7 +4738,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4729,7 +4753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -4739,7 +4763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -4754,7 +4778,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4769,7 +4793,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -4779,7 +4803,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -4794,7 +4818,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4809,7 +4833,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -4819,7 +4843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -4834,7 +4858,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -4849,7 +4873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -4859,7 +4883,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -4874,7 +4898,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -4884,7 +4908,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -4899,7 +4923,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -4909,7 +4933,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -4924,7 +4948,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -4934,7 +4958,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -4949,7 +4973,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -4959,7 +4983,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -4985,7 +5009,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5009,7 +5033,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5023,7 +5047,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5034,7 +5058,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5055,7 +5079,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5076,7 +5100,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5094,7 +5118,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5109,7 +5133,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5127,7 +5151,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5145,7 +5169,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5166,7 +5190,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5187,7 +5211,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5208,7 +5232,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5232,7 +5256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5250,7 +5274,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5268,7 +5292,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5279,7 +5303,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5303,7 +5327,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5327,25 +5351,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5366,22 +5390,22 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>278</v>
       </c>
@@ -5389,7 +5413,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5424,7 +5448,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>249</v>
       </c>
@@ -5432,7 +5456,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
@@ -5459,7 +5483,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
@@ -5476,7 +5500,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -5500,7 +5524,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5524,7 +5548,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -5545,7 +5569,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5566,7 +5590,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5587,7 +5611,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -5608,7 +5632,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -5629,7 +5653,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -5650,7 +5674,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -5671,7 +5695,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -5695,7 +5719,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -5716,7 +5740,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -5740,7 +5764,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -5764,7 +5788,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -5788,7 +5812,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -5809,7 +5833,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -5830,7 +5854,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -5844,7 +5868,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -5868,7 +5892,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -5882,7 +5906,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -5903,7 +5927,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -5927,7 +5951,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -5948,7 +5972,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -5972,7 +5996,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -5983,7 +6007,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -6007,7 +6031,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6018,7 +6042,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6042,7 +6066,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6063,7 +6087,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6087,7 +6111,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
@@ -6101,7 +6125,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
@@ -6119,7 +6143,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>253</v>
       </c>
@@ -6127,7 +6151,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>254</v>
       </c>
@@ -6135,7 +6159,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>255</v>
       </c>
@@ -6143,7 +6167,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>290</v>
       </c>
@@ -6151,7 +6175,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
@@ -6169,7 +6193,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>294</v>
       </c>
@@ -6177,7 +6201,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>309</v>
       </c>
@@ -6195,7 +6219,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>307</v>
       </c>
@@ -6206,7 +6230,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>300</v>
       </c>
@@ -6224,7 +6248,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>301</v>
       </c>
@@ -6242,7 +6266,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>303</v>
       </c>
@@ -6260,7 +6284,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>308</v>
       </c>
@@ -6278,7 +6302,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
         <v>310</v>
       </c>
@@ -6289,7 +6313,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>312</v>
       </c>
@@ -6307,7 +6331,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>314</v>
       </c>
@@ -6325,7 +6349,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
@@ -6343,7 +6367,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>318</v>
       </c>
@@ -6361,7 +6385,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>320</v>
       </c>
@@ -6379,7 +6403,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>322</v>
       </c>
@@ -6387,7 +6411,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>323</v>
       </c>
@@ -6405,7 +6429,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>326</v>
       </c>
@@ -6423,7 +6447,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>327</v>
       </c>
@@ -6441,7 +6465,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>329</v>
       </c>
@@ -6459,7 +6483,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
         <v>331</v>
       </c>
@@ -6477,7 +6501,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>333</v>
       </c>
@@ -6491,7 +6515,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -6509,7 +6533,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>335</v>
       </c>
@@ -6527,7 +6551,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>337</v>
       </c>
@@ -6545,7 +6569,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
@@ -6563,7 +6587,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -6578,7 +6602,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
@@ -6596,7 +6620,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -6614,7 +6638,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>345</v>
       </c>
@@ -6632,7 +6656,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
@@ -6650,7 +6674,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
         <v>349</v>
       </c>
@@ -6668,7 +6692,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>355</v>
       </c>
@@ -6676,7 +6700,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>356</v>
       </c>
@@ -6684,7 +6708,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>357</v>
       </c>
@@ -6692,7 +6716,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>358</v>
       </c>
@@ -6700,7 +6724,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
         <v>359</v>
       </c>
@@ -6714,7 +6738,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>361</v>
       </c>
@@ -6732,7 +6756,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>363</v>
       </c>
@@ -6750,7 +6774,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>365</v>
       </c>
@@ -6768,7 +6792,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6780,7 +6804,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>366</v>
       </c>
@@ -6793,7 +6817,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>369</v>
       </c>
@@ -6811,7 +6835,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>371</v>
       </c>
@@ -6829,7 +6853,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6841,7 +6865,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>374</v>
       </c>
@@ -6859,7 +6883,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>376</v>
       </c>
@@ -6877,7 +6901,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
         <v>378</v>
       </c>
@@ -6895,7 +6919,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
         <v>390</v>
       </c>
@@ -6909,7 +6933,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>391</v>
       </c>
@@ -6927,7 +6951,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>393</v>
       </c>
@@ -6945,7 +6969,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>395</v>
       </c>
@@ -6963,7 +6987,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>397</v>
       </c>
@@ -6981,7 +7005,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>399</v>
       </c>
@@ -6999,7 +7023,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
@@ -7017,7 +7041,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
@@ -7035,7 +7059,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7047,7 +7071,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
@@ -7065,7 +7089,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>407</v>
       </c>
@@ -7083,7 +7107,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
@@ -7101,7 +7125,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>411</v>
       </c>
@@ -7122,12 +7146,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
         <v>413</v>
       </c>
@@ -7145,7 +7169,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
@@ -7163,7 +7187,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>417</v>
       </c>
@@ -7171,7 +7195,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
         <v>418</v>
       </c>
@@ -7189,7 +7213,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7201,7 +7225,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
         <v>421</v>
       </c>
@@ -7219,7 +7243,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>423</v>
       </c>
@@ -7227,7 +7251,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>424</v>
       </c>
@@ -7245,7 +7269,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
@@ -7266,7 +7290,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>433</v>
       </c>
@@ -7277,12 +7301,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
@@ -7300,7 +7324,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
         <v>431</v>
       </c>
@@ -7321,7 +7345,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
         <v>487</v>
       </c>
@@ -7341,15 +7365,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>509</v>
       </c>
@@ -7370,7 +7394,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>510</v>
       </c>
@@ -7381,7 +7405,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>525</v>
@@ -7394,7 +7418,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>528</v>
@@ -7407,7 +7431,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>533</v>
@@ -7422,7 +7446,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>534</v>
@@ -7437,7 +7461,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7446,7 +7470,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>511</v>
       </c>
@@ -7457,7 +7481,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>535</v>
@@ -7470,7 +7494,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>536</v>
@@ -7483,7 +7507,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>537</v>
@@ -7496,7 +7520,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>538</v>
@@ -7509,7 +7533,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7518,7 +7542,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>512</v>
       </c>
@@ -7529,7 +7553,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>540</v>
@@ -7544,7 +7568,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>543</v>
@@ -7557,7 +7581,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>544</v>
@@ -7570,7 +7594,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7579,7 +7603,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>513</v>
       </c>
@@ -7590,7 +7614,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>545</v>
@@ -7603,7 +7627,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>546</v>
@@ -7616,7 +7640,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>547</v>
@@ -7629,7 +7653,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7638,7 +7662,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7647,7 +7671,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>514</v>
       </c>
@@ -7658,7 +7682,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>548</v>
@@ -7671,7 +7695,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>550</v>
@@ -7684,7 +7708,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>551</v>
@@ -7697,7 +7721,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7706,7 +7730,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>553</v>
       </c>
@@ -7719,7 +7743,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>555</v>
@@ -7732,7 +7756,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>556</v>
@@ -7745,7 +7769,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>557</v>
@@ -7760,7 +7784,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>558</v>
@@ -7773,7 +7797,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>559</v>
@@ -7786,7 +7810,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>561</v>
@@ -7799,7 +7823,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>515</v>
       </c>
@@ -7810,7 +7834,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>562</v>
@@ -7823,7 +7847,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>563</v>
@@ -7836,7 +7860,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>564</v>
@@ -7849,7 +7873,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>565</v>
@@ -7862,7 +7886,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7871,7 +7895,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>516</v>
       </c>
@@ -7882,7 +7906,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>566</v>
@@ -7895,7 +7919,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>567</v>
@@ -7908,7 +7932,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>568</v>
@@ -7921,7 +7945,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>569</v>
@@ -7934,7 +7958,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -7943,7 +7967,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>517</v>
       </c>
@@ -7954,7 +7978,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>570</v>
@@ -7969,7 +7993,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>518</v>
@@ -7982,7 +8006,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -7991,7 +8015,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>519</v>
       </c>
@@ -8002,7 +8026,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>571</v>
@@ -8015,7 +8039,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>520</v>
@@ -8030,7 +8054,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>521</v>
@@ -8041,19 +8065,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8065,22 +8089,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H13"/>
+  <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.08203125" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>580</v>
       </c>
@@ -8104,7 +8128,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="26">
         <v>1</v>
@@ -8122,7 +8146,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8136,7 +8160,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>585</v>
       </c>
@@ -8144,7 +8168,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8158,7 +8182,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8172,7 +8196,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8183,7 +8207,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8197,7 +8221,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8208,7 +8232,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8219,7 +8243,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8233,7 +8257,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -8242,6 +8266,39 @@
       </c>
       <c r="E13" s="10" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" t="s">
+        <v>607</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>610</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="615">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3395,6 +3395,14 @@
   </si>
   <si>
     <t>단체사진 찍기(1835)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차분하게 생각하면 풀었을것 같은데,,, 지레겁먹고 포기함,,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8092,7 +8100,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8300,6 +8308,12 @@
       <c r="C16" t="s">
         <v>612</v>
       </c>
+      <c r="D16" t="s">
+        <v>614</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>613</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="616">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3402,7 +3402,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차분하게 생각하면 풀었을것 같은데,,, 지레겁먹고 포기함,,</t>
+    <t>이 사진에 낚에서 중복순서 허용하는줄 알았다…ㅡㅡ
+재귀로 풀면 되는데 처음에 지레 겁먹어서 힌트를 먼저 봐버렸다ㅜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3614,7 +3619,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3717,6 +3722,9 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3733,6 +3741,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>590550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2771775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>2018242</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7477125" y="4152900"/>
+          <a:ext cx="2705100" cy="1427692"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8099,8 +8150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8301,23 +8352,27 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
         <v>612</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="34" t="s">
         <v>614</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>613</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="619">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3408,6 +3408,19 @@
   </si>
   <si>
     <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀쩡한 사각형(62048)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(x+1, y), (y+1,x) 기울기를 체크하여 문제를 풀었더니 성능테스트에서 걸림
+브레즌햄 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능 못통과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8148,10 +8161,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H16"/>
+  <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8369,6 +8382,20 @@
         <v>615</v>
       </c>
     </row>
+    <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>616</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>618</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -3415,12 +3415,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>성능 못통과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(x+1, y), (y+1,x) 기울기를 체크하여 문제를 풀었더니 성능테스트에서 걸림
-브레즌햄 알고리즘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성능 못통과</t>
+브레즌햄 알고리즘
+1. 최소 직사각형으로 푸는 경우
+minW+minM-1 (가로와 세로 동시에 통과하는 부분이 1개이다.)
+2. BigInteger에 GCD 함수가 있는걸 첨 알았다. 유용하게 쓸 수 있을 것 같다.
+대각선의 길이  =가로 + 세로 - 가로세로의 최대공약수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8164,7 +8168,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8382,7 +8386,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="132" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8390,10 +8394,10 @@
         <v>616</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>617</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="622">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3425,6 +3425,19 @@
 minW+minM-1 (가로와 세로 동시에 통과하는 부분이 1개이다.)
 2. BigInteger에 GCD 함수가 있는걸 첨 알았다. 유용하게 쓸 수 있을 것 같다.
 대각선의 길이  =가로 + 세로 - 가로세로의 최대공약수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124 나라의 숫자(12899)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3진수로 접근하는건 알았는데 n-1/3 처리를 못찾아냄
+sb.insert 함수로 prepend 처리가 가능하다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8165,10 +8178,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H17"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8400,6 +8413,20 @@
         <v>617</v>
       </c>
     </row>
+    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>619</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>620</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="624">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3438,6 +3438,14 @@
   <si>
     <t>3진수로 접근하는건 알았는데 n-1/3 처리를 못찾아냄
 sb.insert 함수로 prepend 처리가 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짝지어 제거하기(12973)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능 못통과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8178,10 +8186,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8427,6 +8435,17 @@
         <v>620</v>
       </c>
     </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>622</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>623</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="625">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3446,6 +3446,10 @@
   </si>
   <si>
     <t>성능 못통과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택으로 풀면 간단한걸 순간 생각 못하고 힌트 봐버렸다..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8189,7 +8193,7 @@
   <dimension ref="A2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8442,6 +8446,9 @@
       <c r="C19" t="s">
         <v>622</v>
       </c>
+      <c r="D19" t="s">
+        <v>624</v>
+      </c>
       <c r="E19" s="10" t="s">
         <v>623</v>
       </c>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="627">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3449,7 +3449,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스택으로 풀면 간단한걸 순간 생각 못하고 힌트 봐버렸다..</t>
+    <t>음양 더하기(76501)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택으로 풀면 간단한걸 순간 생각못함,, 게다가 힌트 봐버렸다..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8190,10 +8198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H19"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8447,10 +8455,21 @@
         <v>622</v>
       </c>
       <c r="D19" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>623</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>624</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>625</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="630">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3458,6 +3458,18 @@
   </si>
   <si>
     <t>스택으로 풀면 간단한걸 순간 생각못함,, 게다가 힌트 봐버렸다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자물쇠와 열쇠(60059)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간내 못풀었을듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각형 가장자리를 포함하는 배열을 만드는 아이디어를 봤다..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8198,9 +8210,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -8472,6 +8484,23 @@
         <v>625</v>
       </c>
     </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>627</v>
+      </c>
+      <c r="D21" t="s">
+        <v>629</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="10"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -3469,7 +3469,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사각형 가장자리를 포함하는 배열을 만드는 아이디어를 봤다..</t>
+    <t>사각형 가장자리를 포함하는 배열을 만드는 아이디어를 봤다..
+회전에 관련된 아이디어도 봤다..
+int[][] array clone 함수는 오류가 있다. 다음엔 쓰지말자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8213,7 +8215,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8484,14 +8486,14 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
       <c r="C21" t="s">
         <v>627</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="4" t="s">
         <v>629</v>
       </c>
       <c r="E21" s="10" t="s">

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="633">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3472,6 +3472,18 @@
     <t>사각형 가장자리를 포함하는 배열을 만드는 아이디어를 봤다..
 회전에 관련된 아이디어도 봤다..
 int[][] array clone 함수는 오류가 있다. 다음엔 쓰지말자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내적(70128)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행렬 테두리 회전하기(77485)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8212,10 +8224,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8501,7 +8513,23 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E22" s="10"/>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>630</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>632</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="636">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3484,6 +3484,19 @@
   </si>
   <si>
     <t>행렬 테두리 회전하기(77485)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간내에 풀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크기 비교를 PQ를 사용하는 것도 괜찮을 것 같다.
+디렉션 변수와 dx, dy 배열을 사용하면 한번의 while문으로 처리 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 셔틀버스(17678)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8224,10 +8237,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8523,12 +8536,26 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>632</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="637">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3497,6 +3497,11 @@
   </si>
   <si>
     <t>[1차] 셔틀버스(17678)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번 읽어봤는데 문제가 이해가 안간다
+앱출력 예제중 2번, 6번 이해가 안간다;;;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8240,7 +8245,7 @@
   <dimension ref="A2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8550,12 +8555,15 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
         <v>635</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="639">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3502,6 +3502,14 @@
   <si>
     <t>두번 읽어봤는데 문제가 이해가 안간다
 앱출력 예제중 2번, 6번 이해가 안간다;;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수 만들기(12977)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차 구현 성능 막힘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8242,10 +8250,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8555,14 +8563,25 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>637</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>635</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>636</v>
       </c>
     </row>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="639">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3509,7 +3509,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1차 구현 성능 막힘</t>
+    <t>3중포문으로 문제 풀 수 있다.
+Combination 구현하는걸 알아보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8253,7 +8254,7 @@
   <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I25" sqref="I24:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8563,15 +8564,18 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>637</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>638</v>
+      </c>
       <c r="E24" s="10" t="s">
-        <v>638</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.3">

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="640">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3500,17 +3500,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>두번 읽어봤는데 문제가 이해가 안간다
-앱출력 예제중 2번, 6번 이해가 안간다;;;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>소수 만들기(12977)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3중포문으로 문제 풀 수 있다.
 Combination 구현하는걸 알아보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 이해했다는 가정하에 시간내에 풀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">두번 읽어봤는데 문제가 이해가 안간다
+앱출력 예제중 2번, 6번 이해가 안간다;;;
+&gt;&gt; 문제 이해가 좀 헷갈렷지만 이해만 하면 어렵지 않다.
+19번 테스트케이스만 통과가 안된다… 이유가 뭘까?ㅜㅜ
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4158,27 +4165,27 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4210,7 +4217,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4234,7 +4241,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4252,7 +4259,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4270,7 +4277,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4291,7 +4298,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4312,7 +4319,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4333,7 +4340,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4351,7 +4358,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4379,7 +4386,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4413,7 +4420,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4429,7 +4436,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4450,7 +4457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4466,7 +4473,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4478,7 +4485,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4496,7 +4503,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4522,7 +4529,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4540,7 +4547,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4558,7 +4565,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4576,7 +4583,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4597,7 +4604,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4613,7 +4620,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4634,7 +4641,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4655,7 +4662,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4676,7 +4683,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -4702,7 +4709,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -4726,7 +4733,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4750,7 +4757,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4771,7 +4778,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -4792,7 +4799,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -4810,7 +4817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -4831,7 +4838,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -4857,7 +4864,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4878,7 +4885,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4900,7 +4907,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4915,7 +4922,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -4925,7 +4932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -4940,7 +4947,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4955,7 +4962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -4965,7 +4972,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -4980,7 +4987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -4995,7 +5002,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -5005,7 +5012,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -5020,7 +5027,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -5045,7 +5052,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -5060,7 +5067,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -5070,7 +5077,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -5085,7 +5092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -5095,7 +5102,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -5110,7 +5117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -5120,7 +5127,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -5135,7 +5142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -5145,7 +5152,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -5171,7 +5178,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5195,7 +5202,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5209,7 +5216,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5220,7 +5227,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5241,7 +5248,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5262,7 +5269,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5280,7 +5287,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5295,7 +5302,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5313,7 +5320,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5331,7 +5338,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5352,7 +5359,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5373,7 +5380,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5394,7 +5401,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5454,7 +5461,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5465,7 +5472,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5489,7 +5496,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5513,25 +5520,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5552,22 +5559,22 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
         <v>278</v>
       </c>
@@ -5575,7 +5582,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5610,7 +5617,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>249</v>
       </c>
@@ -5618,7 +5625,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
@@ -5645,7 +5652,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
@@ -5662,7 +5669,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -5686,7 +5693,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5710,7 +5717,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5752,7 +5759,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5773,7 +5780,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -5794,7 +5801,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -5836,7 +5843,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -5857,7 +5864,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -5881,7 +5888,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -5902,7 +5909,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -5926,7 +5933,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -5950,7 +5957,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -5974,7 +5981,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -5995,7 +6002,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6016,7 +6023,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -6030,7 +6037,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -6054,7 +6061,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -6068,7 +6075,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -6089,7 +6096,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -6113,7 +6120,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -6134,7 +6141,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -6158,7 +6165,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -6169,7 +6176,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -6193,7 +6200,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6204,7 +6211,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6228,7 +6235,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6249,7 +6256,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6273,7 +6280,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
@@ -6287,7 +6294,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
@@ -6305,7 +6312,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>253</v>
       </c>
@@ -6313,7 +6320,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
         <v>254</v>
       </c>
@@ -6321,7 +6328,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
         <v>255</v>
       </c>
@@ -6329,7 +6336,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H41" t="s">
         <v>290</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
@@ -6355,7 +6362,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>294</v>
       </c>
@@ -6363,7 +6370,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
         <v>309</v>
       </c>
@@ -6381,7 +6388,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E45" s="14" t="s">
         <v>307</v>
       </c>
@@ -6392,7 +6399,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
         <v>300</v>
       </c>
@@ -6410,7 +6417,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>301</v>
       </c>
@@ -6428,7 +6435,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>303</v>
       </c>
@@ -6446,7 +6453,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
         <v>308</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E50" s="14" t="s">
         <v>310</v>
       </c>
@@ -6475,7 +6482,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
         <v>312</v>
       </c>
@@ -6493,7 +6500,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>314</v>
       </c>
@@ -6511,7 +6518,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
@@ -6529,7 +6536,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>318</v>
       </c>
@@ -6547,7 +6554,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E55" s="1" t="s">
         <v>320</v>
       </c>
@@ -6565,7 +6572,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>322</v>
       </c>
@@ -6573,7 +6580,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
         <v>323</v>
       </c>
@@ -6591,7 +6598,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
         <v>326</v>
       </c>
@@ -6609,7 +6616,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>327</v>
       </c>
@@ -6627,7 +6634,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E60" s="1" t="s">
         <v>329</v>
       </c>
@@ -6645,7 +6652,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E61" s="1" t="s">
         <v>331</v>
       </c>
@@ -6663,7 +6670,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D62" s="5" t="s">
         <v>333</v>
       </c>
@@ -6677,7 +6684,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -6695,7 +6702,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>335</v>
       </c>
@@ -6713,7 +6720,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
         <v>337</v>
       </c>
@@ -6731,7 +6738,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
@@ -6749,7 +6756,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -6764,7 +6771,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
@@ -6782,7 +6789,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -6800,7 +6807,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>345</v>
       </c>
@@ -6818,7 +6825,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
@@ -6836,7 +6843,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E72" s="1" t="s">
         <v>349</v>
       </c>
@@ -6854,7 +6861,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
         <v>355</v>
       </c>
@@ -6862,7 +6869,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
         <v>356</v>
       </c>
@@ -6870,7 +6877,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H75" t="s">
         <v>357</v>
       </c>
@@ -6878,7 +6885,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H76" t="s">
         <v>358</v>
       </c>
@@ -6886,7 +6893,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5" t="s">
         <v>359</v>
       </c>
@@ -6900,7 +6907,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
         <v>361</v>
       </c>
@@ -6918,7 +6925,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
         <v>363</v>
       </c>
@@ -6936,7 +6943,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>365</v>
       </c>
@@ -6954,7 +6961,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -6966,7 +6973,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>366</v>
       </c>
@@ -6979,7 +6986,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>369</v>
       </c>
@@ -6997,7 +7004,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>371</v>
       </c>
@@ -7015,7 +7022,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7027,7 +7034,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>374</v>
       </c>
@@ -7045,7 +7052,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>376</v>
       </c>
@@ -7063,7 +7070,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E88" s="1" t="s">
         <v>378</v>
       </c>
@@ -7081,7 +7088,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D89" s="5" t="s">
         <v>390</v>
       </c>
@@ -7095,7 +7102,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>391</v>
       </c>
@@ -7113,7 +7120,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>393</v>
       </c>
@@ -7131,7 +7138,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>395</v>
       </c>
@@ -7149,7 +7156,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>397</v>
       </c>
@@ -7167,7 +7174,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>399</v>
       </c>
@@ -7185,7 +7192,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
@@ -7203,7 +7210,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
@@ -7221,7 +7228,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7233,7 +7240,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
@@ -7251,7 +7258,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>407</v>
       </c>
@@ -7269,7 +7276,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
@@ -7287,7 +7294,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>411</v>
       </c>
@@ -7308,12 +7315,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J102" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E103" s="1" t="s">
         <v>413</v>
       </c>
@@ -7331,7 +7338,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
@@ -7349,7 +7356,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H105" t="s">
         <v>417</v>
       </c>
@@ -7357,7 +7364,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E106" s="1" t="s">
         <v>418</v>
       </c>
@@ -7375,7 +7382,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7387,7 +7394,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>421</v>
       </c>
@@ -7405,7 +7412,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H109" t="s">
         <v>423</v>
       </c>
@@ -7413,7 +7420,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E110" s="1" t="s">
         <v>424</v>
       </c>
@@ -7431,7 +7438,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
@@ -7452,7 +7459,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>433</v>
       </c>
@@ -7463,12 +7470,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J113" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
@@ -7486,7 +7493,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E115" s="1" t="s">
         <v>431</v>
       </c>
@@ -7507,7 +7514,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J116" s="16" t="s">
         <v>487</v>
       </c>
@@ -7527,15 +7534,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>509</v>
       </c>
@@ -7556,7 +7563,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>510</v>
       </c>
@@ -7567,7 +7574,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>525</v>
@@ -7580,7 +7587,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>528</v>
@@ -7593,7 +7600,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>533</v>
@@ -7608,7 +7615,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>534</v>
@@ -7623,7 +7630,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7632,7 +7639,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>511</v>
       </c>
@@ -7643,7 +7650,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>535</v>
@@ -7656,7 +7663,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>536</v>
@@ -7669,7 +7676,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>537</v>
@@ -7682,7 +7689,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>538</v>
@@ -7695,7 +7702,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7704,7 +7711,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>512</v>
       </c>
@@ -7715,7 +7722,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>540</v>
@@ -7730,7 +7737,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>543</v>
@@ -7743,7 +7750,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>544</v>
@@ -7756,7 +7763,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7765,7 +7772,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>513</v>
       </c>
@@ -7776,7 +7783,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>545</v>
@@ -7789,7 +7796,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>546</v>
@@ -7802,7 +7809,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>547</v>
@@ -7815,7 +7822,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7824,7 +7831,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7833,7 +7840,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
         <v>514</v>
       </c>
@@ -7844,7 +7851,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>548</v>
@@ -7857,7 +7864,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>550</v>
@@ -7870,7 +7877,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>551</v>
@@ -7883,7 +7890,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7892,7 +7899,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
         <v>553</v>
       </c>
@@ -7905,7 +7912,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>555</v>
@@ -7918,7 +7925,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>556</v>
@@ -7931,7 +7938,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>557</v>
@@ -7946,7 +7953,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>558</v>
@@ -7959,7 +7966,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>559</v>
@@ -7972,7 +7979,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>561</v>
@@ -7985,7 +7992,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>515</v>
       </c>
@@ -7996,7 +8003,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>562</v>
@@ -8009,7 +8016,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>563</v>
@@ -8022,7 +8029,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>564</v>
@@ -8035,7 +8042,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>565</v>
@@ -8048,7 +8055,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8057,7 +8064,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="s">
         <v>516</v>
       </c>
@@ -8068,7 +8075,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>566</v>
@@ -8081,7 +8088,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>567</v>
@@ -8094,7 +8101,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>568</v>
@@ -8107,7 +8114,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>569</v>
@@ -8120,7 +8127,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8129,7 +8136,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="s">
         <v>517</v>
       </c>
@@ -8140,7 +8147,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>570</v>
@@ -8155,7 +8162,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>518</v>
@@ -8168,7 +8175,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8177,7 +8184,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="s">
         <v>519</v>
       </c>
@@ -8188,7 +8195,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>571</v>
@@ -8201,7 +8208,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>520</v>
@@ -8216,7 +8223,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>521</v>
@@ -8227,19 +8234,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8253,20 +8260,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I24:I25"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="27.08203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>580</v>
       </c>
@@ -8290,7 +8297,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="23"/>
       <c r="B3" s="26">
         <v>1</v>
@@ -8308,7 +8315,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8322,7 +8329,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>585</v>
       </c>
@@ -8330,7 +8337,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8344,7 +8351,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8358,7 +8365,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8369,7 +8376,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8383,7 +8390,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8394,7 +8401,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8405,7 +8412,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8419,7 +8426,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>3</v>
       </c>
@@ -8430,7 +8437,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>1</v>
       </c>
@@ -8444,7 +8451,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>1</v>
       </c>
@@ -8455,7 +8462,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>2</v>
       </c>
@@ -8472,7 +8479,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" ht="136" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8486,7 +8493,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>2</v>
       </c>
@@ -8500,7 +8507,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8514,7 +8521,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1</v>
       </c>
@@ -8525,7 +8532,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="51" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8539,7 +8546,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>1</v>
       </c>
@@ -8550,7 +8557,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>2</v>
       </c>
@@ -8564,21 +8571,21 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>636</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>637</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>638</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="85" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>3</v>
       </c>
@@ -8586,7 +8593,10 @@
         <v>635</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>636</v>
+        <v>639</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="642">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3509,15 +3509,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문제 이해했다는 가정하에 시간내에 풀음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">두번 읽어봤는데 문제가 이해가 안간다
 앱출력 예제중 2번, 6번 이해가 안간다;;;
 &gt;&gt; 문제 이해가 좀 헷갈렷지만 이해만 하면 어렵지 않다.
 19번 테스트케이스만 통과가 안된다… 이유가 뭘까?ㅜㅜ
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 이해했다는 가정하에 19번 케이스 못찾고 시간내에 풀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 비밀지도(17681)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대한 빨리 풀어봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8258,10 +8266,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H25"/>
+  <dimension ref="A2:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8593,10 +8601,21 @@
         <v>635</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>638</v>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="646">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3509,19 +3509,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">두번 읽어봤는데 문제가 이해가 안간다
+    <t>문제 이해했다는 가정하에 19번 케이스 못찾고 시간내에 풀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대한 빨리 풀어봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번 읽어봤는데 문제가 이해가 안간다
 앱출력 예제중 2번, 6번 이해가 안간다;;;
 &gt;&gt; 문제 이해가 좀 헷갈렷지만 이해만 하면 어렵지 않다.
-19번 테스트케이스만 통과가 안된다… 이유가 뭘까?ㅜㅜ
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>문제 이해했다는 가정하에 19번 케이스 못찾고 시간내에 풀음</t>
+19번 테스트케이스만 통과가 안된다… 이유가 뭘까?ㅜㅜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int 변수끼리 '|' 연산 가능
+Integer.toBinaryString으로 이진수 쉽게 생성 가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[1차] 비밀지도(17681)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 다트 게임(17682)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math는 static lib 이다. import 필요없음
+Math.pow
+배열 합을 ide에서는 자동완성이 가능해서 찾을 수 있는데
+실제 시험에서는 못쓸 가능성도 염두해둬야 한다.
+arr.stream().reduce((acc, i)-&gt;acc+i).get()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8266,10 +8286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8593,7 +8613,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" ht="68" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>3</v>
       </c>
@@ -8601,21 +8621,38 @@
         <v>635</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="E25" s="10" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="26" spans="2:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>640</v>
+        <v>642</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>641</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="85" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -3509,18 +3509,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>문제 이해했다는 가정하에 19번 케이스 못찾고 시간내에 풀음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>최대한 빨리 풀어봄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번 읽어봤는데 문제가 이해가 안간다
-앱출력 예제중 2번, 6번 이해가 안간다;;;
-&gt;&gt; 문제 이해가 좀 헷갈렷지만 이해만 하면 어렵지 않다.
-19번 테스트케이스만 통과가 안된다… 이유가 뭘까?ㅜㅜ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3546,6 +3535,20 @@
   </si>
   <si>
     <t>최대한 빨리 풀어봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번 읽어봤는데 문제가 이해가 안간다
+앱출력 예제중 2번, 6번 이해가 안간다;;;
+&gt;&gt; 문제 이해가 좀 헷갈렷지만 이해만 하면 어렵지 않다.
+19번 테스트케이스만 통과가 안된다… 이유가 뭘까?ㅜㅜ
+&gt;&gt; SimpleDateFormat("hh:mm")를 SimpleDateFormat("HH:mm")로 바꾸니 통과되었다. 문제 풀때 hh:mm과 HH:mm이 다른건 인지하고 있었지만 로그를 찍었을때 같은값이라 안바꿨었다. 이게 프로그래머스 엔진에서 문제가 될거란 생각은 그래서 못했다...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 이해했다는 가정하에 19번 케이스 못찾고 시간내에 풀음
+hh:mm &gt;&gt; HH:mm 문제였음
+jvm 버전 차이인가…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4193,27 +4196,27 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4287,7 +4290,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4305,7 +4308,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4347,7 +4350,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4414,7 +4417,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4432,7 +4435,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4448,7 +4451,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4464,7 +4467,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4501,7 +4504,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4513,7 +4516,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4557,7 +4560,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4575,7 +4578,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4593,7 +4596,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4611,7 +4614,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4632,7 +4635,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4648,7 +4651,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -4737,7 +4740,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -4761,7 +4764,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -4785,7 +4788,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -4827,7 +4830,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -4892,7 +4895,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -4913,7 +4916,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -4935,7 +4938,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -4960,7 +4963,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -5000,7 +5003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -5015,7 +5018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -5040,7 +5043,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -5055,7 +5058,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -5070,7 +5073,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -5080,7 +5083,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -5095,7 +5098,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -5105,7 +5108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -5130,7 +5133,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -5145,7 +5148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -5155,7 +5158,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -5170,7 +5173,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -5180,7 +5183,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -5206,7 +5209,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5230,7 +5233,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5255,7 +5258,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5276,7 +5279,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5348,7 +5351,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5387,7 +5390,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5408,7 +5411,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5429,7 +5432,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5489,7 +5492,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5548,25 +5551,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5587,22 +5590,22 @@
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>278</v>
       </c>
@@ -5610,7 +5613,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5645,7 +5648,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>249</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>257</v>
       </c>
@@ -5680,7 +5683,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>258</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -5745,7 +5748,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -5787,7 +5790,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -5829,7 +5832,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -5850,7 +5853,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -5871,7 +5874,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -5892,7 +5895,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -5916,7 +5919,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -5937,7 +5940,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -5961,7 +5964,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -5985,7 +5988,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -6030,7 +6033,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6051,7 +6054,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -6065,7 +6068,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -6089,7 +6092,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -6103,7 +6106,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -6148,7 +6151,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -6193,7 +6196,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -6204,7 +6207,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6239,7 +6242,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6263,7 +6266,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6284,7 +6287,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6308,7 +6311,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
@@ -6322,7 +6325,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
         <v>251</v>
       </c>
@@ -6340,7 +6343,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>253</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>254</v>
       </c>
@@ -6356,7 +6359,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>255</v>
       </c>
@@ -6364,7 +6367,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>290</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>292</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>294</v>
       </c>
@@ -6398,7 +6401,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>309</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>307</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>300</v>
       </c>
@@ -6445,7 +6448,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>301</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>303</v>
       </c>
@@ -6481,7 +6484,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>308</v>
       </c>
@@ -6499,7 +6502,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
         <v>310</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>312</v>
       </c>
@@ -6528,7 +6531,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>314</v>
       </c>
@@ -6546,7 +6549,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>316</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>318</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>320</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>322</v>
       </c>
@@ -6608,7 +6611,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>323</v>
       </c>
@@ -6626,7 +6629,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>326</v>
       </c>
@@ -6644,7 +6647,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>327</v>
       </c>
@@ -6662,7 +6665,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>329</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
         <v>331</v>
       </c>
@@ -6698,7 +6701,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>333</v>
       </c>
@@ -6712,7 +6715,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -6730,7 +6733,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>335</v>
       </c>
@@ -6748,7 +6751,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>337</v>
       </c>
@@ -6766,7 +6769,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>339</v>
       </c>
@@ -6784,7 +6787,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -6799,7 +6802,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>341</v>
       </c>
@@ -6817,7 +6820,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>343</v>
       </c>
@@ -6835,7 +6838,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>345</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>347</v>
       </c>
@@ -6871,7 +6874,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
         <v>349</v>
       </c>
@@ -6889,7 +6892,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>355</v>
       </c>
@@ -6897,7 +6900,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>356</v>
       </c>
@@ -6905,7 +6908,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>357</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>358</v>
       </c>
@@ -6921,7 +6924,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
         <v>359</v>
       </c>
@@ -6935,7 +6938,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>361</v>
       </c>
@@ -6953,7 +6956,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>363</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>365</v>
       </c>
@@ -6989,7 +6992,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7001,7 +7004,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>366</v>
       </c>
@@ -7014,7 +7017,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>369</v>
       </c>
@@ -7032,7 +7035,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>371</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7062,7 +7065,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>374</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>376</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
         <v>378</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
         <v>390</v>
       </c>
@@ -7130,7 +7133,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>391</v>
       </c>
@@ -7148,7 +7151,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>393</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>395</v>
       </c>
@@ -7184,7 +7187,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>397</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>399</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>438</v>
       </c>
@@ -7238,7 +7241,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
         <v>402</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7268,7 +7271,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>405</v>
       </c>
@@ -7286,7 +7289,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>407</v>
       </c>
@@ -7304,7 +7307,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>409</v>
       </c>
@@ -7322,7 +7325,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>411</v>
       </c>
@@ -7343,12 +7346,12 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
         <v>413</v>
       </c>
@@ -7366,7 +7369,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
         <v>415</v>
       </c>
@@ -7384,7 +7387,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>417</v>
       </c>
@@ -7392,7 +7395,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
         <v>418</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7422,7 +7425,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
         <v>421</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>423</v>
       </c>
@@ -7448,7 +7451,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>424</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
         <v>426</v>
       </c>
@@ -7487,7 +7490,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>433</v>
       </c>
@@ -7498,12 +7501,12 @@
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
         <v>429</v>
       </c>
@@ -7521,7 +7524,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
         <v>431</v>
       </c>
@@ -7542,7 +7545,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
         <v>487</v>
       </c>
@@ -7562,15 +7565,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>509</v>
       </c>
@@ -7591,7 +7594,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>510</v>
       </c>
@@ -7602,7 +7605,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>525</v>
@@ -7615,7 +7618,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>528</v>
@@ -7628,7 +7631,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>533</v>
@@ -7643,7 +7646,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>534</v>
@@ -7658,7 +7661,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7667,7 +7670,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>511</v>
       </c>
@@ -7678,7 +7681,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>535</v>
@@ -7691,7 +7694,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>536</v>
@@ -7704,7 +7707,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>537</v>
@@ -7717,7 +7720,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>538</v>
@@ -7730,7 +7733,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -7739,7 +7742,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>512</v>
       </c>
@@ -7750,7 +7753,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>540</v>
@@ -7765,7 +7768,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>543</v>
@@ -7778,7 +7781,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>544</v>
@@ -7791,7 +7794,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -7800,7 +7803,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>513</v>
       </c>
@@ -7811,7 +7814,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>545</v>
@@ -7824,7 +7827,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>546</v>
@@ -7837,7 +7840,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>547</v>
@@ -7850,7 +7853,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -7859,7 +7862,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -7868,7 +7871,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>514</v>
       </c>
@@ -7879,7 +7882,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>548</v>
@@ -7892,7 +7895,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>550</v>
@@ -7905,7 +7908,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>551</v>
@@ -7918,7 +7921,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -7927,7 +7930,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>553</v>
       </c>
@@ -7940,7 +7943,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>555</v>
@@ -7953,7 +7956,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>556</v>
@@ -7966,7 +7969,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>557</v>
@@ -7981,7 +7984,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>558</v>
@@ -7994,7 +7997,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>559</v>
@@ -8007,7 +8010,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>561</v>
@@ -8020,7 +8023,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>515</v>
       </c>
@@ -8031,7 +8034,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>562</v>
@@ -8044,7 +8047,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>563</v>
@@ -8057,7 +8060,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>564</v>
@@ -8070,7 +8073,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>565</v>
@@ -8083,7 +8086,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8092,7 +8095,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>516</v>
       </c>
@@ -8103,7 +8106,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>566</v>
@@ -8116,7 +8119,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>567</v>
@@ -8129,7 +8132,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>568</v>
@@ -8142,7 +8145,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>569</v>
@@ -8155,7 +8158,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8164,7 +8167,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>517</v>
       </c>
@@ -8175,7 +8178,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>570</v>
@@ -8190,7 +8193,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>518</v>
@@ -8203,7 +8206,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8212,7 +8215,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>519</v>
       </c>
@@ -8223,7 +8226,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>571</v>
@@ -8236,7 +8239,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>520</v>
@@ -8251,7 +8254,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>521</v>
@@ -8262,19 +8265,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8288,20 +8291,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.08203125" customWidth="1"/>
+    <col min="1" max="1" width="27.125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>580</v>
       </c>
@@ -8325,7 +8328,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="26">
         <v>1</v>
@@ -8343,7 +8346,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8357,7 +8360,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>585</v>
       </c>
@@ -8365,7 +8368,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8379,7 +8382,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8418,7 +8421,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8429,7 +8432,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8440,7 +8443,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8454,7 +8457,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -8465,7 +8468,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -8490,7 +8493,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -8507,7 +8510,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" ht="132" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8521,7 +8524,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -8535,7 +8538,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8549,7 +8552,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8574,7 +8577,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -8585,7 +8588,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -8599,7 +8602,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8613,7 +8616,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:5" ht="132" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>3</v>
       </c>
@@ -8621,38 +8624,38 @@
         <v>635</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" ht="34" x14ac:dyDescent="0.45">
+        <v>644</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="85" x14ac:dyDescent="0.45">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>641</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>643</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>644</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>645</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="649">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3549,6 +3549,23 @@
     <t>문제 이해했다는 가정하에 19번 케이스 못찾고 시간내에 풀음
 hh:mm &gt;&gt; HH:mm 문제였음
 jvm 버전 차이인가…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 캐시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU는 Queue보다 ArrayList 자료구조가 효율적이다.
+캐시를 최신으로 갱신해주는 작업이 필요하기 때문이다.
+ArrayList는 remove("contents"), contains("contents")도 시용 가능하다.
+IDE없이 Queue 사용하는 연습해보고 싶어서 연습했다.
+LinkedHashMap을 사용해서도 구현 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0인 케이스에서 예외처리는 힌트를 봐버렸다ㅜ
+시간내 풀음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8289,10 +8306,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8658,6 +8675,20 @@
         <v>643</v>
       </c>
     </row>
+    <row r="28" spans="2:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>646</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>648</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="652">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3552,10 +3552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1차] 캐시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LRU는 Queue보다 ArrayList 자료구조가 효율적이다.
 캐시를 최신으로 갱신해주는 작업이 필요하기 때문이다.
 ArrayList는 remove("contents"), contains("contents")도 시용 가능하다.
@@ -3566,6 +3562,24 @@
   <si>
     <t>0인 케이스에서 예외처리는 힌트를 봐버렸다ㅜ
 시간내 풀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 뉴스 클러스터링(17677)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 캐시(17680)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1시간 반정도 걸림;;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashMap을 사용했다.
+특수문자 제거를 나중에 했었어야하는데 먼저하는 실수를 해서 오래걸렸다.
+주어진 테스트 케이스를 토대로 좀더 신중하게 알고리즘을 짰다면 금방 했을것이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8306,10 +8320,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H28"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8680,13 +8694,27 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
+        <v>649</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="E28" s="11" t="s">
+    </row>
+    <row r="29" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
         <v>648</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="655">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3580,6 +3580,19 @@
     <t>HashMap을 사용했다.
 특수문자 제거를 나중에 했었어야하는데 먼저하는 실수를 해서 오래걸렸다.
 주어진 테스트 케이스를 토대로 좀더 신중하게 알고리즘을 짰다면 금방 했을것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1차] 프렌즈4블록(17679)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간내에 못풀었다
+IDE로 풀었으면 1시간쯤 걸렸을 것 같다.. 디버깅이 복잡해지니 IDE의 중요성이 느껴짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번 테스트 케이스 제외하고 통과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8320,10 +8333,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8717,6 +8730,20 @@
         <v>650</v>
       </c>
     </row>
+    <row r="30" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>652</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3577,22 +3577,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[1차] 프렌즈4블록(17679)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번 테스트 케이스 제외하고 통과
+index로 안풀고 그냥 queue로 했더니 쉽게 수정했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간내에 못풀었다
+IDE로 풀었으면 1시간쯤 걸렸을 것 같다.. 디버깅이 복잡해지니 IDE의 중요성이 느껴짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HashMap을 사용했다.
 특수문자 제거를 나중에 했었어야하는데 먼저하는 실수를 해서 오래걸렸다.
-주어진 테스트 케이스를 토대로 좀더 신중하게 알고리즘을 짰다면 금방 했을것이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1차] 프렌즈4블록(17679)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2시간내에 못풀었다
-IDE로 풀었으면 1시간쯤 걸렸을 것 같다.. 디버깅이 복잡해지니 IDE의 중요성이 느껴짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10번 테스트 케이스 제외하고 통과</t>
+주어진 테스트 케이스를 토대로 좀더 신중하게 알고리즘을 짰다면 금방 했을것이다.
+stream을 활용해서 푸는것도 정리해보자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8335,8 +8337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8716,7 +8718,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>2</v>
       </c>
@@ -8724,7 +8726,7 @@
         <v>648</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>650</v>
@@ -8735,10 +8737,10 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>651</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>652</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>654</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>653</v>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="658">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3595,6 +3595,18 @@
 특수문자 제거를 나중에 했었어야하는데 먼저하는 실수를 해서 오래걸렸다.
 주어진 테스트 케이스를 토대로 좀더 신중하게 알고리즘을 짰다면 금방 했을것이다.
 stream을 활용해서 푸는것도 정리해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폰켓몬(1845)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stream 활용한 풀이도 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8335,10 +8347,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H30"/>
+  <dimension ref="A2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8746,6 +8758,20 @@
         <v>653</v>
       </c>
     </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>655</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>656</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="661">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3607,6 +3607,18 @@
   </si>
   <si>
     <t>Stream 활용한 풀이도 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실패율(42889)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDE 쓰면 디버깅이 용이한데,, editor에서는 조금 자신없다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8347,10 +8359,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H31"/>
+  <dimension ref="A2:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8772,6 +8784,20 @@
         <v>656</v>
       </c>
     </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>658</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>659</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="664">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3619,6 +3619,18 @@
   </si>
   <si>
     <t>IDE 쓰면 디버깅이 용이한데,, editor에서는 조금 자신없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호 변환(60058)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간좀 걸림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sb를 변수로 받았으면서 append까지 함, 그냥 다음부턴 sb 만 쓰자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8359,7 +8371,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H32"/>
+  <dimension ref="A2:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
@@ -8798,6 +8810,20 @@
         <v>659</v>
       </c>
     </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>661</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>662</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="667">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3631,6 +3631,18 @@
   </si>
   <si>
     <t>sb를 변수로 받았으면서 append까지 함, 그냥 다음부턴 sb 만 쓰자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약수의 개수와 덧셈(77884)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨리 품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제곱수가 아니면 약수의 개수가 짝수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8371,10 +8383,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8824,6 +8836,20 @@
         <v>662</v>
       </c>
     </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>664</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>665</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="670">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3643,6 +3643,18 @@
   </si>
   <si>
     <t>제곱수가 아니면 약수의 개수가 짝수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리두기 확인하기(81302)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍청한짓해서 늦게품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멍청한짓해서 시간내에 못풀었다.. 정말 자괴감든다..</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8383,10 +8395,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H34"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8850,6 +8862,20 @@
         <v>665</v>
       </c>
     </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>667</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>668</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SeongJin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="673">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3655,6 +3655,18 @@
   </si>
   <si>
     <t>멍청한짓해서 시간내에 못풀었다.. 정말 자괴감든다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3진법 뒤집기(68935)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer.parseInt(a,3)을 사용하면 3진법을 10진법으로 바꿔주는걸 첨알았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8395,10 +8407,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8876,6 +8888,20 @@
         <v>668</v>
       </c>
     </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>670</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>672</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="675">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3667,6 +3667,14 @@
   </si>
   <si>
     <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식 최대화(67257)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간내 못품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8407,10 +8415,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H36"/>
+  <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8902,6 +8910,17 @@
         <v>672</v>
       </c>
     </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>673</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>674</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
     <sheet name="DP" sheetId="2" r:id="rId2"/>
     <sheet name="프로그래머스 고득점" sheetId="3" r:id="rId3"/>
     <sheet name="프로그래머스 일일문제풀이" sheetId="4" r:id="rId4"/>
+    <sheet name="백준 랜덤" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="681">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3674,7 +3675,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시간내 못품</t>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오는 순열, 조합 정도는 구현할 수 있어야 할 것 같다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의실 배정(p1931)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 조건 비교를 안했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 아쉽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8417,13 +8442,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
     <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
@@ -8455,7 +8480,6 @@
       <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -8636,7 +8660,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8650,7 +8674,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -8664,7 +8688,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8678,7 +8702,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -8689,7 +8713,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8703,7 +8727,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -8714,7 +8738,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -8728,7 +8752,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8742,7 +8766,10 @@
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>677</v>
+      </c>
       <c r="B25">
         <v>3</v>
       </c>
@@ -8756,7 +8783,10 @@
         <v>645</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>677</v>
+      </c>
       <c r="B26">
         <v>1</v>
       </c>
@@ -8770,7 +8800,10 @@
         <v>638</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>677</v>
+      </c>
       <c r="B27">
         <v>1</v>
       </c>
@@ -8784,7 +8817,10 @@
         <v>643</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>677</v>
+      </c>
       <c r="B28">
         <v>2</v>
       </c>
@@ -8798,7 +8834,10 @@
         <v>647</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>677</v>
+      </c>
       <c r="B29">
         <v>2</v>
       </c>
@@ -8812,7 +8851,10 @@
         <v>650</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>677</v>
+      </c>
       <c r="B30">
         <v>2</v>
       </c>
@@ -8826,7 +8868,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -8840,7 +8882,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -8854,7 +8896,10 @@
         <v>659</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>677</v>
+      </c>
       <c r="B33">
         <v>2</v>
       </c>
@@ -8868,7 +8913,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -8882,7 +8927,10 @@
         <v>665</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>677</v>
+      </c>
       <c r="B35">
         <v>2</v>
       </c>
@@ -8896,7 +8944,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
@@ -8910,12 +8958,18 @@
         <v>672</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>677</v>
+      </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
         <v>673</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>675</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>674</v>
@@ -8927,4 +8981,192 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="9.75" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="4" max="4" width="70.75" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>580</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>523</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>524</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>572</v>
+      </c>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D7" s="4"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="34"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="4"/>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="4"/>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="4"/>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="4"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="4"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D27" s="4"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D28" s="4"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="4"/>
+      <c r="E29" s="10"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="4"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="4"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="4"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="4"/>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="4"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="4"/>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D36" s="4"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D37" s="4"/>
+      <c r="E37" s="10"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -3659,47 +3659,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Integer.parseInt(a,3)을 사용하면 3진법을 10진법으로 바꿔주는걸 첨알았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수식 최대화(67257)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회의실 배정(p1931)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작 조건 비교를 안했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조금 아쉽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3진법 뒤집기(68935)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Integer.parseInt(a,3)을 사용하면 3진법을 10진법으로 바꿔주는걸 첨알았다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완벽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수식 최대화(67257)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오는 순열, 조합 정도는 구현할 수 있어야 할 것 같다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카카오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회의실 배정(p1931)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작 조건 비교를 안했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조금 아쉽</t>
+    <t>못품 &gt;&gt; 다시풀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오는 순열, 조합 정도는 구현할 수 있어야 할 것 같다.. 
+기존 풀이는 stirng을 convert하는 식으로 구현했다.
+그러다보니 111-222-333 이렇게 연속되는 경우 
+111-222 도 연산하고 222-333도 연산하게 되었다..
+그렇다고 이걸 예외처리하자니 그것도 굉장히 로직이 지저분했다.
+문자열 파싱하지말고 숫자, 연산자 각자 배열에 넣는 방향으로 하자
+파싱해서 변경하면 너무 생각치 못한 에러가 생긴다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8442,8 +8448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8768,7 +8774,7 @@
     </row>
     <row r="25" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -8785,7 +8791,7 @@
     </row>
     <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -8802,7 +8808,7 @@
     </row>
     <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -8819,7 +8825,7 @@
     </row>
     <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -8836,7 +8842,7 @@
     </row>
     <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -8853,7 +8859,7 @@
     </row>
     <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -8898,7 +8904,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -8929,7 +8935,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -8949,30 +8955,30 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
+        <v>678</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -8987,7 +8993,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9026,19 +9032,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="685">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3706,6 +3706,23 @@
 그렇다고 이걸 예외처리하자니 그것도 굉장히 로직이 지저분했다.
 문자열 파싱하지말고 숫자, 연산자 각자 배열에 넣는 방향으로 하자
 파싱해서 변경하면 너무 생각치 못한 에러가 생긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탑(p2493)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O(n^2)을 O(n)으로 만들어야 풀리는 문제
+&gt;&gt; 스택을 이용하면 되는데,,,,,, 못찾았다ㅜ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8448,8 +8465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8993,7 +9010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -9034,9 +9051,7 @@
       <c r="A3" t="s">
         <v>673</v>
       </c>
-      <c r="B3" s="26">
-        <v>1</v>
-      </c>
+      <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
         <v>675</v>
       </c>
@@ -9050,8 +9065,19 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E4" s="8"/>
+    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C4" t="s">
+        <v>681</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E6" s="8"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -3713,16 +3713,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>O(n^2)을 O(n)으로 만들어야 풀리는 문제
-&gt;&gt; 스택을 이용하면 되는데,,,,,, 못찾았다ㅜ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>못품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스택</t>
+&gt;&gt; 스택을 이용하면 되는데,,, 졸려서 그런가 시간내 생각을 못했다.
+Class를 써야한다는 사실을 일찍 파악했으면 더 좋았을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스택 힌트 후 풀음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9011,7 +9012,7 @@
   <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9065,18 +9066,18 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C4" t="s">
         <v>681</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="689">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3724,6 +3724,23 @@
   </si>
   <si>
     <t>스택 힌트 후 풀음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜플(64065)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거의 완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정규식을 잘 사용하고 싶은데 시험은 무서워서 잘 안쓰게 된다.
+Set.add() 함수에 return 값을 사용해서 더 깔끔하게 로직을 짤 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8464,10 +8481,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H37"/>
+  <dimension ref="A2:H38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8999,6 +9016,23 @@
         <v>679</v>
       </c>
     </row>
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>685</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>686</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>687</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9011,7 +9045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="691">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3741,6 +3741,14 @@
   <si>
     <t>정규식을 잘 사용하고 싶은데 시험은 무서워서 잘 안쓰게 된다.
 Set.add() 함수에 return 값을 사용해서 더 깔끔하게 로직을 짤 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 맵 최단거리(1844)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8481,10 +8489,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H38"/>
+  <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9031,6 +9039,17 @@
       </c>
       <c r="E38" s="11" t="s">
         <v>687</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>689</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>690</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="696">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3749,6 +3749,25 @@
   </si>
   <si>
     <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행렬 곱셈 순서(p11049)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점화식 세우기가 어렵다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11049번: 행렬 곱셈 순서 (acmicpc.net)</t>
+  </si>
+  <si>
+    <t>링크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8491,7 +8510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -9064,8 +9083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9075,6 +9094,7 @@
     <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
     <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -9099,7 +9119,9 @@
       <c r="G2" s="32" t="s">
         <v>572</v>
       </c>
-      <c r="H2" s="32"/>
+      <c r="H2" s="32" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9131,6 +9153,20 @@
       </c>
       <c r="E4" s="8" t="s">
         <v>684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>691</v>
+      </c>
+      <c r="C5" t="s">
+        <v>692</v>
+      </c>
+      <c r="D5" t="s">
+        <v>693</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -9252,7 +9288,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H5" r:id="rId1" display="https://www.acmicpc.net/problem/11049"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="700">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1071,9 +1071,6 @@
   <si>
     <t>https://gist.github.com/Baekjoon/d844d321f439b78839b2</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gist.github.com/Baekjoon/5823d80d59a9ff24ef80</t>
   </si>
   <si>
     <t>다이나믹 프로그래밍 1</t>
@@ -3768,6 +3765,32 @@
   </si>
   <si>
     <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gist.github.com/Baekjoon/5823d80d59a9ff24ef80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계단 오르기(p2579)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두가지 방법
+1. 일차원 배열로 푸는 방법
+ d[i]=max(d[i-3]+a[i-1]+a[i], d[i-2]+a[i])
+&gt;&gt; 경험상 i-3까지 내려가면 문제가 복잡해질때 대응이 어렵다.
+2. 이차원 배열로 푸는 방법
+d[i][1]=max(d[i-2][1]+a[i], d[i-2][2]+a[i]);
+d[i][2]=d[i-1][1]+a[i]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오랜만이고 시험준비가 급해서 먼저봄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4411,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:L186"/>
   <sheetViews>
-    <sheetView topLeftCell="B58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5806,7 +5829,7 @@
   <dimension ref="C2:M116"/>
   <sheetViews>
     <sheetView topLeftCell="E19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5826,7 +5849,7 @@
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>195</v>
@@ -5855,7 +5878,7 @@
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>192</v>
@@ -5869,15 +5892,15 @@
     </row>
     <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F5">
         <v>1463</v>
@@ -5893,7 +5916,7 @@
         <v>176</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>237</v>
@@ -5904,7 +5927,7 @@
     </row>
     <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H6" t="s">
         <v>127</v>
@@ -5913,10 +5936,10 @@
         <v>176</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="3:13" x14ac:dyDescent="0.3">
@@ -5937,10 +5960,10 @@
         <v>176</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K7" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="3:13" x14ac:dyDescent="0.3">
@@ -5961,10 +5984,10 @@
         <v>176</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K8" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.3">
@@ -5985,7 +6008,7 @@
         <v>176</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="3:13" x14ac:dyDescent="0.3">
@@ -6006,7 +6029,7 @@
         <v>176</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.3">
@@ -6027,7 +6050,7 @@
         <v>176</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.3">
@@ -6048,7 +6071,7 @@
         <v>176</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.3">
@@ -6069,7 +6092,7 @@
         <v>176</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.3">
@@ -6090,7 +6113,7 @@
         <v>176</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.3">
@@ -6111,7 +6134,7 @@
         <v>176</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
@@ -6132,10 +6155,10 @@
         <v>176</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.3">
@@ -6156,7 +6179,7 @@
         <v>176</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
@@ -6177,10 +6200,10 @@
         <v>176</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.3">
@@ -6201,10 +6224,10 @@
         <v>176</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K19" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
@@ -6225,10 +6248,10 @@
         <v>176</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.3">
@@ -6249,7 +6272,7 @@
         <v>176</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="22" spans="5:11" x14ac:dyDescent="0.3">
@@ -6270,7 +6293,7 @@
         <v>176</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
@@ -6281,10 +6304,10 @@
         <v>190</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
@@ -6305,10 +6328,10 @@
         <v>176</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
@@ -6319,10 +6342,10 @@
         <v>176</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.3">
@@ -6343,7 +6366,7 @@
         <v>176</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
@@ -6364,10 +6387,10 @@
         <v>176</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="5:11" x14ac:dyDescent="0.3">
@@ -6388,7 +6411,7 @@
         <v>176</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.3">
@@ -6409,10 +6432,10 @@
         <v>176</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.3">
@@ -6420,10 +6443,10 @@
         <v>171</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
@@ -6437,17 +6460,17 @@
         <f>IF(F31="","",CONCATENATE("https://www.acmicpc.net/problem/",F31))</f>
         <v>https://www.acmicpc.net/problem/2579</v>
       </c>
-      <c r="H31" t="s">
-        <v>247</v>
+      <c r="H31" s="22" t="s">
+        <v>695</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="5:11" x14ac:dyDescent="0.3">
@@ -6458,7 +6481,7 @@
         <v>176</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="4:13" x14ac:dyDescent="0.3">
@@ -6479,10 +6502,10 @@
         <v>176</v>
       </c>
       <c r="J33" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.3">
@@ -6503,7 +6526,7 @@
         <v>176</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6524,15 +6547,15 @@
         <v>176</v>
       </c>
       <c r="J35" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="5"/>
@@ -6546,7 +6569,7 @@
     </row>
     <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F37" s="10">
         <v>11048</v>
@@ -6556,47 +6579,47 @@
         <v>https://www.acmicpc.net/problem/11048</v>
       </c>
       <c r="H37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J37" s="16" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J38" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J39" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J40" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
+        <v>289</v>
+      </c>
+      <c r="J41" s="16" t="s">
         <v>290</v>
-      </c>
-      <c r="J41" s="16" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F42">
         <v>1890</v>
@@ -6606,23 +6629,23 @@
         <v>https://www.acmicpc.net/problem/1890</v>
       </c>
       <c r="H42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J42" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J43" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F44">
         <v>10942</v>
@@ -6632,26 +6655,26 @@
         <v>https://www.acmicpc.net/problem/10942</v>
       </c>
       <c r="H44" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H45" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F46">
         <v>1509</v>
@@ -6661,15 +6684,15 @@
         <v>https://www.acmicpc.net/problem/1509</v>
       </c>
       <c r="H46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J46" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F47">
         <v>2293</v>
@@ -6679,15 +6702,15 @@
         <v>https://www.acmicpc.net/problem/2293</v>
       </c>
       <c r="H47" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J47" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F48">
         <v>2294</v>
@@ -6697,15 +6720,15 @@
         <v>https://www.acmicpc.net/problem/2294</v>
       </c>
       <c r="H48" t="s">
+        <v>303</v>
+      </c>
+      <c r="J48" s="16" t="s">
         <v>304</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F49">
         <v>1520</v>
@@ -6715,26 +6738,26 @@
         <v>https://www.acmicpc.net/problem/1520</v>
       </c>
       <c r="H49" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J49" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="H50" t="s">
         <v>310</v>
       </c>
-      <c r="H50" t="s">
-        <v>311</v>
-      </c>
       <c r="J50" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F51">
         <v>11066</v>
@@ -6744,15 +6767,15 @@
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J51" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F52">
         <v>11049</v>
@@ -6762,15 +6785,15 @@
         <v>https://www.acmicpc.net/problem/11049</v>
       </c>
       <c r="H52" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J52" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F53">
         <v>2228</v>
@@ -6780,15 +6803,15 @@
         <v>https://www.acmicpc.net/problem/2228</v>
       </c>
       <c r="H53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J53" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F54">
         <v>2240</v>
@@ -6798,15 +6821,15 @@
         <v>https://www.acmicpc.net/problem/2240</v>
       </c>
       <c r="H54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J54" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F55">
         <v>1328</v>
@@ -6816,23 +6839,23 @@
         <v>https://www.acmicpc.net/problem/1328</v>
       </c>
       <c r="H55" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J55" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J56" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F57">
         <v>1720</v>
@@ -6842,15 +6865,15 @@
         <v>https://www.acmicpc.net/problem/1720</v>
       </c>
       <c r="H57" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F58">
         <v>1495</v>
@@ -6860,15 +6883,15 @@
         <v>https://www.acmicpc.net/problem/1495</v>
       </c>
       <c r="H58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J58" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F59">
         <v>5557</v>
@@ -6878,15 +6901,15 @@
         <v>https://www.acmicpc.net/problem/5557</v>
       </c>
       <c r="H59" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F60">
         <v>3012</v>
@@ -6896,15 +6919,15 @@
         <v>https://www.acmicpc.net/problem/3012</v>
       </c>
       <c r="H60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F61">
         <v>1126</v>
@@ -6914,15 +6937,15 @@
         <v>https://www.acmicpc.net/problem/1126</v>
       </c>
       <c r="H61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J61" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="5"/>
@@ -6946,15 +6969,15 @@
         <v>https://www.acmicpc.net/problem/2133</v>
       </c>
       <c r="H63" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J63" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F64">
         <v>2098</v>
@@ -6964,15 +6987,15 @@
         <v>https://www.acmicpc.net/problem/2098</v>
       </c>
       <c r="H64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J64" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F65">
         <v>1102</v>
@@ -6982,15 +7005,15 @@
         <v>https://www.acmicpc.net/problem/1102</v>
       </c>
       <c r="H65" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J65" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F66">
         <v>1562</v>
@@ -7000,10 +7023,10 @@
         <v>https://www.acmicpc.net/problem/1562</v>
       </c>
       <c r="H66" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J66" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="4:13" x14ac:dyDescent="0.3">
@@ -7018,12 +7041,12 @@
         <v>https://www.acmicpc.net/problem/10844</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F68">
         <v>1086</v>
@@ -7033,15 +7056,15 @@
         <v>https://www.acmicpc.net/problem/1086</v>
       </c>
       <c r="H68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F69">
         <v>1648</v>
@@ -7051,15 +7074,15 @@
         <v>https://www.acmicpc.net/problem/1648</v>
       </c>
       <c r="H69" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F70">
         <v>9023</v>
@@ -7069,15 +7092,15 @@
         <v>https://www.acmicpc.net/problem/9023</v>
       </c>
       <c r="H70" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F71">
         <v>2172</v>
@@ -7087,15 +7110,15 @@
         <v>https://www.acmicpc.net/problem/2172</v>
       </c>
       <c r="H71" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F72">
         <v>1563</v>
@@ -7105,47 +7128,47 @@
         <v>https://www.acmicpc.net/problem/1563</v>
       </c>
       <c r="H72" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="5"/>
@@ -7159,7 +7182,7 @@
     </row>
     <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F78">
         <v>2213</v>
@@ -7169,15 +7192,15 @@
         <v>https://www.acmicpc.net/problem/2213</v>
       </c>
       <c r="H78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J78" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F79">
         <v>2262</v>
@@ -7187,15 +7210,15 @@
         <v>https://www.acmicpc.net/problem/2262</v>
       </c>
       <c r="H79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F80">
         <v>1866</v>
@@ -7205,10 +7228,10 @@
         <v>https://www.acmicpc.net/problem/1866</v>
       </c>
       <c r="H80" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J80" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="81" spans="4:13" x14ac:dyDescent="0.3">
@@ -7217,15 +7240,15 @@
         <v/>
       </c>
       <c r="H81" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F82">
         <v>2142</v>
@@ -7238,7 +7261,7 @@
     </row>
     <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F83">
         <v>2315</v>
@@ -7248,15 +7271,15 @@
         <v>https://www.acmicpc.net/problem/2315</v>
       </c>
       <c r="H83" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J83" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F84">
         <v>2419</v>
@@ -7266,10 +7289,10 @@
         <v>https://www.acmicpc.net/problem/2419</v>
       </c>
       <c r="H84" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J84" s="16" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="4:13" x14ac:dyDescent="0.3">
@@ -7278,15 +7301,15 @@
         <v/>
       </c>
       <c r="H85" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J85" s="16" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F86">
         <v>2291</v>
@@ -7296,15 +7319,15 @@
         <v>https://www.acmicpc.net/problem/2291</v>
       </c>
       <c r="H86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J86" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F87">
         <v>1344</v>
@@ -7314,15 +7337,15 @@
         <v>https://www.acmicpc.net/problem/1344</v>
       </c>
       <c r="H87" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="J87" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F88">
         <v>1204</v>
@@ -7332,15 +7355,15 @@
         <v>https://www.acmicpc.net/problem/1204</v>
       </c>
       <c r="H88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J88" s="16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="5"/>
@@ -7354,7 +7377,7 @@
     </row>
     <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F90" s="10">
         <v>13247</v>
@@ -7364,15 +7387,15 @@
         <v>https://www.acmicpc.net/problem/13247</v>
       </c>
       <c r="H90" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J90" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F91" s="10">
         <v>13249</v>
@@ -7382,15 +7405,15 @@
         <v>https://www.acmicpc.net/problem/13249</v>
       </c>
       <c r="H91" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J91" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F92" s="10">
         <v>1359</v>
@@ -7400,15 +7423,15 @@
         <v>https://www.acmicpc.net/problem/1359</v>
       </c>
       <c r="H92" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J92" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F93" s="10">
         <v>13250</v>
@@ -7418,15 +7441,15 @@
         <v>https://www.acmicpc.net/problem/13250</v>
       </c>
       <c r="H93" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J93" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F94" s="10">
         <v>13251</v>
@@ -7436,15 +7459,15 @@
         <v>https://www.acmicpc.net/problem/13251</v>
       </c>
       <c r="H94" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J94" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F95" s="10">
         <v>13252</v>
@@ -7454,15 +7477,15 @@
         <v>https://www.acmicpc.net/problem/13252</v>
       </c>
       <c r="H95" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J95" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F96" s="10">
         <v>13253</v>
@@ -7472,10 +7495,10 @@
         <v>https://www.acmicpc.net/problem/13253</v>
       </c>
       <c r="H96" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J96" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="97" spans="5:10" x14ac:dyDescent="0.3">
@@ -7484,15 +7507,15 @@
         <v/>
       </c>
       <c r="H97" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J97" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F98">
         <v>13254</v>
@@ -7502,15 +7525,15 @@
         <v>https://www.acmicpc.net/problem/13254</v>
       </c>
       <c r="H98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J98" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F99">
         <v>13255</v>
@@ -7520,15 +7543,15 @@
         <v>https://www.acmicpc.net/problem/13255</v>
       </c>
       <c r="H99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J99" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F100">
         <v>13257</v>
@@ -7538,15 +7561,15 @@
         <v>https://www.acmicpc.net/problem/13257</v>
       </c>
       <c r="H100" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J100" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F101">
         <v>1521</v>
@@ -7556,23 +7579,23 @@
         <v>https://www.acmicpc.net/problem/1521</v>
       </c>
       <c r="H101" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I101" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J101" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F103">
         <v>13258</v>
@@ -7582,15 +7605,15 @@
         <v>https://www.acmicpc.net/problem/13258</v>
       </c>
       <c r="H103" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J103" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F104">
         <v>11066</v>
@@ -7600,23 +7623,23 @@
         <v>https://www.acmicpc.net/problem/11066</v>
       </c>
       <c r="H104" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J104" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J105" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F106">
         <v>13260</v>
@@ -7626,10 +7649,10 @@
         <v>https://www.acmicpc.net/problem/13260</v>
       </c>
       <c r="H106" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J106" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="107" spans="5:10" x14ac:dyDescent="0.3">
@@ -7638,15 +7661,15 @@
         <v/>
       </c>
       <c r="H107" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J107" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F108">
         <v>13261</v>
@@ -7656,23 +7679,23 @@
         <v>https://www.acmicpc.net/problem/13261</v>
       </c>
       <c r="H108" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J108" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J109" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F110">
         <v>13262</v>
@@ -7682,15 +7705,15 @@
         <v>https://www.acmicpc.net/problem/13262</v>
       </c>
       <c r="H110" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F111">
         <v>13263</v>
@@ -7700,34 +7723,34 @@
         <v>https://www.acmicpc.net/problem/13263</v>
       </c>
       <c r="H111" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J111" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H112" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J112" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F114">
         <v>6171</v>
@@ -7737,15 +7760,15 @@
         <v>https://www.acmicpc.net/problem/6171</v>
       </c>
       <c r="H114" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J114" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F115">
         <v>4008</v>
@@ -7755,24 +7778,27 @@
         <v>https://www.acmicpc.net/problem/4008</v>
       </c>
       <c r="H115" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="I115" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J115" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H31" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7794,28 +7820,28 @@
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C2" s="32" t="s">
+        <v>521</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="E2" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>524</v>
-      </c>
       <c r="F2" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -7827,11 +7853,11 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -7840,11 +7866,11 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -7853,13 +7879,13 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -7868,13 +7894,13 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -7891,7 +7917,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7903,11 +7929,11 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -7916,11 +7942,11 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
@@ -7929,11 +7955,11 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -7942,11 +7968,11 @@
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -7963,7 +7989,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -7975,13 +8001,13 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
+        <v>539</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>541</v>
-      </c>
       <c r="D16" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
@@ -7990,11 +8016,11 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -8003,11 +8029,11 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -8024,7 +8050,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -8036,11 +8062,11 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -8049,11 +8075,11 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -8062,11 +8088,11 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
@@ -8092,7 +8118,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -8104,11 +8130,11 @@
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
@@ -8117,11 +8143,11 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -8130,11 +8156,11 @@
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -8151,10 +8177,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -8165,11 +8191,11 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -8178,11 +8204,11 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -8191,13 +8217,13 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -8206,11 +8232,11 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -8219,11 +8245,11 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -8232,11 +8258,11 @@
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -8244,7 +8270,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -8256,11 +8282,11 @@
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
@@ -8269,11 +8295,11 @@
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
@@ -8282,11 +8308,11 @@
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
@@ -8295,11 +8321,11 @@
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
@@ -8316,7 +8342,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -8328,11 +8354,11 @@
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -8341,11 +8367,11 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
@@ -8354,11 +8380,11 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -8367,11 +8393,11 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -8388,7 +8414,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -8400,14 +8426,14 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
@@ -8415,11 +8441,11 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -8436,7 +8462,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -8448,11 +8474,11 @@
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -8461,13 +8487,13 @@
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -8476,7 +8502,7 @@
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C57" s="29"/>
       <c r="D57" s="29"/>
@@ -8525,25 +8551,25 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>578</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>579</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>524</v>
-      </c>
       <c r="G2" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2" s="32"/>
     </row>
@@ -8552,13 +8578,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>581</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>583</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -8569,21 +8595,21 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -8591,13 +8617,13 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D6" t="s">
         <v>588</v>
       </c>
-      <c r="D6" t="s">
-        <v>589</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
@@ -8605,13 +8631,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>589</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>590</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -8619,10 +8645,10 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>592</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>593</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -8630,13 +8656,13 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>594</v>
+      </c>
+      <c r="D9" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>595</v>
-      </c>
-      <c r="D9" t="s">
-        <v>597</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -8644,10 +8670,10 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>597</v>
+      </c>
+      <c r="E10" s="10" t="s">
         <v>598</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -8655,10 +8681,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>599</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>600</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -8666,13 +8692,13 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D12" t="s">
+        <v>603</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>602</v>
-      </c>
-      <c r="D12" t="s">
-        <v>604</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -8680,10 +8706,10 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
+        <v>604</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -8691,13 +8717,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D14" t="s">
+        <v>606</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -8705,10 +8731,10 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
+        <v>609</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>610</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
@@ -8716,16 +8742,16 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>611</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="F16" s="10" t="s">
         <v>614</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="132" x14ac:dyDescent="0.3">
@@ -8733,13 +8759,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
+        <v>615</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>616</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -8747,13 +8773,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
+        <v>618</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>620</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>619</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -8761,13 +8787,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
+        <v>621</v>
+      </c>
+      <c r="D19" t="s">
+        <v>625</v>
+      </c>
+      <c r="E19" s="10" t="s">
         <v>622</v>
-      </c>
-      <c r="D19" t="s">
-        <v>626</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -8775,10 +8801,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
+        <v>623</v>
+      </c>
+      <c r="E20" s="10" t="s">
         <v>624</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -8786,13 +8812,13 @@
         <v>3</v>
       </c>
       <c r="C21" t="s">
+        <v>626</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E21" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>629</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -8800,10 +8826,10 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>629</v>
+      </c>
+      <c r="E22" s="10" t="s">
         <v>630</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -8811,13 +8837,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
+        <v>631</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>632</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -8825,115 +8851,115 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
+        <v>635</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>637</v>
-      </c>
       <c r="E24" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B25">
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>644</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27" t="s">
+        <v>640</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="10" t="s">
         <v>642</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B28">
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D28" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>646</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
+        <v>650</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="11" t="s">
         <v>652</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -8941,13 +8967,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
+        <v>654</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>655</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>657</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -8955,30 +8981,30 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
+        <v>657</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>658</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
+        <v>660</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="E33" s="10" t="s">
         <v>661</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -8986,30 +9012,30 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
+        <v>663</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E34" s="11" t="s">
         <v>664</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
+        <v>666</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="E35" s="10" t="s">
         <v>667</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>669</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9017,47 +9043,47 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D36" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E36" s="11" t="s">
         <v>670</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
       <c r="C38" t="s">
+        <v>685</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="E38" s="11" t="s">
         <v>686</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -9065,10 +9091,10 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
+        <v>688</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>689</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -9084,7 +9110,7 @@
   <dimension ref="A2:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9099,43 +9125,43 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B2" s="33" t="s">
+        <v>577</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>578</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>579</v>
       </c>
       <c r="D2" s="32" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>523</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>524</v>
-      </c>
       <c r="G2" s="32" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>676</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>677</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -9143,34 +9169,45 @@
     </row>
     <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>681</v>
+      </c>
+      <c r="C4" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C4" t="s">
-        <v>681</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>683</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>690</v>
+      </c>
+      <c r="C5" t="s">
         <v>691</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>692</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E6" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>696</v>
+      </c>
+      <c r="C6" t="s">
+        <v>697</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="703">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3791,6 +3791,18 @@
   </si>
   <si>
     <t>오랜만이고 시험준비가 급해서 먼저봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산(12982)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두개 뽑아서 더하기(68644)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8534,10 +8546,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H39"/>
+  <dimension ref="A2:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9097,6 +9109,25 @@
         <v>689</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>700</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>702</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9109,8 +9140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="705">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3803,6 +3803,18 @@
   </si>
   <si>
     <t>두개 뽑아서 더하기(68644)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음 풀이는 combination을 생각했다.
+그러다보니 nC2 성능이라 성능이 너무 안나왔다.
+브루드포스로 푸는 경우 2n 의 성능이다.
+시간은 시간대로 날리고 통과는 못하는 결과를 낳았다.
+좀 더 단순하게 효율적으로 짜는걸 항상 생각하자!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성능 못통과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8549,7 +8561,7 @@
   <dimension ref="A2:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9120,12 +9132,18 @@
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" t="s">
         <v>702</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>704</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="707">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3815,6 +3815,14 @@
   </si>
   <si>
     <t>성능 못통과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016년(12901)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자바로 통과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8558,7 +8566,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H41"/>
+  <dimension ref="A2:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
@@ -9144,6 +9152,17 @@
       </c>
       <c r="E41" s="10" t="s">
         <v>704</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>705</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>706</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="709">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3823,6 +3823,14 @@
   </si>
   <si>
     <t>자바로 통과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나머지가 1이 되는 수 찾기(87389)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4470,27 +4478,27 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4522,7 +4530,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4546,7 +4554,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4564,7 +4572,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4582,7 +4590,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4603,7 +4611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4624,7 +4632,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4645,7 +4653,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4663,7 +4671,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4691,7 +4699,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4709,7 +4717,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4725,7 +4733,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4741,7 +4749,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4762,7 +4770,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4778,7 +4786,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4790,7 +4798,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4808,7 +4816,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4834,7 +4842,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4852,7 +4860,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4888,7 +4896,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4909,7 +4917,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4925,7 +4933,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4946,7 +4954,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4988,7 +4996,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -5014,7 +5022,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -5038,7 +5046,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -5062,7 +5070,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -5083,7 +5091,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -5104,7 +5112,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -5122,7 +5130,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -5143,7 +5151,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -5169,7 +5177,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5190,7 +5198,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -5212,7 +5220,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -5227,7 +5235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -5237,7 +5245,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -5252,7 +5260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -5267,7 +5275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -5277,7 +5285,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -5292,7 +5300,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5307,7 +5315,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -5317,7 +5325,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -5332,7 +5340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -5347,7 +5355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -5357,7 +5365,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -5372,7 +5380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -5382,7 +5390,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -5397,7 +5405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -5407,7 +5415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -5422,7 +5430,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -5432,7 +5440,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -5457,7 +5465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -5483,7 +5491,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5521,7 +5529,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5532,7 +5540,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5553,7 +5561,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5574,7 +5582,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5607,7 +5615,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5625,7 +5633,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5643,7 +5651,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5664,7 +5672,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5685,7 +5693,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5706,7 +5714,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5730,7 +5738,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5748,7 +5756,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5777,7 +5785,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5801,7 +5809,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5825,25 +5833,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5864,22 +5872,22 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
         <v>277</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5922,7 +5930,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>248</v>
       </c>
@@ -5930,7 +5938,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>256</v>
       </c>
@@ -5957,7 +5965,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
         <v>257</v>
       </c>
@@ -5974,7 +5982,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -5998,7 +6006,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -6022,7 +6030,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -6043,7 +6051,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -6064,7 +6072,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -6085,7 +6093,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -6106,7 +6114,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -6127,7 +6135,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -6148,7 +6156,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -6169,7 +6177,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -6193,7 +6201,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -6214,7 +6222,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -6238,7 +6246,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -6262,7 +6270,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -6286,7 +6294,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -6307,7 +6315,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6328,7 +6336,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -6342,7 +6350,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -6366,7 +6374,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -6380,7 +6388,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -6401,7 +6409,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -6425,7 +6433,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -6446,7 +6454,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -6470,7 +6478,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -6481,7 +6489,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -6505,7 +6513,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6516,7 +6524,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6540,7 +6548,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6585,7 +6593,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>249</v>
       </c>
@@ -6599,7 +6607,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E37" s="15" t="s">
         <v>250</v>
       </c>
@@ -6617,7 +6625,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>252</v>
       </c>
@@ -6625,7 +6633,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
         <v>253</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
         <v>254</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H41" t="s">
         <v>289</v>
       </c>
@@ -6649,7 +6657,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>291</v>
       </c>
@@ -6667,7 +6675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>293</v>
       </c>
@@ -6675,7 +6683,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
         <v>308</v>
       </c>
@@ -6693,7 +6701,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E45" s="14" t="s">
         <v>306</v>
       </c>
@@ -6704,7 +6712,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
         <v>299</v>
       </c>
@@ -6722,7 +6730,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>300</v>
       </c>
@@ -6740,7 +6748,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>302</v>
       </c>
@@ -6758,7 +6766,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
         <v>307</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E50" s="14" t="s">
         <v>309</v>
       </c>
@@ -6787,7 +6795,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
         <v>311</v>
       </c>
@@ -6805,7 +6813,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>313</v>
       </c>
@@ -6823,7 +6831,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
         <v>315</v>
       </c>
@@ -6841,7 +6849,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>317</v>
       </c>
@@ -6859,7 +6867,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E55" s="1" t="s">
         <v>319</v>
       </c>
@@ -6877,7 +6885,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>321</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
         <v>322</v>
       </c>
@@ -6903,7 +6911,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
         <v>325</v>
       </c>
@@ -6921,7 +6929,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>326</v>
       </c>
@@ -6939,7 +6947,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E60" s="1" t="s">
         <v>328</v>
       </c>
@@ -6957,7 +6965,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E61" s="1" t="s">
         <v>330</v>
       </c>
@@ -6975,7 +6983,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D62" s="5" t="s">
         <v>332</v>
       </c>
@@ -6989,7 +6997,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -7007,7 +7015,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>334</v>
       </c>
@@ -7025,7 +7033,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
         <v>336</v>
       </c>
@@ -7043,7 +7051,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>338</v>
       </c>
@@ -7061,7 +7069,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -7076,7 +7084,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>340</v>
       </c>
@@ -7094,7 +7102,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>342</v>
       </c>
@@ -7112,7 +7120,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>344</v>
       </c>
@@ -7130,7 +7138,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>346</v>
       </c>
@@ -7148,7 +7156,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E72" s="1" t="s">
         <v>348</v>
       </c>
@@ -7166,7 +7174,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
         <v>354</v>
       </c>
@@ -7174,7 +7182,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
         <v>355</v>
       </c>
@@ -7182,7 +7190,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H75" t="s">
         <v>356</v>
       </c>
@@ -7190,7 +7198,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H76" t="s">
         <v>357</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5" t="s">
         <v>358</v>
       </c>
@@ -7212,7 +7220,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
         <v>360</v>
       </c>
@@ -7230,7 +7238,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
         <v>362</v>
       </c>
@@ -7248,7 +7256,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>364</v>
       </c>
@@ -7266,7 +7274,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7278,7 +7286,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>365</v>
       </c>
@@ -7291,7 +7299,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>368</v>
       </c>
@@ -7309,7 +7317,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>370</v>
       </c>
@@ -7327,7 +7335,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7339,7 +7347,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>373</v>
       </c>
@@ -7357,7 +7365,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>375</v>
       </c>
@@ -7375,7 +7383,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E88" s="1" t="s">
         <v>377</v>
       </c>
@@ -7393,7 +7401,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D89" s="5" t="s">
         <v>389</v>
       </c>
@@ -7407,7 +7415,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>390</v>
       </c>
@@ -7425,7 +7433,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>392</v>
       </c>
@@ -7443,7 +7451,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>394</v>
       </c>
@@ -7461,7 +7469,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>396</v>
       </c>
@@ -7479,7 +7487,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>398</v>
       </c>
@@ -7497,7 +7505,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>437</v>
       </c>
@@ -7515,7 +7523,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E96" s="1" t="s">
         <v>401</v>
       </c>
@@ -7533,7 +7541,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7545,7 +7553,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>404</v>
       </c>
@@ -7563,7 +7571,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>406</v>
       </c>
@@ -7581,7 +7589,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>408</v>
       </c>
@@ -7599,7 +7607,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
@@ -7620,12 +7628,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J102" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E103" s="1" t="s">
         <v>412</v>
       </c>
@@ -7643,7 +7651,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E104" s="1" t="s">
         <v>414</v>
       </c>
@@ -7661,7 +7669,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H105" t="s">
         <v>416</v>
       </c>
@@ -7669,7 +7677,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E106" s="1" t="s">
         <v>417</v>
       </c>
@@ -7687,7 +7695,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7699,7 +7707,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>420</v>
       </c>
@@ -7717,7 +7725,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H109" t="s">
         <v>422</v>
       </c>
@@ -7725,7 +7733,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E110" s="1" t="s">
         <v>423</v>
       </c>
@@ -7743,7 +7751,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E111" s="1" t="s">
         <v>425</v>
       </c>
@@ -7764,7 +7772,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>432</v>
       </c>
@@ -7775,12 +7783,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J113" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E114" s="1" t="s">
         <v>428</v>
       </c>
@@ -7798,7 +7806,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E115" s="1" t="s">
         <v>430</v>
       </c>
@@ -7819,7 +7827,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J116" s="16" t="s">
         <v>486</v>
       </c>
@@ -7842,15 +7850,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>508</v>
       </c>
@@ -7871,7 +7879,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>509</v>
       </c>
@@ -7882,7 +7890,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>524</v>
@@ -7895,7 +7903,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>527</v>
@@ -7908,7 +7916,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>532</v>
@@ -7923,7 +7931,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>533</v>
@@ -7938,7 +7946,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7947,7 +7955,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>510</v>
       </c>
@@ -7958,7 +7966,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>534</v>
@@ -7971,7 +7979,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>535</v>
@@ -7984,7 +7992,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>536</v>
@@ -7997,7 +8005,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>537</v>
@@ -8010,7 +8018,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8019,7 +8027,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>511</v>
       </c>
@@ -8030,7 +8038,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>539</v>
@@ -8045,7 +8053,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>542</v>
@@ -8058,7 +8066,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>543</v>
@@ -8071,7 +8079,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -8080,7 +8088,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>512</v>
       </c>
@@ -8091,7 +8099,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>544</v>
@@ -8104,7 +8112,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>545</v>
@@ -8117,7 +8125,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>546</v>
@@ -8130,7 +8138,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8139,7 +8147,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8148,7 +8156,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
         <v>513</v>
       </c>
@@ -8159,7 +8167,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>547</v>
@@ -8172,7 +8180,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>549</v>
@@ -8185,7 +8193,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>550</v>
@@ -8198,7 +8206,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8207,7 +8215,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
         <v>552</v>
       </c>
@@ -8220,7 +8228,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>554</v>
@@ -8233,7 +8241,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>555</v>
@@ -8246,7 +8254,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>556</v>
@@ -8261,7 +8269,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>557</v>
@@ -8274,7 +8282,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>558</v>
@@ -8287,7 +8295,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>560</v>
@@ -8300,7 +8308,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>514</v>
       </c>
@@ -8311,7 +8319,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>561</v>
@@ -8324,7 +8332,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>562</v>
@@ -8337,7 +8345,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>563</v>
@@ -8350,7 +8358,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>564</v>
@@ -8363,7 +8371,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8372,7 +8380,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="s">
         <v>515</v>
       </c>
@@ -8383,7 +8391,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>565</v>
@@ -8396,7 +8404,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>566</v>
@@ -8409,7 +8417,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>567</v>
@@ -8422,7 +8430,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>568</v>
@@ -8435,7 +8443,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8444,7 +8452,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="s">
         <v>516</v>
       </c>
@@ -8455,7 +8463,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>569</v>
@@ -8470,7 +8478,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>517</v>
@@ -8483,7 +8491,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8492,7 +8500,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="s">
         <v>518</v>
       </c>
@@ -8503,7 +8511,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>570</v>
@@ -8516,7 +8524,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>519</v>
@@ -8531,7 +8539,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>520</v>
@@ -8542,19 +8550,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8566,22 +8574,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H42"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -8605,7 +8613,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -8622,7 +8630,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8636,7 +8644,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>584</v>
       </c>
@@ -8644,7 +8652,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8658,7 +8666,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8672,7 +8680,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8683,7 +8691,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8697,7 +8705,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8708,7 +8716,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8719,7 +8727,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8733,7 +8741,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>3</v>
       </c>
@@ -8744,7 +8752,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>1</v>
       </c>
@@ -8758,7 +8766,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>1</v>
       </c>
@@ -8769,7 +8777,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>2</v>
       </c>
@@ -8786,7 +8794,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8800,7 +8808,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>2</v>
       </c>
@@ -8814,7 +8822,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8828,7 +8836,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1</v>
       </c>
@@ -8839,7 +8847,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8853,7 +8861,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>1</v>
       </c>
@@ -8864,7 +8872,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>2</v>
       </c>
@@ -8878,7 +8886,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8892,7 +8900,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="136" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>673</v>
       </c>
@@ -8909,7 +8917,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>673</v>
       </c>
@@ -8926,7 +8934,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>673</v>
       </c>
@@ -8943,7 +8951,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="102" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>673</v>
       </c>
@@ -8960,7 +8968,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>673</v>
       </c>
@@ -8977,7 +8985,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="68" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>673</v>
       </c>
@@ -8994,7 +9002,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>1</v>
       </c>
@@ -9008,7 +9016,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>1</v>
       </c>
@@ -9022,7 +9030,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>673</v>
       </c>
@@ -9039,7 +9047,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>1</v>
       </c>
@@ -9053,7 +9061,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>673</v>
       </c>
@@ -9070,7 +9078,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>1</v>
       </c>
@@ -9084,7 +9092,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="153" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>673</v>
       </c>
@@ -9101,7 +9109,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>684</v>
       </c>
@@ -9118,7 +9126,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>2</v>
       </c>
@@ -9129,7 +9137,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>1</v>
       </c>
@@ -9140,7 +9148,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>1</v>
       </c>
@@ -9154,7 +9162,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>1</v>
       </c>
@@ -9163,6 +9171,18 @@
       </c>
       <c r="E42" s="11" t="s">
         <v>706</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>707</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="10" t="s">
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -9181,17 +9201,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -9217,7 +9237,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>672</v>
       </c>
@@ -9235,7 +9255,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -9249,7 +9269,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>690</v>
       </c>
@@ -9263,7 +9283,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>696</v>
       </c>
@@ -9277,117 +9297,117 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" s="4"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="4"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="4"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
     </row>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="711">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3827,6 +3827,14 @@
   </si>
   <si>
     <t>나머지가 1이 되는 수 찾기(87389)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소직사각형(86491)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4478,27 +4486,27 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4530,7 +4538,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4554,7 +4562,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4572,7 +4580,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4590,7 +4598,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4611,7 +4619,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4632,7 +4640,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4653,7 +4661,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4671,7 +4679,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4699,7 +4707,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4717,7 +4725,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4733,7 +4741,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4749,7 +4757,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4770,7 +4778,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4786,7 +4794,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4798,7 +4806,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4816,7 +4824,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4842,7 +4850,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4860,7 +4868,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4878,7 +4886,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4896,7 +4904,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4917,7 +4925,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4933,7 +4941,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -4954,7 +4962,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -4996,7 +5004,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -5022,7 +5030,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -5046,7 +5054,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -5070,7 +5078,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -5091,7 +5099,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -5130,7 +5138,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -5151,7 +5159,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -5177,7 +5185,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5198,7 +5206,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -5220,7 +5228,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -5235,7 +5243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -5245,7 +5253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,7 +5268,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -5275,7 +5283,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -5285,7 +5293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -5300,7 +5308,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5315,7 +5323,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -5325,7 +5333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -5340,7 +5348,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -5355,7 +5363,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -5365,7 +5373,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -5380,7 +5388,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -5390,7 +5398,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -5405,7 +5413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -5415,7 +5423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -5430,7 +5438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -5440,7 +5448,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -5455,7 +5463,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -5465,7 +5473,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -5491,7 +5499,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5515,7 +5523,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5529,7 +5537,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5540,7 +5548,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5561,7 +5569,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5582,7 +5590,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5600,7 +5608,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5615,7 +5623,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5633,7 +5641,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5651,7 +5659,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5672,7 +5680,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5693,7 +5701,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5714,7 +5722,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5756,7 +5764,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5774,7 +5782,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5785,7 +5793,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5809,7 +5817,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5833,25 +5841,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5872,22 +5880,22 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>277</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5930,7 +5938,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>248</v>
       </c>
@@ -5938,7 +5946,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>256</v>
       </c>
@@ -5965,7 +5973,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>257</v>
       </c>
@@ -5982,7 +5990,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -6006,7 +6014,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -6030,7 +6038,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -6072,7 +6080,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -6093,7 +6101,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -6114,7 +6122,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -6135,7 +6143,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -6156,7 +6164,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -6177,7 +6185,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -6201,7 +6209,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -6222,7 +6230,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -6246,7 +6254,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -6270,7 +6278,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -6294,7 +6302,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -6315,7 +6323,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -6350,7 +6358,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -6374,7 +6382,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -6388,7 +6396,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -6409,7 +6417,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -6433,7 +6441,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -6454,7 +6462,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -6478,7 +6486,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -6489,7 +6497,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -6513,7 +6521,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6524,7 +6532,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6548,7 +6556,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6569,7 +6577,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6593,7 +6601,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>249</v>
       </c>
@@ -6607,7 +6615,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
         <v>250</v>
       </c>
@@ -6625,7 +6633,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>252</v>
       </c>
@@ -6633,7 +6641,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>253</v>
       </c>
@@ -6641,7 +6649,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>254</v>
       </c>
@@ -6649,7 +6657,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>289</v>
       </c>
@@ -6657,7 +6665,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>291</v>
       </c>
@@ -6675,7 +6683,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>293</v>
       </c>
@@ -6683,7 +6691,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>308</v>
       </c>
@@ -6701,7 +6709,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>306</v>
       </c>
@@ -6712,7 +6720,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>299</v>
       </c>
@@ -6730,7 +6738,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>300</v>
       </c>
@@ -6748,7 +6756,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>302</v>
       </c>
@@ -6766,7 +6774,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>307</v>
       </c>
@@ -6784,7 +6792,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
         <v>309</v>
       </c>
@@ -6795,7 +6803,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>311</v>
       </c>
@@ -6813,7 +6821,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>313</v>
       </c>
@@ -6831,7 +6839,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>315</v>
       </c>
@@ -6849,7 +6857,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>317</v>
       </c>
@@ -6867,7 +6875,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>319</v>
       </c>
@@ -6885,7 +6893,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>321</v>
       </c>
@@ -6893,7 +6901,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>322</v>
       </c>
@@ -6911,7 +6919,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>325</v>
       </c>
@@ -6929,7 +6937,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>326</v>
       </c>
@@ -6947,7 +6955,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>328</v>
       </c>
@@ -6965,7 +6973,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
         <v>330</v>
       </c>
@@ -6983,7 +6991,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>332</v>
       </c>
@@ -6997,7 +7005,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -7015,7 +7023,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>334</v>
       </c>
@@ -7033,7 +7041,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>336</v>
       </c>
@@ -7051,7 +7059,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>338</v>
       </c>
@@ -7069,7 +7077,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -7084,7 +7092,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>340</v>
       </c>
@@ -7102,7 +7110,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>342</v>
       </c>
@@ -7120,7 +7128,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>344</v>
       </c>
@@ -7138,7 +7146,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>346</v>
       </c>
@@ -7156,7 +7164,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
         <v>348</v>
       </c>
@@ -7174,7 +7182,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>354</v>
       </c>
@@ -7182,7 +7190,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>355</v>
       </c>
@@ -7190,7 +7198,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>356</v>
       </c>
@@ -7198,7 +7206,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>357</v>
       </c>
@@ -7206,7 +7214,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
         <v>358</v>
       </c>
@@ -7220,7 +7228,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>360</v>
       </c>
@@ -7238,7 +7246,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>362</v>
       </c>
@@ -7256,7 +7264,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>364</v>
       </c>
@@ -7274,7 +7282,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7286,7 +7294,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>365</v>
       </c>
@@ -7299,7 +7307,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>368</v>
       </c>
@@ -7317,7 +7325,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>370</v>
       </c>
@@ -7335,7 +7343,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7347,7 +7355,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>373</v>
       </c>
@@ -7365,7 +7373,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>375</v>
       </c>
@@ -7383,7 +7391,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
         <v>377</v>
       </c>
@@ -7401,7 +7409,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
         <v>389</v>
       </c>
@@ -7415,7 +7423,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>390</v>
       </c>
@@ -7433,7 +7441,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>392</v>
       </c>
@@ -7451,7 +7459,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>394</v>
       </c>
@@ -7469,7 +7477,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>396</v>
       </c>
@@ -7487,7 +7495,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>398</v>
       </c>
@@ -7505,7 +7513,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>437</v>
       </c>
@@ -7523,7 +7531,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
         <v>401</v>
       </c>
@@ -7541,7 +7549,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7553,7 +7561,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>404</v>
       </c>
@@ -7571,7 +7579,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>406</v>
       </c>
@@ -7589,7 +7597,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>408</v>
       </c>
@@ -7607,7 +7615,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
@@ -7628,12 +7636,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
         <v>412</v>
       </c>
@@ -7651,7 +7659,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
         <v>414</v>
       </c>
@@ -7669,7 +7677,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>416</v>
       </c>
@@ -7677,7 +7685,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
         <v>417</v>
       </c>
@@ -7695,7 +7703,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7707,7 +7715,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
         <v>420</v>
       </c>
@@ -7725,7 +7733,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>422</v>
       </c>
@@ -7733,7 +7741,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>423</v>
       </c>
@@ -7751,7 +7759,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
         <v>425</v>
       </c>
@@ -7772,7 +7780,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>432</v>
       </c>
@@ -7783,12 +7791,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
         <v>428</v>
       </c>
@@ -7806,7 +7814,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
         <v>430</v>
       </c>
@@ -7827,7 +7835,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
         <v>486</v>
       </c>
@@ -7850,15 +7858,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>508</v>
       </c>
@@ -7879,7 +7887,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>509</v>
       </c>
@@ -7890,7 +7898,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>524</v>
@@ -7903,7 +7911,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>527</v>
@@ -7916,7 +7924,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>532</v>
@@ -7931,7 +7939,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>533</v>
@@ -7946,7 +7954,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -7955,7 +7963,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>510</v>
       </c>
@@ -7966,7 +7974,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>534</v>
@@ -7979,7 +7987,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>535</v>
@@ -7992,7 +8000,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>536</v>
@@ -8005,7 +8013,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>537</v>
@@ -8018,7 +8026,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8027,7 +8035,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>511</v>
       </c>
@@ -8038,7 +8046,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>539</v>
@@ -8053,7 +8061,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>542</v>
@@ -8066,7 +8074,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>543</v>
@@ -8079,7 +8087,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -8088,7 +8096,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>512</v>
       </c>
@@ -8099,7 +8107,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>544</v>
@@ -8112,7 +8120,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>545</v>
@@ -8125,7 +8133,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>546</v>
@@ -8138,7 +8146,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8147,7 +8155,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8156,7 +8164,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>513</v>
       </c>
@@ -8167,7 +8175,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>547</v>
@@ -8180,7 +8188,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>549</v>
@@ -8193,7 +8201,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>550</v>
@@ -8206,7 +8214,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8215,7 +8223,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>552</v>
       </c>
@@ -8228,7 +8236,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>554</v>
@@ -8241,7 +8249,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>555</v>
@@ -8254,7 +8262,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>556</v>
@@ -8269,7 +8277,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>557</v>
@@ -8282,7 +8290,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>558</v>
@@ -8295,7 +8303,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>560</v>
@@ -8308,7 +8316,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>514</v>
       </c>
@@ -8319,7 +8327,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>561</v>
@@ -8332,7 +8340,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>562</v>
@@ -8345,7 +8353,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>563</v>
@@ -8358,7 +8366,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>564</v>
@@ -8371,7 +8379,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8380,7 +8388,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>515</v>
       </c>
@@ -8391,7 +8399,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>565</v>
@@ -8404,7 +8412,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>566</v>
@@ -8417,7 +8425,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>567</v>
@@ -8430,7 +8438,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>568</v>
@@ -8443,7 +8451,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8452,7 +8460,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>516</v>
       </c>
@@ -8463,7 +8471,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>569</v>
@@ -8478,7 +8486,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>517</v>
@@ -8491,7 +8499,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8500,7 +8508,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>518</v>
       </c>
@@ -8511,7 +8519,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>570</v>
@@ -8524,7 +8532,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>519</v>
@@ -8539,7 +8547,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>520</v>
@@ -8550,19 +8558,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8574,22 +8582,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H43"/>
+  <dimension ref="A2:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -8613,7 +8621,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -8630,7 +8638,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8644,7 +8652,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>584</v>
       </c>
@@ -8652,7 +8660,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8666,7 +8674,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8680,7 +8688,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8691,7 +8699,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8705,7 +8713,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8716,7 +8724,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8727,7 +8735,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8741,7 +8749,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -8752,7 +8760,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -8766,7 +8774,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -8777,7 +8785,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -8794,7 +8802,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8808,7 +8816,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -8822,7 +8830,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8836,7 +8844,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -8847,7 +8855,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8861,7 +8869,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -8872,7 +8880,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -8886,7 +8894,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8900,7 +8908,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>673</v>
       </c>
@@ -8917,7 +8925,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>673</v>
       </c>
@@ -8934,7 +8942,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>673</v>
       </c>
@@ -8951,7 +8959,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="102" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>673</v>
       </c>
@@ -8968,7 +8976,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>673</v>
       </c>
@@ -8985,7 +8993,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>673</v>
       </c>
@@ -9002,7 +9010,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -9016,7 +9024,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -9030,7 +9038,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>673</v>
       </c>
@@ -9047,7 +9055,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -9061,7 +9069,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>673</v>
       </c>
@@ -9078,7 +9086,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
@@ -9092,7 +9100,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="153" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>673</v>
       </c>
@@ -9109,7 +9117,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>684</v>
       </c>
@@ -9126,7 +9134,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>2</v>
       </c>
@@ -9137,7 +9145,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
@@ -9148,7 +9156,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -9162,7 +9170,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -9173,7 +9181,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -9183,6 +9191,17 @@
       <c r="D43" s="22"/>
       <c r="E43" s="10" t="s">
         <v>708</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>709</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -9201,17 +9220,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -9237,7 +9256,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>672</v>
       </c>
@@ -9255,7 +9274,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -9269,7 +9288,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>690</v>
       </c>
@@ -9283,7 +9302,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>696</v>
       </c>
@@ -9297,117 +9316,117 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="4"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="4"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="4"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
     </row>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="713">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3835,6 +3835,14 @@
   </si>
   <si>
     <t>최소직사각형(86491)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부족한 금액 계산하기(82612)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -8582,10 +8590,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H44"/>
+  <dimension ref="A2:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9202,6 +9210,17 @@
       </c>
       <c r="E44" s="11" t="s">
         <v>710</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>711</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="716">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3847,6 +3847,18 @@
   </si>
   <si>
     <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람의 풀이(12903)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간을 구할 때 2로 나누기전에 1을 빼서 홀수/짝수 분기처리를 피할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8590,10 +8602,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H45"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9221,6 +9233,20 @@
       </c>
       <c r="E45" s="10" t="s">
         <v>712</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>713</v>
+      </c>
+      <c r="D46" t="s">
+        <v>715</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="720">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3859,6 +3859,22 @@
   </si>
   <si>
     <t>중간을 구할 때 2로 나누기전에 1을 빼서 홀수/짝수 분기처리를 피할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴 리뉴얼(72411)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 문자로 comb 구하지말고, 각각별로 comb 구하는게 성능에 유리하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간내 못품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8602,10 +8618,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H46"/>
+  <dimension ref="A2:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9247,6 +9263,23 @@
       </c>
       <c r="E46" s="11" t="s">
         <v>714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>717</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>716</v>
+      </c>
+      <c r="D47" t="s">
+        <v>718</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="722">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3875,6 +3875,14 @@
   </si>
   <si>
     <t>시간내 못품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 숫자는 싫어(12906)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8618,10 +8626,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H47"/>
+  <dimension ref="A2:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9280,6 +9288,17 @@
       </c>
       <c r="E47" s="10" t="s">
         <v>719</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>720</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="725">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3879,6 +3879,18 @@
   </si>
   <si>
     <t>같은 숫자는 싫어(12906)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나누어 떨어지는 숫자 배열(12910)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>람다를 이용하여 풀어보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4530,27 +4542,27 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="3.625" customWidth="1"/>
-    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.625" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="3.58203125" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.08203125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4582,7 +4594,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4606,7 +4618,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4624,7 +4636,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4642,7 +4654,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4663,7 +4675,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4684,7 +4696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4705,7 +4717,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4723,7 +4735,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4751,7 +4763,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4769,7 +4781,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4785,7 +4797,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4801,7 +4813,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4822,7 +4834,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4838,7 +4850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4850,7 +4862,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4868,7 +4880,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4894,7 +4906,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4912,7 +4924,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4930,7 +4942,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4948,7 +4960,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4969,7 +4981,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4985,7 +4997,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -5006,7 +5018,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -5048,7 +5060,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -5074,7 +5086,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -5098,7 +5110,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -5122,7 +5134,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -5143,7 +5155,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -5164,7 +5176,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -5182,7 +5194,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -5203,7 +5215,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -5229,7 +5241,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5250,7 +5262,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -5272,7 +5284,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -5287,7 +5299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -5297,7 +5309,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -5312,7 +5324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -5327,7 +5339,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -5337,7 +5349,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -5352,7 +5364,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5367,7 +5379,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -5377,7 +5389,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -5392,7 +5404,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,7 +5419,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -5417,7 +5429,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -5432,7 +5444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -5442,7 +5454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -5457,7 +5469,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -5467,7 +5479,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -5482,7 +5494,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -5492,7 +5504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -5507,7 +5519,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -5517,7 +5529,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -5543,7 +5555,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5567,7 +5579,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5592,7 +5604,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5613,7 +5625,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5634,7 +5646,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5652,7 +5664,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5667,7 +5679,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5685,7 +5697,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5703,7 +5715,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5724,7 +5736,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5745,7 +5757,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5766,7 +5778,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5790,7 +5802,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5808,7 +5820,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5826,7 +5838,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5837,7 +5849,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5861,7 +5873,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5885,25 +5897,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5924,22 +5936,22 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.08203125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.875" customWidth="1"/>
-    <col min="12" max="12" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="62.83203125" customWidth="1"/>
+    <col min="12" max="12" width="34.83203125" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
       <c r="J2" s="1" t="s">
         <v>277</v>
       </c>
@@ -5947,7 +5959,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5982,7 +5994,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>248</v>
       </c>
@@ -5990,7 +6002,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
       <c r="E5" s="14" t="s">
         <v>256</v>
       </c>
@@ -6017,7 +6029,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
       <c r="E6" s="14" t="s">
         <v>257</v>
       </c>
@@ -6034,7 +6046,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -6058,7 +6070,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -6082,7 +6094,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -6103,7 +6115,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -6124,7 +6136,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -6145,7 +6157,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -6166,7 +6178,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -6208,7 +6220,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -6229,7 +6241,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -6253,7 +6265,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -6274,7 +6286,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -6298,7 +6310,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -6322,7 +6334,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -6346,7 +6358,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -6367,7 +6379,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6388,7 +6400,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -6402,7 +6414,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -6426,7 +6438,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -6440,7 +6452,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -6461,7 +6473,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -6485,7 +6497,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -6506,7 +6518,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -6530,7 +6542,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -6541,7 +6553,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -6565,7 +6577,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6576,7 +6588,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6600,7 +6612,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6621,7 +6633,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6645,7 +6657,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D36" s="5" t="s">
         <v>249</v>
       </c>
@@ -6659,7 +6671,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E37" s="15" t="s">
         <v>250</v>
       </c>
@@ -6677,7 +6689,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H38" t="s">
         <v>252</v>
       </c>
@@ -6685,7 +6697,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H39" t="s">
         <v>253</v>
       </c>
@@ -6693,7 +6705,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H40" t="s">
         <v>254</v>
       </c>
@@ -6701,7 +6713,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H41" t="s">
         <v>289</v>
       </c>
@@ -6709,7 +6721,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E42" s="1" t="s">
         <v>291</v>
       </c>
@@ -6727,7 +6739,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H43" t="s">
         <v>293</v>
       </c>
@@ -6735,7 +6747,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E44" s="14" t="s">
         <v>308</v>
       </c>
@@ -6753,7 +6765,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E45" s="14" t="s">
         <v>306</v>
       </c>
@@ -6764,7 +6776,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E46" s="1" t="s">
         <v>299</v>
       </c>
@@ -6782,7 +6794,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E47" s="1" t="s">
         <v>300</v>
       </c>
@@ -6800,7 +6812,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E48" s="1" t="s">
         <v>302</v>
       </c>
@@ -6818,7 +6830,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E49" s="14" t="s">
         <v>307</v>
       </c>
@@ -6836,7 +6848,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
       <c r="E50" s="14" t="s">
         <v>309</v>
       </c>
@@ -6847,7 +6859,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E51" s="1" t="s">
         <v>311</v>
       </c>
@@ -6865,7 +6877,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E52" s="1" t="s">
         <v>313</v>
       </c>
@@ -6883,7 +6895,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E53" s="1" t="s">
         <v>315</v>
       </c>
@@ -6901,7 +6913,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E54" s="1" t="s">
         <v>317</v>
       </c>
@@ -6919,7 +6931,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E55" s="1" t="s">
         <v>319</v>
       </c>
@@ -6937,7 +6949,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H56" t="s">
         <v>321</v>
       </c>
@@ -6945,7 +6957,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E57" s="1" t="s">
         <v>322</v>
       </c>
@@ -6963,7 +6975,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E58" s="1" t="s">
         <v>325</v>
       </c>
@@ -6981,7 +6993,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E59" s="1" t="s">
         <v>326</v>
       </c>
@@ -6999,7 +7011,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E60" s="1" t="s">
         <v>328</v>
       </c>
@@ -7017,7 +7029,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E61" s="1" t="s">
         <v>330</v>
       </c>
@@ -7035,7 +7047,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D62" s="5" t="s">
         <v>332</v>
       </c>
@@ -7049,7 +7061,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -7067,7 +7079,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E64" s="1" t="s">
         <v>334</v>
       </c>
@@ -7085,7 +7097,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E65" s="1" t="s">
         <v>336</v>
       </c>
@@ -7103,7 +7115,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E66" s="1" t="s">
         <v>338</v>
       </c>
@@ -7121,7 +7133,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -7136,7 +7148,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E68" s="1" t="s">
         <v>340</v>
       </c>
@@ -7154,7 +7166,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E69" s="1" t="s">
         <v>342</v>
       </c>
@@ -7172,7 +7184,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E70" s="1" t="s">
         <v>344</v>
       </c>
@@ -7190,7 +7202,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E71" s="1" t="s">
         <v>346</v>
       </c>
@@ -7208,7 +7220,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E72" s="1" t="s">
         <v>348</v>
       </c>
@@ -7226,7 +7238,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H73" t="s">
         <v>354</v>
       </c>
@@ -7234,7 +7246,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H74" t="s">
         <v>355</v>
       </c>
@@ -7242,7 +7254,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
       <c r="H75" t="s">
         <v>356</v>
       </c>
@@ -7250,7 +7262,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H76" t="s">
         <v>357</v>
       </c>
@@ -7258,7 +7270,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D77" s="5" t="s">
         <v>358</v>
       </c>
@@ -7272,7 +7284,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E78" s="1" t="s">
         <v>360</v>
       </c>
@@ -7290,7 +7302,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E79" s="1" t="s">
         <v>362</v>
       </c>
@@ -7308,7 +7320,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E80" s="1" t="s">
         <v>364</v>
       </c>
@@ -7326,7 +7338,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7338,7 +7350,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E82" s="1" t="s">
         <v>365</v>
       </c>
@@ -7351,7 +7363,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E83" s="1" t="s">
         <v>368</v>
       </c>
@@ -7369,7 +7381,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E84" s="1" t="s">
         <v>370</v>
       </c>
@@ -7387,7 +7399,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7399,7 +7411,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E86" s="1" t="s">
         <v>373</v>
       </c>
@@ -7417,7 +7429,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E87" s="1" t="s">
         <v>375</v>
       </c>
@@ -7435,7 +7447,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E88" s="1" t="s">
         <v>377</v>
       </c>
@@ -7453,7 +7465,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="D89" s="5" t="s">
         <v>389</v>
       </c>
@@ -7467,7 +7479,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E90" s="1" t="s">
         <v>390</v>
       </c>
@@ -7485,7 +7497,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E91" s="1" t="s">
         <v>392</v>
       </c>
@@ -7503,7 +7515,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E92" s="1" t="s">
         <v>394</v>
       </c>
@@ -7521,7 +7533,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E93" s="1" t="s">
         <v>396</v>
       </c>
@@ -7539,7 +7551,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E94" s="1" t="s">
         <v>398</v>
       </c>
@@ -7557,7 +7569,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E95" s="1" t="s">
         <v>437</v>
       </c>
@@ -7575,7 +7587,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
       <c r="E96" s="1" t="s">
         <v>401</v>
       </c>
@@ -7593,7 +7605,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7605,7 +7617,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E98" s="1" t="s">
         <v>404</v>
       </c>
@@ -7623,7 +7635,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E99" s="1" t="s">
         <v>406</v>
       </c>
@@ -7641,7 +7653,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E100" s="1" t="s">
         <v>408</v>
       </c>
@@ -7659,7 +7671,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
@@ -7680,12 +7692,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J102" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E103" s="1" t="s">
         <v>412</v>
       </c>
@@ -7703,7 +7715,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E104" s="1" t="s">
         <v>414</v>
       </c>
@@ -7721,7 +7733,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H105" t="s">
         <v>416</v>
       </c>
@@ -7729,7 +7741,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E106" s="1" t="s">
         <v>417</v>
       </c>
@@ -7747,7 +7759,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7759,7 +7771,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E108" s="1" t="s">
         <v>420</v>
       </c>
@@ -7777,7 +7789,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
       <c r="H109" t="s">
         <v>422</v>
       </c>
@@ -7785,7 +7797,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E110" s="1" t="s">
         <v>423</v>
       </c>
@@ -7803,7 +7815,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E111" s="1" t="s">
         <v>425</v>
       </c>
@@ -7824,7 +7836,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
       <c r="F112" t="s">
         <v>432</v>
       </c>
@@ -7835,12 +7847,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J113" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E114" s="1" t="s">
         <v>428</v>
       </c>
@@ -7858,7 +7870,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
       <c r="E115" s="1" t="s">
         <v>430</v>
       </c>
@@ -7879,7 +7891,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
       <c r="J116" s="16" t="s">
         <v>486</v>
       </c>
@@ -7902,15 +7914,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="31" t="s">
         <v>508</v>
       </c>
@@ -7931,7 +7943,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="23" t="s">
         <v>509</v>
       </c>
@@ -7942,7 +7954,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>524</v>
@@ -7955,7 +7967,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>527</v>
@@ -7968,7 +7980,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>532</v>
@@ -7983,7 +7995,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>533</v>
@@ -7998,7 +8010,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8007,7 +8019,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
         <v>510</v>
       </c>
@@ -8018,7 +8030,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>534</v>
@@ -8031,7 +8043,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>535</v>
@@ -8044,7 +8056,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>536</v>
@@ -8057,7 +8069,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>537</v>
@@ -8070,7 +8082,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8079,7 +8091,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="23" t="s">
         <v>511</v>
       </c>
@@ -8090,7 +8102,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>539</v>
@@ -8105,7 +8117,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>542</v>
@@ -8118,7 +8130,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>543</v>
@@ -8131,7 +8143,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -8140,7 +8152,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="s">
         <v>512</v>
       </c>
@@ -8151,7 +8163,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>544</v>
@@ -8164,7 +8176,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>545</v>
@@ -8177,7 +8189,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>546</v>
@@ -8190,7 +8202,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8199,7 +8211,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8208,7 +8220,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="s">
         <v>513</v>
       </c>
@@ -8219,7 +8231,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>547</v>
@@ -8232,7 +8244,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>549</v>
@@ -8245,7 +8257,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>550</v>
@@ -8258,7 +8270,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8267,7 +8279,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
         <v>552</v>
       </c>
@@ -8280,7 +8292,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>554</v>
@@ -8293,7 +8305,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>555</v>
@@ -8306,7 +8318,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>556</v>
@@ -8321,7 +8333,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>557</v>
@@ -8334,7 +8346,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>558</v>
@@ -8347,7 +8359,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>560</v>
@@ -8360,7 +8372,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="s">
         <v>514</v>
       </c>
@@ -8371,7 +8383,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>561</v>
@@ -8384,7 +8396,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>562</v>
@@ -8397,7 +8409,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>563</v>
@@ -8410,7 +8422,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>564</v>
@@ -8423,7 +8435,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8432,7 +8444,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="s">
         <v>515</v>
       </c>
@@ -8443,7 +8455,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>565</v>
@@ -8456,7 +8468,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>566</v>
@@ -8469,7 +8481,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>567</v>
@@ -8482,7 +8494,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>568</v>
@@ -8495,7 +8507,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8504,7 +8516,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="s">
         <v>516</v>
       </c>
@@ -8515,7 +8527,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>569</v>
@@ -8530,7 +8542,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>517</v>
@@ -8543,7 +8555,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8552,7 +8564,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="s">
         <v>518</v>
       </c>
@@ -8563,7 +8575,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>570</v>
@@ -8576,7 +8588,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>519</v>
@@ -8591,7 +8603,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>520</v>
@@ -8602,19 +8614,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8626,22 +8638,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H48"/>
+  <dimension ref="A2:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="1" max="1" width="10.58203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -8665,7 +8677,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -8682,7 +8694,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8696,7 +8708,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>584</v>
       </c>
@@ -8704,7 +8716,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8718,7 +8730,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8732,7 +8744,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8743,7 +8755,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8757,7 +8769,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8768,7 +8780,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8779,7 +8791,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8793,7 +8805,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>3</v>
       </c>
@@ -8804,7 +8816,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>1</v>
       </c>
@@ -8818,7 +8830,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>1</v>
       </c>
@@ -8829,7 +8841,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>2</v>
       </c>
@@ -8846,7 +8858,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8860,7 +8872,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>2</v>
       </c>
@@ -8874,7 +8886,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8888,7 +8900,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>1</v>
       </c>
@@ -8899,7 +8911,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8913,7 +8925,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>1</v>
       </c>
@@ -8924,7 +8936,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>2</v>
       </c>
@@ -8938,7 +8950,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8952,7 +8964,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="136" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>673</v>
       </c>
@@ -8969,7 +8981,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>673</v>
       </c>
@@ -8986,7 +8998,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>673</v>
       </c>
@@ -9003,7 +9015,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="102" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>673</v>
       </c>
@@ -9020,7 +9032,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>673</v>
       </c>
@@ -9037,7 +9049,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="68" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>673</v>
       </c>
@@ -9054,7 +9066,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>1</v>
       </c>
@@ -9068,7 +9080,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>1</v>
       </c>
@@ -9082,7 +9094,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>673</v>
       </c>
@@ -9099,7 +9111,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>1</v>
       </c>
@@ -9113,7 +9125,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>673</v>
       </c>
@@ -9130,7 +9142,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>1</v>
       </c>
@@ -9144,7 +9156,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="153" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>673</v>
       </c>
@@ -9161,7 +9173,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>684</v>
       </c>
@@ -9178,7 +9190,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B39">
         <v>2</v>
       </c>
@@ -9189,7 +9201,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B40">
         <v>1</v>
       </c>
@@ -9200,7 +9212,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="B41">
         <v>1</v>
       </c>
@@ -9214,7 +9226,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B42">
         <v>1</v>
       </c>
@@ -9225,7 +9237,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B43">
         <v>1</v>
       </c>
@@ -9237,7 +9249,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B44">
         <v>1</v>
       </c>
@@ -9248,7 +9260,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B45">
         <v>1</v>
       </c>
@@ -9259,7 +9271,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B46">
         <v>1</v>
       </c>
@@ -9273,7 +9285,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>717</v>
       </c>
@@ -9290,7 +9302,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B48">
         <v>1</v>
       </c>
@@ -9299,6 +9311,20 @@
       </c>
       <c r="E48" s="11" t="s">
         <v>721</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>722</v>
+      </c>
+      <c r="D49" t="s">
+        <v>723</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -9317,17 +9343,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.375" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="8" max="8" width="39.375" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -9353,7 +9379,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>672</v>
       </c>
@@ -9371,7 +9397,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -9385,7 +9411,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>690</v>
       </c>
@@ -9399,7 +9425,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>696</v>
       </c>
@@ -9413,117 +9439,117 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D21" s="4"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D27" s="4"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D28" s="4"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D29" s="4"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D30" s="4"/>
       <c r="E30" s="11"/>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D31" s="4"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D32" s="4"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D33" s="4"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D34" s="4"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D35" s="4"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D36" s="4"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.45">
       <c r="D37" s="4"/>
       <c r="E37" s="10"/>
     </row>

--- a/doc/알고리즘 문제 목록.xlsx
+++ b/doc/알고리즘 문제 목록.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjshi\git\Algorithm\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\Algorithm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14390" windowHeight="9980" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="9975" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BASIC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="726">
   <si>
     <t>수학</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3895,6 +3895,10 @@
   </si>
   <si>
     <t>완벽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 정수 사이의 합(12912)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4542,27 +4546,27 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="3.58203125" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.58203125" customWidth="1"/>
-    <col min="6" max="6" width="12.08203125" customWidth="1"/>
+    <col min="1" max="2" width="3.625" customWidth="1"/>
+    <col min="3" max="3" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.625" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
     <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="57.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="46.25" customWidth="1"/>
-    <col min="11" max="11" width="47.58203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="I3" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>172</v>
       </c>
@@ -4618,7 +4622,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
@@ -4636,7 +4640,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>10</v>
       </c>
@@ -4654,7 +4658,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
@@ -4696,7 +4700,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
@@ -4717,7 +4721,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="3:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D12" s="5" t="s">
         <v>18</v>
       </c>
@@ -4763,7 +4767,7 @@
       </c>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
@@ -4781,7 +4785,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
@@ -4797,7 +4801,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
@@ -4813,7 +4817,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
@@ -4834,7 +4838,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
@@ -4850,7 +4854,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="H18" t="s">
         <v>28</v>
@@ -4862,7 +4866,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="1" t="s">
         <v>29</v>
       </c>
@@ -4880,7 +4884,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="4:12" ht="68.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:12" ht="66.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D20" s="5" t="s">
         <v>202</v>
       </c>
@@ -4906,7 +4910,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
@@ -4942,7 +4946,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E23" s="1" t="s">
         <v>37</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
@@ -4981,7 +4985,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
@@ -4997,7 +5001,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>42</v>
       </c>
@@ -5018,7 +5022,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>44</v>
       </c>
@@ -5039,7 +5043,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="1" t="s">
         <v>47</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D29" s="5" t="s">
         <v>199</v>
       </c>
@@ -5086,7 +5090,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="4:12" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:12" ht="66" x14ac:dyDescent="0.3">
       <c r="D30" s="8"/>
       <c r="E30" s="9" t="s">
         <v>204</v>
@@ -5110,7 +5114,7 @@
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
     </row>
-    <row r="31" spans="4:12" ht="119" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:12" ht="115.5" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>42</v>
       </c>
@@ -5134,7 +5138,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
         <v>44</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>51</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -5194,7 +5198,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="4:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:12" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>49</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="36" spans="4:12" ht="34.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:12" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>201</v>
       </c>
@@ -5241,7 +5245,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
     </row>
-    <row r="37" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E37" s="1" t="s">
         <v>48</v>
       </c>
@@ -5262,7 +5266,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D38" s="5" t="s">
         <v>56</v>
       </c>
@@ -5284,7 +5288,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E39" s="1" t="s">
         <v>61</v>
       </c>
@@ -5299,7 +5303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E40" s="2"/>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
@@ -5309,7 +5313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E41" s="1" t="s">
         <v>62</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>64</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E43" s="2"/>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
@@ -5349,7 +5353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
         <v>67</v>
       </c>
@@ -5364,7 +5368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
         <v>69</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E46" s="2"/>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
@@ -5389,7 +5393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>73</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E49" s="2"/>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
@@ -5429,7 +5433,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1" t="s">
         <v>77</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E51" s="2"/>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
@@ -5454,7 +5458,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>80</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E53" s="2"/>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
@@ -5479,7 +5483,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>83</v>
       </c>
@@ -5494,7 +5498,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E55" s="2"/>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
@@ -5504,7 +5508,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E56" s="1" t="s">
         <v>86</v>
       </c>
@@ -5519,7 +5523,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="4:12" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="57" spans="4:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E57" s="1"/>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
@@ -5529,7 +5533,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="4:12" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D58" s="5" t="s">
         <v>89</v>
       </c>
@@ -5555,7 +5559,7 @@
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
     </row>
-    <row r="59" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>92</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="60" spans="4:12" ht="51" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:12" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>221</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="61" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="61" spans="4:12" x14ac:dyDescent="0.3">
       <c r="H61" t="s">
         <v>95</v>
       </c>
@@ -5604,7 +5608,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E62" s="1" t="s">
         <v>96</v>
       </c>
@@ -5625,7 +5629,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="4:12" ht="34" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:12" ht="33" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>98</v>
       </c>
@@ -5646,7 +5650,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="64" spans="4:12" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:12" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>100</v>
       </c>
@@ -5664,7 +5668,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>103</v>
       </c>
@@ -5679,7 +5683,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="66" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>104</v>
       </c>
@@ -5697,7 +5701,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="67" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="67" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>106</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="68" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>108</v>
       </c>
@@ -5736,7 +5740,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="69" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="69" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>110</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="70" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="70" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>112</v>
       </c>
@@ -5778,7 +5782,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="71" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="71" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>114</v>
       </c>
@@ -5802,7 +5806,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="72" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>117</v>
       </c>
@@ -5820,7 +5824,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="73" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E73" s="1" t="s">
         <v>118</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="74" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>121</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="75" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E75" s="1" t="s">
         <v>122</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76" spans="5:11" ht="85" x14ac:dyDescent="0.45">
+    <row r="76" spans="5:11" ht="82.5" x14ac:dyDescent="0.3">
       <c r="E76" s="1" t="s">
         <v>124</v>
       </c>
@@ -5897,25 +5901,25 @@
         <v>235</v>
       </c>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E183" t="str">
         <f>IF(D183="","",CONCATENATE("https://www.acmicpc.net/problem/",D183))</f>
         <v/>
       </c>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E184" t="str">
         <f>IF(D184="","",CONCATENATE("https://www.acmicpc.net/problem/",D184))</f>
         <v/>
       </c>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E185" t="str">
         <f>IF(D185="","",CONCATENATE("https://www.acmicpc.net/problem/",D185))</f>
         <v/>
       </c>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.45">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E186" t="str">
         <f>IF(D186="","",CONCATENATE("https://www.acmicpc.net/problem/",D186))</f>
         <v/>
@@ -5936,22 +5940,22 @@
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.08203125" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
     <col min="7" max="7" width="37.5" customWidth="1"/>
     <col min="8" max="8" width="62" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="31" style="1" customWidth="1"/>
-    <col min="11" max="11" width="62.83203125" customWidth="1"/>
-    <col min="12" max="12" width="34.83203125" customWidth="1"/>
+    <col min="11" max="11" width="62.875" customWidth="1"/>
+    <col min="12" max="12" width="34.875" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:13" x14ac:dyDescent="0.3">
       <c r="J2" s="1" t="s">
         <v>277</v>
       </c>
@@ -5959,7 +5963,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -5994,7 +5998,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>248</v>
       </c>
@@ -6002,7 +6006,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="5" spans="3:13" ht="102" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:13" ht="99" x14ac:dyDescent="0.3">
       <c r="E5" s="14" t="s">
         <v>256</v>
       </c>
@@ -6029,7 +6033,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="51" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:13" ht="49.5" x14ac:dyDescent="0.3">
       <c r="E6" s="14" t="s">
         <v>257</v>
       </c>
@@ -6046,7 +6050,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
@@ -6094,7 +6098,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E9" s="1" t="s">
         <v>132</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E10" s="1" t="s">
         <v>134</v>
       </c>
@@ -6136,7 +6140,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E11" s="1" t="s">
         <v>136</v>
       </c>
@@ -6157,7 +6161,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E12" s="1" t="s">
         <v>138</v>
       </c>
@@ -6178,7 +6182,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E13" s="1" t="s">
         <v>140</v>
       </c>
@@ -6199,7 +6203,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E14" s="1" t="s">
         <v>142</v>
       </c>
@@ -6220,7 +6224,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:13" x14ac:dyDescent="0.3">
       <c r="E15" s="1" t="s">
         <v>144</v>
       </c>
@@ -6241,7 +6245,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="16" spans="3:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E16" s="1" t="s">
         <v>146</v>
       </c>
@@ -6265,7 +6269,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E17" s="1" t="s">
         <v>148</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E18" s="1" t="s">
         <v>150</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E19" s="1" t="s">
         <v>153</v>
       </c>
@@ -6334,7 +6338,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="20" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E20" s="1" t="s">
         <v>154</v>
       </c>
@@ -6358,7 +6362,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E21" s="1" t="s">
         <v>156</v>
       </c>
@@ -6379,7 +6383,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E22" s="1" t="s">
         <v>158</v>
       </c>
@@ -6400,7 +6404,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="5:11" ht="51" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
         <v>160</v>
       </c>
@@ -6414,7 +6418,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="5:11" ht="68" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:11" ht="66" x14ac:dyDescent="0.3">
       <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
@@ -6438,7 +6442,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="H25" t="s">
         <v>162</v>
       </c>
@@ -6452,7 +6456,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E26" s="1" t="s">
         <v>163</v>
       </c>
@@ -6473,7 +6477,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="27" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E27" s="1" t="s">
         <v>165</v>
       </c>
@@ -6497,7 +6501,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="28" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
@@ -6518,7 +6522,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="29" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="29" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E29" s="1" t="s">
         <v>169</v>
       </c>
@@ -6542,7 +6546,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="30" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="30" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H30" t="s">
         <v>171</v>
       </c>
@@ -6553,7 +6557,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="31" spans="5:11" ht="34" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:11" ht="33" x14ac:dyDescent="0.3">
       <c r="E31" s="1" t="s">
         <v>245</v>
       </c>
@@ -6577,7 +6581,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="5:11" x14ac:dyDescent="0.45">
+    <row r="32" spans="5:11" x14ac:dyDescent="0.3">
       <c r="H32" t="s">
         <v>246</v>
       </c>
@@ -6588,7 +6592,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E33" s="1" t="s">
         <v>243</v>
       </c>
@@ -6612,7 +6616,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E34" s="1" t="s">
         <v>240</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="4:13" ht="51.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="4:13" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="1" t="s">
         <v>239</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D36" s="5" t="s">
         <v>249</v>
       </c>
@@ -6671,7 +6675,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E37" s="15" t="s">
         <v>250</v>
       </c>
@@ -6689,7 +6693,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H38" t="s">
         <v>252</v>
       </c>
@@ -6697,7 +6701,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>253</v>
       </c>
@@ -6705,7 +6709,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>254</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>289</v>
       </c>
@@ -6721,7 +6725,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E42" s="1" t="s">
         <v>291</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>293</v>
       </c>
@@ -6747,7 +6751,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="44" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="44" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E44" s="14" t="s">
         <v>308</v>
       </c>
@@ -6765,7 +6769,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="45" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="45" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E45" s="14" t="s">
         <v>306</v>
       </c>
@@ -6776,7 +6780,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E46" s="1" t="s">
         <v>299</v>
       </c>
@@ -6794,7 +6798,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1" t="s">
         <v>300</v>
       </c>
@@ -6812,7 +6816,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
         <v>302</v>
       </c>
@@ -6830,7 +6834,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="49" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E49" s="14" t="s">
         <v>307</v>
       </c>
@@ -6848,7 +6852,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="50" spans="4:13" ht="34" x14ac:dyDescent="0.45">
+    <row r="50" spans="4:13" ht="33" x14ac:dyDescent="0.3">
       <c r="E50" s="14" t="s">
         <v>309</v>
       </c>
@@ -6859,7 +6863,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E51" s="1" t="s">
         <v>311</v>
       </c>
@@ -6877,7 +6881,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>313</v>
       </c>
@@ -6895,7 +6899,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E53" s="1" t="s">
         <v>315</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E54" s="1" t="s">
         <v>317</v>
       </c>
@@ -6931,7 +6935,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E55" s="1" t="s">
         <v>319</v>
       </c>
@@ -6949,7 +6953,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="56" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H56" t="s">
         <v>321</v>
       </c>
@@ -6957,7 +6961,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="57" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E57" s="1" t="s">
         <v>322</v>
       </c>
@@ -6975,7 +6979,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="58" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E58" s="1" t="s">
         <v>325</v>
       </c>
@@ -6993,7 +6997,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="59" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E59" s="1" t="s">
         <v>326</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E60" s="1" t="s">
         <v>328</v>
       </c>
@@ -7029,7 +7033,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="61" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="61" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E61" s="1" t="s">
         <v>330</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="62" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D62" s="5" t="s">
         <v>332</v>
       </c>
@@ -7061,7 +7065,7 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
     </row>
-    <row r="63" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E63" s="1" t="s">
         <v>243</v>
       </c>
@@ -7079,7 +7083,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="64" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E64" s="1" t="s">
         <v>334</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="65" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E65" s="1" t="s">
         <v>336</v>
       </c>
@@ -7115,7 +7119,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="66" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="66" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E66" s="1" t="s">
         <v>338</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="67" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E67" s="1" t="s">
         <v>142</v>
       </c>
@@ -7148,7 +7152,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="68" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E68" s="1" t="s">
         <v>340</v>
       </c>
@@ -7166,7 +7170,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="69" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E69" s="1" t="s">
         <v>342</v>
       </c>
@@ -7184,7 +7188,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="70" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E70" s="1" t="s">
         <v>344</v>
       </c>
@@ -7202,7 +7206,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="71" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E71" s="1" t="s">
         <v>346</v>
       </c>
@@ -7220,7 +7224,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="72" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="72" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E72" s="1" t="s">
         <v>348</v>
       </c>
@@ -7238,7 +7242,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="73" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H73" t="s">
         <v>354</v>
       </c>
@@ -7246,7 +7250,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="74" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="74" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H74" t="s">
         <v>355</v>
       </c>
@@ -7254,7 +7258,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="4:13" x14ac:dyDescent="0.3">
       <c r="H75" t="s">
         <v>356</v>
       </c>
@@ -7262,7 +7266,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="76" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H76" t="s">
         <v>357</v>
       </c>
@@ -7270,7 +7274,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="77" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D77" s="5" t="s">
         <v>358</v>
       </c>
@@ -7284,7 +7288,7 @@
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
     </row>
-    <row r="78" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="78" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E78" s="1" t="s">
         <v>360</v>
       </c>
@@ -7302,7 +7306,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="79" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E79" s="1" t="s">
         <v>362</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E80" s="1" t="s">
         <v>364</v>
       </c>
@@ -7338,7 +7342,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G81" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7350,7 +7354,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E82" s="1" t="s">
         <v>365</v>
       </c>
@@ -7363,7 +7367,7 @@
       </c>
       <c r="J82" s="16"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E83" s="1" t="s">
         <v>368</v>
       </c>
@@ -7381,7 +7385,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E84" s="1" t="s">
         <v>370</v>
       </c>
@@ -7399,7 +7403,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
       <c r="G85" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7411,7 +7415,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E86" s="1" t="s">
         <v>373</v>
       </c>
@@ -7429,7 +7433,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E87" s="1" t="s">
         <v>375</v>
       </c>
@@ -7447,7 +7451,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="4:13" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="88" spans="4:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E88" s="1" t="s">
         <v>377</v>
       </c>
@@ -7465,7 +7469,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="4:13" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="4:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D89" s="5" t="s">
         <v>389</v>
       </c>
@@ -7479,7 +7483,7 @@
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E90" s="1" t="s">
         <v>390</v>
       </c>
@@ -7497,7 +7501,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E91" s="1" t="s">
         <v>392</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E92" s="1" t="s">
         <v>394</v>
       </c>
@@ -7533,7 +7537,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E93" s="1" t="s">
         <v>396</v>
       </c>
@@ -7551,7 +7555,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E94" s="1" t="s">
         <v>398</v>
       </c>
@@ -7569,7 +7573,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E95" s="1" t="s">
         <v>437</v>
       </c>
@@ -7587,7 +7591,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
       <c r="E96" s="1" t="s">
         <v>401</v>
       </c>
@@ -7605,7 +7609,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G97" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7617,7 +7621,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E98" s="1" t="s">
         <v>404</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E99" s="1" t="s">
         <v>406</v>
       </c>
@@ -7653,7 +7657,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E100" s="1" t="s">
         <v>408</v>
       </c>
@@ -7671,7 +7675,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E101" s="1" t="s">
         <v>410</v>
       </c>
@@ -7692,12 +7696,12 @@
         <v>444</v>
       </c>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J102" s="16" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E103" s="1" t="s">
         <v>412</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E104" s="1" t="s">
         <v>414</v>
       </c>
@@ -7733,7 +7737,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
         <v>416</v>
       </c>
@@ -7741,7 +7745,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E106" s="1" t="s">
         <v>417</v>
       </c>
@@ -7759,7 +7763,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.3">
       <c r="G107" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -7771,7 +7775,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E108" s="1" t="s">
         <v>420</v>
       </c>
@@ -7789,7 +7793,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
         <v>422</v>
       </c>
@@ -7797,7 +7801,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E110" s="1" t="s">
         <v>423</v>
       </c>
@@ -7815,7 +7819,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E111" s="1" t="s">
         <v>425</v>
       </c>
@@ -7836,7 +7840,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.3">
       <c r="F112" t="s">
         <v>432</v>
       </c>
@@ -7847,12 +7851,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="113" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="113" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J113" s="16" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="114" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="114" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E114" s="1" t="s">
         <v>428</v>
       </c>
@@ -7870,7 +7874,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="115" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E115" s="1" t="s">
         <v>430</v>
       </c>
@@ -7891,7 +7895,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="5:10" x14ac:dyDescent="0.45">
+    <row r="116" spans="5:10" x14ac:dyDescent="0.3">
       <c r="J116" s="16" t="s">
         <v>486</v>
       </c>
@@ -7914,15 +7918,15 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.75" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>508</v>
       </c>
@@ -7943,7 +7947,7 @@
       </c>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>509</v>
       </c>
@@ -7954,7 +7958,7 @@
       <c r="F3" s="8"/>
       <c r="G3" s="24"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="26" t="s">
         <v>524</v>
@@ -7967,7 +7971,7 @@
       <c r="F4" s="8"/>
       <c r="G4" s="24"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>527</v>
@@ -7980,7 +7984,7 @@
       <c r="F5" s="8"/>
       <c r="G5" s="24"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
       <c r="B6" s="26" t="s">
         <v>532</v>
@@ -7995,7 +7999,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="25"/>
       <c r="B7" s="26" t="s">
         <v>533</v>
@@ -8010,7 +8014,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="24"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="23"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -8019,7 +8023,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="24"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>510</v>
       </c>
@@ -8030,7 +8034,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
       <c r="B10" s="26" t="s">
         <v>534</v>
@@ -8043,7 +8047,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="26" t="s">
         <v>535</v>
@@ -8056,7 +8060,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="26" t="s">
         <v>536</v>
@@ -8069,7 +8073,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="26" t="s">
         <v>537</v>
@@ -8082,7 +8086,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -8091,7 +8095,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
         <v>511</v>
       </c>
@@ -8102,7 +8106,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
       <c r="B16" s="26" t="s">
         <v>539</v>
@@ -8117,7 +8121,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="26" t="s">
         <v>542</v>
@@ -8130,7 +8134,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="26" t="s">
         <v>543</v>
@@ -8143,7 +8147,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -8152,7 +8156,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="23" t="s">
         <v>512</v>
       </c>
@@ -8163,7 +8167,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="24"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="26" t="s">
         <v>544</v>
@@ -8176,7 +8180,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="26" t="s">
         <v>545</v>
@@ -8189,7 +8193,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="24"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="26" t="s">
         <v>546</v>
@@ -8202,7 +8206,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -8211,7 +8215,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -8220,7 +8224,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="23" t="s">
         <v>513</v>
       </c>
@@ -8231,7 +8235,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="26" t="s">
         <v>547</v>
@@ -8244,7 +8248,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="26" t="s">
         <v>549</v>
@@ -8257,7 +8261,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="26" t="s">
         <v>550</v>
@@ -8270,7 +8274,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -8279,7 +8283,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="23" t="s">
         <v>552</v>
       </c>
@@ -8292,7 +8296,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="26" t="s">
         <v>554</v>
@@ -8305,7 +8309,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="25"/>
       <c r="B33" s="26" t="s">
         <v>555</v>
@@ -8318,7 +8322,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="26" t="s">
         <v>556</v>
@@ -8333,7 +8337,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="26" t="s">
         <v>557</v>
@@ -8346,7 +8350,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="25"/>
       <c r="B36" s="26" t="s">
         <v>558</v>
@@ -8359,7 +8363,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="25"/>
       <c r="B37" s="26" t="s">
         <v>560</v>
@@ -8372,7 +8376,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="23" t="s">
         <v>514</v>
       </c>
@@ -8383,7 +8387,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="25"/>
       <c r="B39" s="26" t="s">
         <v>561</v>
@@ -8396,7 +8400,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="24"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="25"/>
       <c r="B40" s="26" t="s">
         <v>562</v>
@@ -8409,7 +8413,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="24"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="25"/>
       <c r="B41" s="26" t="s">
         <v>563</v>
@@ -8422,7 +8426,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="24"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="25"/>
       <c r="B42" s="26" t="s">
         <v>564</v>
@@ -8435,7 +8439,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="24"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="23"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -8444,7 +8448,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="24"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="23" t="s">
         <v>515</v>
       </c>
@@ -8455,7 +8459,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="24"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="25"/>
       <c r="B45" s="26" t="s">
         <v>565</v>
@@ -8468,7 +8472,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="24"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="25"/>
       <c r="B46" s="26" t="s">
         <v>566</v>
@@ -8481,7 +8485,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="24"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="25"/>
       <c r="B47" s="26" t="s">
         <v>567</v>
@@ -8494,7 +8498,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="25"/>
       <c r="B48" s="26" t="s">
         <v>568</v>
@@ -8507,7 +8511,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -8516,7 +8520,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="24"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="23" t="s">
         <v>516</v>
       </c>
@@ -8527,7 +8531,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="24"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="25"/>
       <c r="B51" s="26" t="s">
         <v>569</v>
@@ -8542,7 +8546,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="24"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="25"/>
       <c r="B52" s="26" t="s">
         <v>517</v>
@@ -8555,7 +8559,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="24"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="23"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -8564,7 +8568,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="24"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="23" t="s">
         <v>518</v>
       </c>
@@ -8575,7 +8579,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="25"/>
       <c r="B55" s="26" t="s">
         <v>570</v>
@@ -8588,7 +8592,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="25"/>
       <c r="B56" s="26" t="s">
         <v>519</v>
@@ -8603,7 +8607,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
         <v>520</v>
@@ -8614,19 +8618,19 @@
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="21"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="21"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
     </row>
   </sheetData>
@@ -8638,22 +8642,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H49"/>
+  <dimension ref="A2:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -8677,7 +8681,7 @@
       </c>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="26">
         <v>1</v>
       </c>
@@ -8694,7 +8698,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>2</v>
       </c>
@@ -8708,7 +8712,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>584</v>
       </c>
@@ -8716,7 +8720,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -8730,7 +8734,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1</v>
       </c>
@@ -8744,7 +8748,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>2</v>
       </c>
@@ -8755,7 +8759,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>3</v>
       </c>
@@ -8769,7 +8773,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>1</v>
       </c>
@@ -8780,7 +8784,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>2</v>
       </c>
@@ -8791,7 +8795,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>3</v>
       </c>
@@ -8805,7 +8809,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>3</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1</v>
       </c>
@@ -8830,7 +8834,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1</v>
       </c>
@@ -8841,7 +8845,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>2</v>
       </c>
@@ -8858,7 +8862,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2</v>
       </c>
@@ -8872,7 +8876,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>2</v>
       </c>
@@ -8886,7 +8890,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>2</v>
       </c>
@@ -8900,7 +8904,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -8911,7 +8915,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>3</v>
       </c>
@@ -8925,7 +8929,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>1</v>
       </c>
@@ -8936,7 +8940,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>2</v>
       </c>
@@ -8950,7 +8954,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>1</v>
       </c>
@@ -8964,7 +8968,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="136" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>673</v>
       </c>
@@ -8981,7 +8985,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>673</v>
       </c>
@@ -8998,7 +9002,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>673</v>
       </c>
@@ -9015,7 +9019,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="102" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="99" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>673</v>
       </c>
@@ -9032,7 +9036,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>673</v>
       </c>
@@ -9049,7 +9053,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="68" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>673</v>
       </c>
@@ -9066,7 +9070,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>1</v>
       </c>
@@ -9080,7 +9084,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>1</v>
       </c>
@@ -9094,7 +9098,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>673</v>
       </c>
@@ -9111,7 +9115,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -9125,7 +9129,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>673</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1</v>
       </c>
@@ -9156,7 +9160,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="153" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>673</v>
       </c>
@@ -9173,7 +9177,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>684</v>
       </c>
@@ -9190,7 +9194,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>2</v>
       </c>
@@ -9201,7 +9205,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>1</v>
       </c>
@@ -9212,7 +9216,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>1</v>
       </c>
@@ -9226,7 +9230,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>1</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>1</v>
       </c>
@@ -9249,7 +9253,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>1</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>1</v>
       </c>
@@ -9271,7 +9275,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>1</v>
       </c>
@@ -9285,7 +9289,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>717</v>
       </c>
@@ -9302,7 +9306,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>1</v>
       </c>
@@ -9313,7 +9317,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>1</v>
       </c>
@@ -9325,6 +9329,17 @@
       </c>
       <c r="E49" s="10" t="s">
         <v>724</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>725</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -9343,17 +9358,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="9.75" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
+    <col min="3" max="3" width="60.375" customWidth="1"/>
     <col min="4" max="4" width="70.75" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="8" max="8" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>579</v>
       </c>
@@ -9379,7 +9394,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>672</v>
       </c>
@@ -9397,7 +9412,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="24"/>
     </row>
-    <row r="4" spans="1:8" ht="68" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>681</v>
       </c>
@@ -9411,7 +9426,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>690</v>
       </c>
@@ -9425,7 +9440,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="136" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>696</v>
       </c>
@@ -9439,117 +9454,117 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" s="4"/>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E10" s="10"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D16" s="34"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="4"/>
       <c r="E17" s="10"/>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="4"/>
       <c r="E18" s="10"/>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="4"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="4"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="4"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="4"/>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="4"/>
       <c r="E26" s="10"/>